--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -721,7 +721,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -837,6 +837,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1112,10 +1118,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1487,8 +1497,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -17641,7 +17655,7 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18110,7 +18124,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="141" t="s">
         <v>121</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -18142,7 +18156,7 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="141" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -23315,6 +23329,8 @@
     <hyperlink ref="F31" r:id="rId13"/>
     <hyperlink ref="F32" r:id="rId14"/>
     <hyperlink ref="F33" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>(min:seg:cs)</t>
-  </si>
-  <si>
-    <t>Tipo/Evento sonoro/sonido</t>
   </si>
   <si>
     <t>Música/situación calma/Menú</t>
@@ -712,6 +709,9 @@
   <si>
     <t xml:space="preserve">SFX/Muerte  Voz </t>
   </si>
+  <si>
+    <t>Tipo/Evento sonoro/nombre de archivo</t>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +721,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -843,6 +843,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1125,7 +1138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1500,6 +1513,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1830,19 +1849,19 @@
     <row r="1" spans="2:8" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:8" ht="13.5" customHeight="1">
       <c r="B2" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="H2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="13.5" customHeight="1">
       <c r="B3" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -1861,22 +1880,22 @@
     <row r="5" spans="2:8" ht="13.5" customHeight="1">
       <c r="B5" s="40"/>
       <c r="C5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1">
       <c r="B6" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -1895,7 +1914,7 @@
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1">
       <c r="B7" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="45">
         <v>2</v>
@@ -1914,7 +1933,7 @@
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="B8" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="45">
         <v>0</v>
@@ -1933,7 +1952,7 @@
     </row>
     <row r="9" spans="2:8" ht="13.5" customHeight="1">
       <c r="B9" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="45">
         <v>23</v>
@@ -1952,7 +1971,7 @@
     </row>
     <row r="10" spans="2:8" ht="13.5" customHeight="1">
       <c r="B10" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="45">
         <v>1</v>
@@ -1971,7 +1990,7 @@
     </row>
     <row r="11" spans="2:8" ht="13.5" customHeight="1">
       <c r="B11" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="48">
         <v>19</v>
@@ -3021,7 +3040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3117,8 +3138,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3147,7 +3168,7 @@
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -3155,26 +3176,26 @@
         <v>12</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="15">
         <v>44.1</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="K5" s="22">
         <v>4.3055555555555555E-2</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -3192,7 +3213,7 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3200,26 +3221,26 @@
         <v>12</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="15">
         <v>44.1</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="26">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -3237,7 +3258,7 @@
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3245,26 +3266,26 @@
         <v>12</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="15">
         <v>44.1</v>
       </c>
       <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="K7" s="22">
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -3281,7 +3302,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3296,12 +3317,12 @@
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
       <c r="M8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3316,12 +3337,12 @@
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
       <c r="M9" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
@@ -3336,12 +3357,12 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
       <c r="M10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3356,12 +3377,12 @@
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
       <c r="M11" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -3376,12 +3397,12 @@
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
       <c r="M12" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3389,19 +3410,19 @@
         <v>12</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="15">
         <v>44.1</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="K13" s="22">
         <v>2.7777777777777776E-2</v>
@@ -3411,7 +3432,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3426,7 +3447,7 @@
       <c r="K14" s="34"/>
       <c r="L14" s="35"/>
       <c r="M14" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
@@ -6410,7 +6431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6431,7 +6454,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -6509,8 +6532,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6523,15 +6546,15 @@
       <c r="K4" s="57"/>
       <c r="L4" s="58"/>
       <c r="N4" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="59" t="s">
@@ -6546,15 +6569,15 @@
       <c r="K5" s="24"/>
       <c r="L5" s="61"/>
       <c r="N5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="59"/>
@@ -6562,10 +6585,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="65" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>56</v>
       </c>
       <c r="H6" s="65">
         <v>11.025</v>
@@ -6574,21 +6597,21 @@
         <v>32</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="66">
         <v>2.6157407407407407E-2</v>
       </c>
       <c r="L6" s="67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -6596,10 +6619,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="65">
         <v>11.025</v>
@@ -6608,21 +6631,21 @@
         <v>32</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="69">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>10</v>
@@ -6630,10 +6653,10 @@
       <c r="D8" s="68"/>
       <c r="E8" s="70"/>
       <c r="F8" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="65">
         <v>11.025</v>
@@ -6642,19 +6665,19 @@
         <v>32</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="66">
         <v>1.5509259259259259E-3</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>10</v>
@@ -6662,10 +6685,10 @@
       <c r="D9" s="68"/>
       <c r="E9" s="63"/>
       <c r="F9" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="65">
         <v>11.025</v>
@@ -6674,19 +6697,19 @@
         <v>32</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="69">
         <v>2.476851851851852E-3</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="70" t="s">
         <v>10</v>
@@ -6694,10 +6717,10 @@
       <c r="D10" s="68"/>
       <c r="E10" s="70"/>
       <c r="F10" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="65">
         <v>11.025</v>
@@ -6706,19 +6729,19 @@
         <v>32</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="66">
         <v>2.5115740740740741E-3</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="70" t="s">
         <v>10</v>
@@ -6726,10 +6749,10 @@
       <c r="D11" s="68"/>
       <c r="E11" s="70"/>
       <c r="F11" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="65">
         <v>11.025</v>
@@ -6738,19 +6761,19 @@
         <v>32</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="66">
         <v>2.4537037037037036E-3</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="70" t="s">
         <v>10</v>
@@ -6758,10 +6781,10 @@
       <c r="D12" s="68"/>
       <c r="E12" s="70"/>
       <c r="F12" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="65">
         <v>11.025</v>
@@ -6770,21 +6793,21 @@
         <v>32</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="66">
         <v>4.8958333333333336E-3</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>10</v>
@@ -6792,10 +6815,10 @@
       <c r="D13" s="68"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="65">
         <v>11.025</v>
@@ -6804,21 +6827,21 @@
         <v>32</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="69">
         <v>2.3958333333333331E-3</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6826,10 +6849,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="65" t="s">
         <v>55</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="65">
         <v>11.025</v>
@@ -6838,21 +6861,21 @@
         <v>32</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="66">
         <v>1.337962962962963E-2</v>
       </c>
       <c r="L14" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="59"/>
@@ -6860,10 +6883,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="65">
         <v>11.025</v>
@@ -6872,21 +6895,21 @@
         <v>32</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="66">
         <v>2.3553240740740739E-2</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="59" t="s">
@@ -6901,12 +6924,12 @@
       <c r="K16" s="24"/>
       <c r="L16" s="61"/>
       <c r="O16" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="59" t="s">
@@ -6921,12 +6944,12 @@
       <c r="K17" s="24"/>
       <c r="L17" s="61"/>
       <c r="O17" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -6934,10 +6957,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="65">
         <v>11.025</v>
@@ -6946,21 +6969,21 @@
         <v>32</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="66">
         <v>7.137731481481481E-2</v>
       </c>
       <c r="L18" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -6968,10 +6991,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="65">
         <v>11.025</v>
@@ -6980,17 +7003,17 @@
         <v>32</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="77">
         <v>1.369212962962963E-2</v>
       </c>
       <c r="L19" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" s="78"/>
       <c r="O19" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="13.5" customHeight="1">
@@ -7006,7 +7029,7 @@
       <c r="K20" s="86"/>
       <c r="L20" s="87"/>
       <c r="O20" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="13.5" customHeight="1">
@@ -11985,7 +12008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12006,10 +12031,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -12088,8 +12113,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12102,12 +12127,12 @@
       <c r="K4" s="57"/>
       <c r="L4" s="58"/>
       <c r="N4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -12115,10 +12140,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>91</v>
       </c>
       <c r="H5" s="65">
         <v>22.05</v>
@@ -12127,21 +12152,21 @@
         <v>24</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="99">
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="L5" s="100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12149,10 +12174,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>91</v>
       </c>
       <c r="H6" s="65">
         <v>22.05</v>
@@ -12161,21 +12186,21 @@
         <v>24</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="99">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L6" s="100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12183,10 +12208,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="65">
         <v>22.05</v>
@@ -12195,21 +12220,21 @@
         <v>24</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="99">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L7" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12217,10 +12242,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="65">
         <v>22.05</v>
@@ -12229,21 +12254,21 @@
         <v>24</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="99">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12251,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="65">
         <v>22.05</v>
@@ -12263,21 +12288,21 @@
         <v>24</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="99">
         <v>3.9675925925925927E-2</v>
       </c>
       <c r="L9" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12285,10 +12310,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="65">
         <v>22.05</v>
@@ -12297,21 +12322,21 @@
         <v>24</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="99">
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="L10" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12319,10 +12344,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>91</v>
       </c>
       <c r="H11" s="65">
         <v>22.05</v>
@@ -12331,21 +12356,21 @@
         <v>24</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="66">
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12353,10 +12378,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="65">
         <v>22.05</v>
@@ -12365,21 +12390,21 @@
         <v>24</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="66">
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="L12" s="101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12387,10 +12412,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="65">
         <v>22.05</v>
@@ -12399,21 +12424,21 @@
         <v>24</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="99">
         <v>6.8287037037037036E-4</v>
       </c>
       <c r="L13" s="101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12421,10 +12446,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="65">
         <v>22.05</v>
@@ -12433,21 +12458,21 @@
         <v>24</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="102">
         <v>5.3819444444444444E-3</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12455,10 +12480,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="21">
         <v>16</v>
@@ -12467,21 +12492,21 @@
         <v>32</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="102">
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="L15" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12489,10 +12514,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="21">
         <v>16</v>
@@ -12501,21 +12526,21 @@
         <v>32</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="66">
         <v>1.5277777777777779E-3</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12523,10 +12548,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="21">
         <v>16</v>
@@ -12535,21 +12560,21 @@
         <v>32</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="66">
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12557,10 +12582,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
@@ -12569,21 +12594,21 @@
         <v>32</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="66">
         <v>7.5231481481481482E-4</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12591,10 +12616,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="21">
         <v>16</v>
@@ -12603,21 +12628,21 @@
         <v>32</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="102">
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="L19" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12625,10 +12650,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="65">
         <v>22.05</v>
@@ -12637,21 +12662,21 @@
         <v>24</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="103">
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L20" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -12659,10 +12684,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="65">
         <v>22.05</v>
@@ -12671,21 +12696,21 @@
         <v>24</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="66">
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L21" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -12693,10 +12718,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="65">
         <v>16</v>
@@ -12705,21 +12730,21 @@
         <v>32</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="103">
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -12727,10 +12752,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="106">
         <v>16</v>
@@ -12739,16 +12764,16 @@
         <v>32</v>
       </c>
       <c r="J23" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="107">
         <v>3.5185185185185185E-3</v>
       </c>
       <c r="L23" s="108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
@@ -17654,8 +17679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17675,7 +17700,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -17753,8 +17778,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -17767,12 +17792,12 @@
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
       <c r="N4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
@@ -17780,7 +17805,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -17789,12 +17814,12 @@
       <c r="K5" s="24"/>
       <c r="L5" s="18"/>
       <c r="N5" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
@@ -17802,7 +17827,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -17814,7 +17839,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -17822,16 +17847,16 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="18"/>
       <c r="N7" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -17839,7 +17864,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -17848,12 +17873,12 @@
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
       <c r="N8" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>10</v>
@@ -17861,7 +17886,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -17873,7 +17898,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -17888,12 +17913,12 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
       <c r="N10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
@@ -17908,12 +17933,12 @@
       <c r="K11" s="17"/>
       <c r="L11" s="90"/>
       <c r="N11" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
@@ -17921,7 +17946,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -17930,12 +17955,12 @@
       <c r="K12" s="17"/>
       <c r="L12" s="90"/>
       <c r="N12" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>108</v>
+      <c r="B13" s="142" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>10</v>
@@ -17943,7 +17968,7 @@
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
       <c r="F13" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
@@ -17953,12 +17978,12 @@
       <c r="L13" s="92"/>
       <c r="M13" s="78"/>
       <c r="N13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>10</v>
@@ -17974,12 +17999,12 @@
       <c r="L14" s="92"/>
       <c r="M14" s="78"/>
       <c r="N14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>10</v>
@@ -17994,12 +18019,12 @@
       <c r="K15" s="24"/>
       <c r="L15" s="92"/>
       <c r="N15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>10</v>
@@ -18007,7 +18032,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -18016,12 +18041,12 @@
       <c r="K16" s="24"/>
       <c r="L16" s="92"/>
       <c r="N16" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>10</v>
@@ -18029,7 +18054,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -18038,12 +18063,12 @@
       <c r="K17" s="24"/>
       <c r="L17" s="92"/>
       <c r="N17" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>10</v>
@@ -18058,12 +18083,12 @@
       <c r="K18" s="24"/>
       <c r="L18" s="92"/>
       <c r="N18" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>10</v>
@@ -18078,12 +18103,12 @@
       <c r="K19" s="24"/>
       <c r="L19" s="92"/>
       <c r="N19" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -18098,12 +18123,12 @@
       <c r="K20" s="24"/>
       <c r="L20" s="92"/>
       <c r="N20" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>10</v>
@@ -18111,7 +18136,7 @@
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -18120,12 +18145,12 @@
       <c r="K21" s="24"/>
       <c r="L21" s="92"/>
       <c r="N21" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>10</v>
@@ -18133,10 +18158,10 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="93">
         <v>43607</v>
@@ -18151,13 +18176,13 @@
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>10</v>
@@ -18165,10 +18190,10 @@
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="93">
         <v>43607</v>
@@ -18183,13 +18208,13 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>10</v>
@@ -18197,7 +18222,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -18206,12 +18231,12 @@
       <c r="K24" s="24"/>
       <c r="L24" s="92"/>
       <c r="N24" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>10</v>
@@ -18219,7 +18244,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -18228,12 +18253,12 @@
       <c r="K25" s="24"/>
       <c r="L25" s="92"/>
       <c r="N25" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>10</v>
@@ -18248,12 +18273,12 @@
       <c r="K26" s="24"/>
       <c r="L26" s="92"/>
       <c r="N26" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>10</v>
@@ -18269,12 +18294,12 @@
       <c r="L27" s="92"/>
       <c r="M27" s="78"/>
       <c r="N27" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>10</v>
@@ -18290,12 +18315,12 @@
       <c r="L28" s="92"/>
       <c r="M28" s="78"/>
       <c r="N28" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>10</v>
@@ -18311,12 +18336,12 @@
       <c r="L29" s="92"/>
       <c r="M29" s="78"/>
       <c r="N29" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>10</v>
@@ -18324,7 +18349,7 @@
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
       <c r="F30" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68"/>
@@ -18334,12 +18359,12 @@
       <c r="L30" s="92"/>
       <c r="M30" s="78"/>
       <c r="N30" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>10</v>
@@ -18347,7 +18372,7 @@
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="68"/>
       <c r="H31" s="68"/>
@@ -18357,12 +18382,12 @@
       <c r="L31" s="92"/>
       <c r="M31" s="78"/>
       <c r="N31" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
       <c r="B32" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>10</v>
@@ -18370,7 +18395,7 @@
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
       <c r="F32" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="68"/>
       <c r="H32" s="68"/>
@@ -18380,12 +18405,12 @@
       <c r="L32" s="92"/>
       <c r="M32" s="78"/>
       <c r="N32" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="13.5" customHeight="1">
       <c r="B33" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>10</v>
@@ -18393,7 +18418,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
@@ -18403,7 +18428,7 @@
       <c r="L33" s="97"/>
       <c r="M33" s="78"/>
       <c r="N33" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="13.5" customHeight="1">
@@ -23333,7 +23358,7 @@
     <hyperlink ref="B23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -23341,7 +23366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -23360,7 +23387,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -23438,8 +23465,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -23452,12 +23479,12 @@
       <c r="K4" s="110"/>
       <c r="L4" s="111"/>
       <c r="N4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -23467,12 +23494,12 @@
       <c r="F5" s="24"/>
       <c r="L5" s="111"/>
       <c r="N5" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -23487,12 +23514,12 @@
       <c r="K6" s="112"/>
       <c r="L6" s="111"/>
       <c r="N6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
@@ -23507,12 +23534,12 @@
       <c r="K7" s="117"/>
       <c r="L7" s="111"/>
       <c r="N7" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
@@ -23527,12 +23554,12 @@
       <c r="K8" s="120"/>
       <c r="L8" s="121"/>
       <c r="N8" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
@@ -23548,12 +23575,12 @@
       <c r="L9" s="125"/>
       <c r="M9" s="78"/>
       <c r="N9" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
@@ -23569,12 +23596,12 @@
       <c r="L10" s="125"/>
       <c r="M10" s="78"/>
       <c r="N10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
@@ -23590,12 +23617,12 @@
       <c r="L11" s="128"/>
       <c r="M11" s="78"/>
       <c r="N11" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
@@ -23610,12 +23637,12 @@
       <c r="K12" s="127"/>
       <c r="L12" s="128"/>
       <c r="N12" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -23623,7 +23650,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="130"/>
       <c r="H13" s="130"/>
@@ -23632,12 +23659,12 @@
       <c r="K13" s="130"/>
       <c r="L13" s="128"/>
       <c r="N13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -23645,7 +23672,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="114"/>
       <c r="H14" s="115"/>
@@ -23654,12 +23681,12 @@
       <c r="K14" s="117"/>
       <c r="L14" s="128"/>
       <c r="N14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -23667,7 +23694,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="130"/>
       <c r="H15" s="130"/>
@@ -23676,12 +23703,12 @@
       <c r="K15" s="130"/>
       <c r="L15" s="128"/>
       <c r="N15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
@@ -23696,12 +23723,12 @@
       <c r="K16" s="130"/>
       <c r="L16" s="125"/>
       <c r="N16" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
@@ -23716,12 +23743,12 @@
       <c r="K17" s="130"/>
       <c r="L17" s="128"/>
       <c r="N17" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
@@ -23736,12 +23763,12 @@
       <c r="K18" s="130"/>
       <c r="L18" s="128"/>
       <c r="N18" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -23756,12 +23783,12 @@
       <c r="K19" s="71"/>
       <c r="L19" s="128"/>
       <c r="N19" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -23776,12 +23803,12 @@
       <c r="K20" s="132"/>
       <c r="L20" s="128"/>
       <c r="N20" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -23796,12 +23823,12 @@
       <c r="K21" s="71"/>
       <c r="L21" s="128"/>
       <c r="N21" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
@@ -23809,7 +23836,7 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -23818,12 +23845,12 @@
       <c r="K22" s="71"/>
       <c r="L22" s="128"/>
       <c r="N22" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -23838,12 +23865,12 @@
       <c r="K23" s="71"/>
       <c r="L23" s="128"/>
       <c r="N23" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -23858,12 +23885,12 @@
       <c r="K24" s="71"/>
       <c r="L24" s="125"/>
       <c r="N24" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -23873,12 +23900,12 @@
       <c r="F25" s="24"/>
       <c r="L25" s="128"/>
       <c r="N25" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -23894,7 +23921,7 @@
       <c r="L26" s="139"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
@@ -28776,7 +28803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -28795,7 +28824,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -28873,8 +28902,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+      <c r="B4" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -28887,12 +28916,12 @@
       <c r="K4" s="110"/>
       <c r="L4" s="111"/>
       <c r="N4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
@@ -28907,12 +28936,12 @@
       <c r="K5" s="110"/>
       <c r="L5" s="111"/>
       <c r="N5" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
@@ -28927,12 +28956,12 @@
       <c r="K6" s="110"/>
       <c r="L6" s="111"/>
       <c r="N6" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -28940,7 +28969,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
@@ -28949,12 +28978,12 @@
       <c r="K7" s="131"/>
       <c r="L7" s="121"/>
       <c r="N7" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -28962,7 +28991,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="14"/>
@@ -28971,12 +29000,12 @@
       <c r="K8" s="131"/>
       <c r="L8" s="121"/>
       <c r="N8" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
@@ -28984,7 +29013,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="24"/>
@@ -28992,12 +29021,12 @@
       <c r="J9" s="24"/>
       <c r="L9" s="121"/>
       <c r="N9" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -29012,12 +29041,12 @@
       <c r="K10" s="110"/>
       <c r="L10" s="111"/>
       <c r="N10" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
@@ -29025,7 +29054,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -29034,12 +29063,12 @@
       <c r="K11" s="131"/>
       <c r="L11" s="121"/>
       <c r="N11" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
@@ -29047,7 +29076,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
@@ -29056,12 +29085,12 @@
       <c r="K12" s="131"/>
       <c r="L12" s="121"/>
       <c r="N12" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
@@ -29069,7 +29098,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="24"/>
@@ -29077,12 +29106,12 @@
       <c r="J13" s="24"/>
       <c r="L13" s="121"/>
       <c r="N13" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
@@ -29090,7 +29119,7 @@
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
       <c r="F14" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
@@ -29100,12 +29129,12 @@
       <c r="L14" s="125"/>
       <c r="M14" s="78"/>
       <c r="N14" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>10</v>
@@ -29113,7 +29142,7 @@
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="68"/>
@@ -29123,12 +29152,12 @@
       <c r="L15" s="128"/>
       <c r="M15" s="78"/>
       <c r="N15" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="136" t="s">
         <v>10</v>
@@ -29136,7 +29165,7 @@
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="68"/>
@@ -29146,12 +29175,12 @@
       <c r="L16" s="128"/>
       <c r="M16" s="78"/>
       <c r="N16" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
@@ -29159,7 +29188,7 @@
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="68"/>
@@ -29169,12 +29198,12 @@
       <c r="L17" s="128"/>
       <c r="M17" s="78"/>
       <c r="N17" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="136" t="s">
         <v>10</v>
@@ -29182,7 +29211,7 @@
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
       <c r="F18" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
@@ -29192,12 +29221,12 @@
       <c r="L18" s="125"/>
       <c r="M18" s="78"/>
       <c r="N18" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="136" t="s">
         <v>10</v>
@@ -29205,7 +29234,7 @@
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
       <c r="F19" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
@@ -29215,12 +29244,12 @@
       <c r="L19" s="128"/>
       <c r="M19" s="78"/>
       <c r="N19" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="136" t="s">
         <v>10</v>
@@ -29228,7 +29257,7 @@
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="68"/>
@@ -29238,12 +29267,12 @@
       <c r="L20" s="128"/>
       <c r="M20" s="78"/>
       <c r="N20" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
@@ -29251,7 +29280,7 @@
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
       <c r="F21" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="68"/>
@@ -29261,12 +29290,12 @@
       <c r="L21" s="128"/>
       <c r="M21" s="78"/>
       <c r="N21" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="140" t="s">
         <v>10</v>
@@ -29282,7 +29311,7 @@
       <c r="L22" s="139"/>
       <c r="M22" s="78"/>
       <c r="N22" s="138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -386,13 +386,7 @@
     <t>https://drive.google.com/drive/folders/1AKrs5e22aiVu0zhDcjx2qnKqBmiyc0OB?usp=sharing</t>
   </si>
   <si>
-    <t>SFX/Murcielago Mordedura/mordisco murcielago 1</t>
-  </si>
-  <si>
     <t>-13,355 db</t>
-  </si>
-  <si>
-    <t>SFX/Murcielago Mordedura/mordisco murcielago 2</t>
   </si>
   <si>
     <t>Sonido grabado, con la frecuencia de muestreo modificada y cambio de tono a 7350 Hz</t>
@@ -712,6 +706,12 @@
   <si>
     <t>Tipo/Evento sonoro/nombre de archivo</t>
   </si>
+  <si>
+    <t>SFX/Murcielago Mordedura/mordeduraMurcielago1.wav</t>
+  </si>
+  <si>
+    <t>SFX/Murcielago Mordedura/mordeduraMurcielago2.wav</t>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +721,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -855,6 +855,13 @@
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1510,13 +1517,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3138,8 +3145,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6532,8 +6539,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -12113,8 +12120,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12158,7 +12165,7 @@
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="L5" s="100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>94</v>
@@ -12166,7 +12173,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12192,7 +12199,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L6" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>94</v>
@@ -12200,7 +12207,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12226,7 +12233,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L7" s="100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>94</v>
@@ -12234,7 +12241,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12260,7 +12267,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>94</v>
@@ -12268,7 +12275,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12294,7 +12301,7 @@
         <v>3.9675925925925927E-2</v>
       </c>
       <c r="L9" s="101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>94</v>
@@ -12302,7 +12309,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12328,7 +12335,7 @@
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="L10" s="101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>94</v>
@@ -12336,7 +12343,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12362,7 +12369,7 @@
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>94</v>
@@ -12370,7 +12377,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12396,7 +12403,7 @@
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="L12" s="101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>94</v>
@@ -12404,7 +12411,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12430,7 +12437,7 @@
         <v>6.8287037037037036E-4</v>
       </c>
       <c r="L13" s="101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>94</v>
@@ -12438,7 +12445,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12464,7 +12471,7 @@
         <v>5.3819444444444444E-3</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>94</v>
@@ -12472,7 +12479,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12498,15 +12505,15 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12532,15 +12539,15 @@
         <v>1.5277777777777779E-3</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12566,15 +12573,15 @@
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12600,15 +12607,15 @@
         <v>7.5231481481481482E-4</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12634,15 +12641,15 @@
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="L19" s="101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12668,7 +12675,7 @@
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L20" s="101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>94</v>
@@ -12676,7 +12683,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -12702,7 +12709,7 @@
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L21" s="101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>94</v>
@@ -12710,7 +12717,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -12736,15 +12743,15 @@
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -12770,10 +12777,10 @@
         <v>3.5185185185185185E-3</v>
       </c>
       <c r="L23" s="108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
@@ -17679,8 +17686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17778,8 +17785,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -17959,7 +17966,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="141" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="59" t="s">
@@ -18149,8 +18156,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="141" t="s">
-        <v>120</v>
+      <c r="B22" s="143" t="s">
+        <v>227</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>10</v>
@@ -18176,13 +18183,13 @@
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="141" t="s">
-        <v>122</v>
+      <c r="B23" s="143" t="s">
+        <v>228</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>10</v>
@@ -18190,7 +18197,7 @@
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>90</v>
@@ -18208,13 +18215,13 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>10</v>
@@ -18222,7 +18229,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -18236,7 +18243,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>10</v>
@@ -18244,7 +18251,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -18258,7 +18265,7 @@
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>10</v>
@@ -18278,7 +18285,7 @@
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>10</v>
@@ -18299,7 +18306,7 @@
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>10</v>
@@ -18320,7 +18327,7 @@
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>10</v>
@@ -18341,7 +18348,7 @@
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>10</v>
@@ -18349,7 +18356,7 @@
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
       <c r="F30" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68"/>
@@ -18364,7 +18371,7 @@
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>10</v>
@@ -18372,7 +18379,7 @@
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G31" s="68"/>
       <c r="H31" s="68"/>
@@ -18387,7 +18394,7 @@
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
       <c r="B32" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>10</v>
@@ -18395,7 +18402,7 @@
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
       <c r="F32" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G32" s="68"/>
       <c r="H32" s="68"/>
@@ -18410,7 +18417,7 @@
     </row>
     <row r="33" spans="2:14" ht="13.5" customHeight="1">
       <c r="B33" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>10</v>
@@ -18418,7 +18425,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
@@ -23354,8 +23361,8 @@
     <hyperlink ref="F31" r:id="rId13"/>
     <hyperlink ref="F32" r:id="rId14"/>
     <hyperlink ref="F33" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId16" display="SFX/Murcielago Mordedura/mordisco murcielago 1"/>
+    <hyperlink ref="B23" r:id="rId17" display="SFX/Murcielago Mordedura/mordisco murcielago 2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -23387,7 +23394,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -23465,8 +23472,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -23484,7 +23491,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -23499,7 +23506,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -23519,7 +23526,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
@@ -23539,7 +23546,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
@@ -23559,7 +23566,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
@@ -23580,7 +23587,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
@@ -23601,7 +23608,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
@@ -23622,7 +23629,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
@@ -23642,7 +23649,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -23650,7 +23657,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" s="130"/>
       <c r="H13" s="130"/>
@@ -23664,7 +23671,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -23672,7 +23679,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G14" s="114"/>
       <c r="H14" s="115"/>
@@ -23686,7 +23693,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -23694,7 +23701,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G15" s="130"/>
       <c r="H15" s="130"/>
@@ -23708,7 +23715,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
@@ -23728,7 +23735,7 @@
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
@@ -23748,7 +23755,7 @@
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
@@ -23768,7 +23775,7 @@
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -23788,7 +23795,7 @@
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -23803,12 +23810,12 @@
       <c r="K20" s="132"/>
       <c r="L20" s="128"/>
       <c r="N20" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -23828,7 +23835,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
@@ -23836,7 +23843,7 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="133" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -23850,7 +23857,7 @@
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -23870,7 +23877,7 @@
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -23890,7 +23897,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -23905,7 +23912,7 @@
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -28803,7 +28810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -28824,7 +28831,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -28902,8 +28909,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="143" t="s">
-        <v>228</v>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -28921,7 +28928,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
@@ -28936,12 +28943,12 @@
       <c r="K5" s="110"/>
       <c r="L5" s="111"/>
       <c r="N5" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
@@ -28956,12 +28963,12 @@
       <c r="K6" s="110"/>
       <c r="L6" s="111"/>
       <c r="N6" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -28969,7 +28976,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
@@ -28978,12 +28985,12 @@
       <c r="K7" s="131"/>
       <c r="L7" s="121"/>
       <c r="N7" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -28991,7 +28998,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="14"/>
@@ -29000,12 +29007,12 @@
       <c r="K8" s="131"/>
       <c r="L8" s="121"/>
       <c r="N8" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
@@ -29013,7 +29020,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="24"/>
@@ -29021,12 +29028,12 @@
       <c r="J9" s="24"/>
       <c r="L9" s="121"/>
       <c r="N9" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -29041,12 +29048,12 @@
       <c r="K10" s="110"/>
       <c r="L10" s="111"/>
       <c r="N10" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
@@ -29054,7 +29061,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -29063,12 +29070,12 @@
       <c r="K11" s="131"/>
       <c r="L11" s="121"/>
       <c r="N11" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
@@ -29076,7 +29083,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
@@ -29085,12 +29092,12 @@
       <c r="K12" s="131"/>
       <c r="L12" s="121"/>
       <c r="N12" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
@@ -29098,7 +29105,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="24"/>
@@ -29106,12 +29113,12 @@
       <c r="J13" s="24"/>
       <c r="L13" s="121"/>
       <c r="N13" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
@@ -29119,7 +29126,7 @@
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
       <c r="F14" s="88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
@@ -29129,12 +29136,12 @@
       <c r="L14" s="125"/>
       <c r="M14" s="78"/>
       <c r="N14" s="134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>10</v>
@@ -29142,7 +29149,7 @@
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="68"/>
@@ -29152,12 +29159,12 @@
       <c r="L15" s="128"/>
       <c r="M15" s="78"/>
       <c r="N15" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" s="136" t="s">
         <v>10</v>
@@ -29165,7 +29172,7 @@
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="68"/>
@@ -29175,12 +29182,12 @@
       <c r="L16" s="128"/>
       <c r="M16" s="78"/>
       <c r="N16" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
@@ -29188,7 +29195,7 @@
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="68"/>
@@ -29198,12 +29205,12 @@
       <c r="L17" s="128"/>
       <c r="M17" s="78"/>
       <c r="N17" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" s="136" t="s">
         <v>10</v>
@@ -29211,7 +29218,7 @@
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
       <c r="F18" s="88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
@@ -29221,12 +29228,12 @@
       <c r="L18" s="125"/>
       <c r="M18" s="78"/>
       <c r="N18" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" s="136" t="s">
         <v>10</v>
@@ -29234,7 +29241,7 @@
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
       <c r="F19" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
@@ -29244,12 +29251,12 @@
       <c r="L19" s="128"/>
       <c r="M19" s="78"/>
       <c r="N19" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="136" t="s">
         <v>10</v>
@@ -29257,7 +29264,7 @@
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="68"/>
@@ -29267,12 +29274,12 @@
       <c r="L20" s="128"/>
       <c r="M20" s="78"/>
       <c r="N20" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
@@ -29280,7 +29287,7 @@
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
       <c r="F21" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="68"/>
@@ -29290,12 +29297,12 @@
       <c r="L21" s="128"/>
       <c r="M21" s="78"/>
       <c r="N21" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="140" t="s">
         <v>10</v>
@@ -29311,7 +29318,7 @@
       <c r="L22" s="139"/>
       <c r="M22" s="78"/>
       <c r="N22" s="138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="243">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -389,9 +389,6 @@
     <t>-13,355 db</t>
   </si>
   <si>
-    <t>Sonido grabado, con la frecuencia de muestreo modificada y cambio de tono a 7350 Hz</t>
-  </si>
-  <si>
     <t>-15,637 db</t>
   </si>
   <si>
@@ -578,16 +575,7 @@
     <t>SFX/Derrota del jugador/comentario de la muerte</t>
   </si>
   <si>
-    <t>SFX/Personaje masculino grito muerte/grito1</t>
-  </si>
-  <si>
-    <t>SFX/Personaje  femenino grito muerte/grito1</t>
-  </si>
-  <si>
     <t>SFX/Derrota de la muerte/sonido de victoria2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1P80E2G4OABfBQgyB-gS7fHxnn9JJjgUC/view?usp=sharing</t>
   </si>
   <si>
     <t>SFX/Objetos Rotura de barril/sonido1</t>
@@ -596,13 +584,7 @@
     <t>Externo que sonara muy distinto al original (a partir de la rotura de otro objeto)</t>
   </si>
   <si>
-    <t>SFX/Personaje masculino grito ataque /grito1</t>
-  </si>
-  <si>
     <t>SFX/Objetos abriendo cofre/sonido de Click</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1EAbfGdXNbmyS5aLYaOTFgVKBXMSGHMyz?usp=sharing</t>
   </si>
   <si>
     <t>Externo que sonara muy distinto al original (a partir de otra cerradura cambiando la dimension del objeto) + https://freesound.org/people/spookymodem/sounds/202092/</t>
@@ -626,18 +608,6 @@
     <t>SFX/Guardian Sorpresa al encontrarlo/sonido de sorpresa2</t>
   </si>
   <si>
-    <t>SFX/Personaje masculino grito muerte/grito2</t>
-  </si>
-  <si>
-    <t>SFX/Personaje  femenino grito muerte/grito2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1twVjmuryhAt1-Z7tfuS0qEmtuu5RsUdg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque /grito2</t>
-  </si>
-  <si>
     <t>SFX/Enemigos al morir/desvanecimiento</t>
   </si>
   <si>
@@ -656,12 +626,6 @@
     <t>Sonido caricaturesco de golpe entre dos cuerpos pero mas fuerte</t>
   </si>
   <si>
-    <t>SFX/Personaje masculino grito muerte/grito3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1HVx8qLFy1sha-bSr9oRCMPBvoY2nweFs?usp=sharing</t>
-  </si>
-  <si>
     <t>SFX/Unicornio bailando/hulahula</t>
   </si>
   <si>
@@ -674,28 +638,7 @@
     <t>SFX/Muerte  Conjuro paralizante/rayos</t>
   </si>
   <si>
-    <t>SFX/Personaje  femenino grito muerte/grito3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11zgV1Ag8pupw__2NE9PpGLvKEOiTkK7g/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque /grito3</t>
-  </si>
-  <si>
     <t>SFX/Personaje femenino grito ataque/grito3</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito muerte/grito4</t>
-  </si>
-  <si>
-    <t>SFX/Personaje  femenino grito muerte/grito4</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1q_hsHJuEuKFwUWlYOqs7gwYEGhlkk3N3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque /grito4</t>
   </si>
   <si>
     <t>SFX/Personaje femenino grito ataque/grito4</t>
@@ -712,6 +655,105 @@
   <si>
     <t>SFX/Murcielago Mordedura/mordeduraMurcielago2.wav</t>
   </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/grito1</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/grito2</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/grito3</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/grito4</t>
+  </si>
+  <si>
+    <t>00:03:68</t>
+  </si>
+  <si>
+    <t>-10,266 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito muerte/MuerteGritoF1.mp3</t>
+  </si>
+  <si>
+    <t>00:02:97</t>
+  </si>
+  <si>
+    <t>-13,524 db</t>
+  </si>
+  <si>
+    <t>00:03:16</t>
+  </si>
+  <si>
+    <t>-4,829 db</t>
+  </si>
+  <si>
+    <t>00:04:74</t>
+  </si>
+  <si>
+    <t>-12,517 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito muerte/MuerteGritoF2.mp3</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito muerte/MuerteGritoF3.mp3</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito muerte/MuerteGritoF4.mp3</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:02:81</t>
+  </si>
+  <si>
+    <t>-4,307 db</t>
+  </si>
+  <si>
+    <t>- db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito muerte/MuerteGritoM1.mp3</t>
+  </si>
+  <si>
+    <t>00:02:54</t>
+  </si>
+  <si>
+    <t>-17,092 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito muerte/MuerteGritoM2.mp3</t>
+  </si>
+  <si>
+    <t>00:03:66</t>
+  </si>
+  <si>
+    <t>-2,077 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito muerte/MuerteGritoM3.mp3</t>
+  </si>
+  <si>
+    <t>00:03:36</t>
+  </si>
+  <si>
+    <t>-4,45 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito muerte/MuerteGritoM4.mp3</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada y cambio de tono a 7350 Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +763,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -858,10 +900,34 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1145,7 +1211,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1501,18 +1567,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,8 +1586,34 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3145,8 +3234,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6539,8 +6628,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -12015,7 +12104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12120,8 +12209,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12165,7 +12254,7 @@
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="L5" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>94</v>
@@ -12173,7 +12262,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12199,7 +12288,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L6" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>94</v>
@@ -12207,7 +12296,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12233,7 +12322,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="L7" s="100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>94</v>
@@ -12241,7 +12330,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12267,7 +12356,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>94</v>
@@ -12275,7 +12364,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12301,7 +12390,7 @@
         <v>3.9675925925925927E-2</v>
       </c>
       <c r="L9" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>94</v>
@@ -12309,7 +12398,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12335,7 +12424,7 @@
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="L10" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>94</v>
@@ -12343,7 +12432,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12369,7 +12458,7 @@
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>94</v>
@@ -12377,7 +12466,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12403,7 +12492,7 @@
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="L12" s="101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>94</v>
@@ -12411,7 +12500,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12437,7 +12526,7 @@
         <v>6.8287037037037036E-4</v>
       </c>
       <c r="L13" s="101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>94</v>
@@ -12445,7 +12534,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12471,7 +12560,7 @@
         <v>5.3819444444444444E-3</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>94</v>
@@ -12479,7 +12568,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12505,15 +12594,15 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="L15" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12539,15 +12628,15 @@
         <v>1.5277777777777779E-3</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12573,15 +12662,15 @@
         <v>1.8865740740740742E-3</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12607,15 +12696,15 @@
         <v>7.5231481481481482E-4</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12641,15 +12730,15 @@
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="L19" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12675,7 +12764,7 @@
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L20" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>94</v>
@@ -12683,7 +12772,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -12709,7 +12798,7 @@
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="L21" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>94</v>
@@ -12717,7 +12806,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -12743,15 +12832,15 @@
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -12777,10 +12866,10 @@
         <v>3.5185185185185185E-3</v>
       </c>
       <c r="L23" s="108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
@@ -17686,8 +17775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17695,7 +17784,7 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="90.7109375" customWidth="1"/>
+    <col min="6" max="6" width="98.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
@@ -17785,8 +17874,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -17966,7 +18055,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="138" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="59" t="s">
@@ -18156,16 +18245,16 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="143" t="s">
-        <v>227</v>
+      <c r="B22" s="140" t="s">
+        <v>208</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="64" t="s">
-        <v>61</v>
+      <c r="F22" s="118" t="s">
+        <v>240</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>90</v>
@@ -18188,16 +18277,16 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="143" t="s">
-        <v>228</v>
+      <c r="B23" s="140" t="s">
+        <v>209</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="64" t="s">
-        <v>121</v>
+      <c r="F23" s="150" t="s">
+        <v>242</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>90</v>
@@ -18215,13 +18304,13 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>10</v>
@@ -18229,7 +18318,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -18243,7 +18332,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>10</v>
@@ -18251,7 +18340,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -18265,7 +18354,7 @@
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>10</v>
@@ -18285,7 +18374,7 @@
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>10</v>
@@ -18306,7 +18395,7 @@
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>10</v>
@@ -18327,7 +18416,7 @@
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>10</v>
@@ -18348,7 +18437,7 @@
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>10</v>
@@ -18356,7 +18445,7 @@
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
       <c r="F30" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68"/>
@@ -18371,7 +18460,7 @@
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>10</v>
@@ -18379,7 +18468,7 @@
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="68"/>
       <c r="H31" s="68"/>
@@ -18394,7 +18483,7 @@
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
       <c r="B32" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>10</v>
@@ -18402,7 +18491,7 @@
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
       <c r="F32" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="68"/>
       <c r="H32" s="68"/>
@@ -18417,7 +18506,7 @@
     </row>
     <row r="33" spans="2:14" ht="13.5" customHeight="1">
       <c r="B33" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>10</v>
@@ -18425,7 +18514,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
@@ -23373,8 +23462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -23394,7 +23483,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -23472,8 +23561,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -23491,7 +23580,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -23506,7 +23595,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -23526,7 +23615,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
@@ -23546,7 +23635,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
@@ -23566,7 +23655,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
@@ -23587,7 +23676,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
@@ -23608,7 +23697,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
@@ -23629,7 +23718,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
@@ -23649,7 +23738,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -23657,7 +23746,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G13" s="130"/>
       <c r="H13" s="130"/>
@@ -23671,7 +23760,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -23679,7 +23768,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G14" s="114"/>
       <c r="H14" s="115"/>
@@ -23693,7 +23782,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -23701,7 +23790,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G15" s="130"/>
       <c r="H15" s="130"/>
@@ -23715,7 +23804,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
@@ -23735,7 +23824,7 @@
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
@@ -23755,7 +23844,7 @@
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
@@ -23775,7 +23864,7 @@
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -23795,7 +23884,7 @@
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -23807,15 +23896,15 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="132"/>
+      <c r="K20" s="131"/>
       <c r="L20" s="128"/>
       <c r="N20" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -23835,15 +23924,15 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="133" t="s">
-        <v>209</v>
+      <c r="F22" s="132" t="s">
+        <v>199</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -23857,7 +23946,7 @@
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -23877,7 +23966,7 @@
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -23897,7 +23986,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -23912,7 +24001,7 @@
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -23920,12 +24009,12 @@
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="139"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="136"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
         <v>24</v>
@@ -28810,28 +28899,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
     <col min="3" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="101" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -28869,7 +28958,6 @@
         <v>9</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -28909,417 +28997,543 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="142" t="s">
-        <v>226</v>
+      <c r="B4" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="N4" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="K4" s="142"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="64"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="N5" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="K5" s="142"/>
+      <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>184</v>
+      <c r="B6" s="138" t="s">
+        <v>216</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
-      <c r="N6" s="27" t="s">
-        <v>158</v>
+      <c r="F6" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14">
+        <v>16</v>
+      </c>
+      <c r="I6" s="14">
+        <v>11</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="146" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>185</v>
+      <c r="B7" s="138" t="s">
+        <v>223</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="121"/>
-      <c r="N7" s="27" t="s">
-        <v>158</v>
+      <c r="F7" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="134">
+        <v>16</v>
+      </c>
+      <c r="I7" s="134">
+        <v>11</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="146" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>190</v>
+      <c r="B8" s="138" t="s">
+        <v>224</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="121"/>
-      <c r="N8" s="27" t="s">
-        <v>158</v>
+      <c r="F8" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="134">
+        <v>16</v>
+      </c>
+      <c r="I8" s="134">
+        <v>11</v>
+      </c>
+      <c r="J8" s="134">
+        <v>1</v>
+      </c>
+      <c r="K8" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="146" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>196</v>
+      <c r="B9" s="138" t="s">
+        <v>225</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="L9" s="121"/>
-      <c r="N9" s="27" t="s">
-        <v>158</v>
+      <c r="F9" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="134">
+        <v>16</v>
+      </c>
+      <c r="I9" s="134">
+        <v>11</v>
+      </c>
+      <c r="J9" s="134">
+        <v>1</v>
+      </c>
+      <c r="K9" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="146" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>200</v>
+      <c r="B10" s="148" t="s">
+        <v>230</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-      <c r="N10" s="27" t="s">
-        <v>158</v>
+      <c r="F10" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="134">
+        <v>16</v>
+      </c>
+      <c r="I10" s="134">
+        <v>11</v>
+      </c>
+      <c r="J10" s="134">
+        <v>1</v>
+      </c>
+      <c r="K10" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="146" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>201</v>
+      <c r="B11" s="138" t="s">
+        <v>233</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="121"/>
-      <c r="N11" s="27" t="s">
-        <v>158</v>
+      <c r="F11" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="134">
+        <v>16</v>
+      </c>
+      <c r="I11" s="134">
+        <v>11</v>
+      </c>
+      <c r="J11" s="134">
+        <v>1</v>
+      </c>
+      <c r="K11" s="144" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" s="146" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>203</v>
+      <c r="B12" s="138" t="s">
+        <v>236</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="121"/>
-      <c r="N12" s="27" t="s">
-        <v>158</v>
+      <c r="F12" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="134">
+        <v>16</v>
+      </c>
+      <c r="I12" s="134">
+        <v>11</v>
+      </c>
+      <c r="J12" s="134">
+        <v>1</v>
+      </c>
+      <c r="K12" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="146" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>207</v>
+      <c r="B13" s="138" t="s">
+        <v>239</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="L13" s="121"/>
-      <c r="N13" s="27" t="s">
-        <v>158</v>
+      <c r="F13" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="134">
+        <v>16</v>
+      </c>
+      <c r="I13" s="134">
+        <v>11</v>
+      </c>
+      <c r="J13" s="134">
+        <v>1</v>
+      </c>
+      <c r="K13" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="146" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>210</v>
+      <c r="B14" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="125"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="134">
+        <v>16</v>
+      </c>
+      <c r="I14" s="134">
+        <v>11</v>
+      </c>
+      <c r="J14" s="134">
+        <v>1</v>
+      </c>
+      <c r="K14" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M14" s="78"/>
-      <c r="N14" s="134" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="136" t="s">
+      <c r="B15" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="128"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="134">
+        <v>16</v>
+      </c>
+      <c r="I15" s="134">
+        <v>11</v>
+      </c>
+      <c r="J15" s="134">
+        <v>1</v>
+      </c>
+      <c r="K15" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M15" s="78"/>
-      <c r="N15" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="136" t="s">
+      <c r="B16" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="128"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="134">
+        <v>16</v>
+      </c>
+      <c r="I16" s="134">
+        <v>11</v>
+      </c>
+      <c r="J16" s="134">
+        <v>1</v>
+      </c>
+      <c r="K16" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M16" s="78"/>
-      <c r="N16" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>219</v>
+      <c r="B17" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="128"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="134">
+        <v>16</v>
+      </c>
+      <c r="I17" s="134">
+        <v>11</v>
+      </c>
+      <c r="J17" s="134">
+        <v>1</v>
+      </c>
+      <c r="K17" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M17" s="78"/>
-      <c r="N17" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="136" t="s">
+      <c r="B18" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="149"/>
+      <c r="G18" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="134">
+        <v>16</v>
+      </c>
+      <c r="I18" s="134">
+        <v>11</v>
+      </c>
+      <c r="J18" s="134">
+        <v>1</v>
+      </c>
+      <c r="K18" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="M18" s="78"/>
+      <c r="N18" s="149"/>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B19" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="128"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="134">
+        <v>16</v>
+      </c>
+      <c r="I19" s="134">
+        <v>11</v>
+      </c>
+      <c r="J19" s="134">
+        <v>1</v>
+      </c>
+      <c r="K19" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M19" s="78"/>
-      <c r="N19" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="136" t="s">
+      <c r="B20" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="128"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="134">
+        <v>16</v>
+      </c>
+      <c r="I20" s="134">
+        <v>11</v>
+      </c>
+      <c r="J20" s="134">
+        <v>1</v>
+      </c>
+      <c r="K20" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M20" s="78"/>
-      <c r="N20" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="13" t="s">
-        <v>224</v>
+      <c r="B21" s="138" t="s">
+        <v>213</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="128"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="134">
+        <v>16</v>
+      </c>
+      <c r="I21" s="134">
+        <v>11</v>
+      </c>
+      <c r="J21" s="134">
+        <v>1</v>
+      </c>
+      <c r="K21" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="L21" s="146" t="s">
+        <v>229</v>
+      </c>
       <c r="M21" s="78"/>
-      <c r="N21" s="138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="13.5" customHeight="1">
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B22" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="140" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="137" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="84"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="139"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="136"/>
       <c r="M22" s="78"/>
-      <c r="N22" s="138" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="C23" s="38"/>
@@ -34208,22 +34422,6 @@
       <c r="E1000" s="38"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F13" r:id="rId6"/>
-    <hyperlink ref="F14" r:id="rId7"/>
-    <hyperlink ref="F15" r:id="rId8"/>
-    <hyperlink ref="F16" r:id="rId9"/>
-    <hyperlink ref="F17" r:id="rId10"/>
-    <hyperlink ref="F18" r:id="rId11"/>
-    <hyperlink ref="F19" r:id="rId12"/>
-    <hyperlink ref="F20" r:id="rId13"/>
-    <hyperlink ref="F21" r:id="rId14"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="249">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -596,9 +596,6 @@
     <t>Externo que sonara muy distinto al original (a partir de la puerta cambiando dimension aparente de objeto pej)</t>
   </si>
   <si>
-    <t>SFX/Personaje femenino grito ataque/grito1</t>
-  </si>
-  <si>
     <t>SFX/Objetos Cogemos llave/sonido1</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
   </si>
   <si>
     <t>SFX/Rey Pollo Aparición/explosion</t>
-  </si>
-  <si>
-    <t>SFX/Personaje femenino grito ataque/grito2</t>
   </si>
   <si>
     <t>SFX/Unicornio  embistiendo/golpe</t>
@@ -638,12 +632,6 @@
     <t>SFX/Muerte  Conjuro paralizante/rayos</t>
   </si>
   <si>
-    <t>SFX/Personaje femenino grito ataque/grito3</t>
-  </si>
-  <si>
-    <t>SFX/Personaje femenino grito ataque/grito4</t>
-  </si>
-  <si>
     <t xml:space="preserve">SFX/Muerte  Voz </t>
   </si>
   <si>
@@ -656,22 +644,7 @@
     <t>SFX/Murcielago Mordedura/mordeduraMurcielago2.wav</t>
   </si>
   <si>
-    <t>SFX/Personaje masculino grito ataque/grito1</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque/grito2</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque/grito3</t>
-  </si>
-  <si>
-    <t>SFX/Personaje masculino grito ataque/grito4</t>
-  </si>
-  <si>
     <t>00:03:68</t>
-  </si>
-  <si>
-    <t>-10,266 db</t>
   </si>
   <si>
     <t>SFX/Personaje femenino grito muerte/MuerteGritoF1.mp3</t>
@@ -680,19 +653,7 @@
     <t>00:02:97</t>
   </si>
   <si>
-    <t>-13,524 db</t>
-  </si>
-  <si>
     <t>00:03:16</t>
-  </si>
-  <si>
-    <t>-4,829 db</t>
-  </si>
-  <si>
-    <t>00:04:74</t>
-  </si>
-  <si>
-    <t>-12,517 db</t>
   </si>
   <si>
     <t>SFX/Personaje femenino grito muerte/MuerteGritoF2.mp3</t>
@@ -704,16 +665,7 @@
     <t>SFX/Personaje femenino grito muerte/MuerteGritoF4.mp3</t>
   </si>
   <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
     <t>00:02:81</t>
-  </si>
-  <si>
-    <t>-4,307 db</t>
-  </si>
-  <si>
-    <t>- db</t>
   </si>
   <si>
     <t>SFX/Personaje masculino grito muerte/MuerteGritoM1.mp3</t>
@@ -722,16 +674,10 @@
     <t>00:02:54</t>
   </si>
   <si>
-    <t>-17,092 db</t>
-  </si>
-  <si>
     <t>SFX/Personaje masculino grito muerte/MuerteGritoM2.mp3</t>
   </si>
   <si>
     <t>00:03:66</t>
-  </si>
-  <si>
-    <t>-2,077 db</t>
   </si>
   <si>
     <t>SFX/Personaje masculino grito muerte/MuerteGritoM3.mp3</t>
@@ -740,19 +686,91 @@
     <t>00:03:36</t>
   </si>
   <si>
-    <t>-4,45 db</t>
-  </si>
-  <si>
     <t>SFX/Personaje masculino grito muerte/MuerteGritoM4.mp3</t>
   </si>
   <si>
     <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada</t>
   </si>
   <si>
-    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada y desvanecer progresivamente</t>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada y cambio de tono a 7350 Hz</t>
   </si>
   <si>
-    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada y cambio de tono a 7350 Hz</t>
+    <t>00:03:17</t>
+  </si>
+  <si>
+    <t>00:01:74</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito ataque/AtaqueGritoF1.mp3</t>
+  </si>
+  <si>
+    <t>00:01:40</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito ataque/AtaqueGritoF2.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito ataque/AtaqueGritoF3.mp3</t>
+  </si>
+  <si>
+    <t>00:01:13</t>
+  </si>
+  <si>
+    <t>SFX/Personaje femenino grito ataque/AtaqueGritoF4.mp3</t>
+  </si>
+  <si>
+    <t>00:00:84</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/AtaqueGritoM1.mp3</t>
+  </si>
+  <si>
+    <t>00:01:24</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/AtaqueGritoM2.mp3</t>
+  </si>
+  <si>
+    <t>00:00:91</t>
+  </si>
+  <si>
+    <t>00:00:86</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/AtaqueGritoM4.mp3</t>
+  </si>
+  <si>
+    <t>SFX/Personaje masculino grito ataque/AtaqueGritoM3.mp3</t>
+  </si>
+  <si>
+    <t>-8,8 db</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -8,8 db de amplitud</t>
+  </si>
+  <si>
+    <t>-6,9 db</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -6,9 db de amplitud</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -6,9 db de amplitud y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -11,45 db de amplitud</t>
+  </si>
+  <si>
+    <t>-11,45 db</t>
+  </si>
+  <si>
+    <t>-7,86 db</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -7,86 db de amplitud</t>
   </si>
 </sst>
 </file>
@@ -3235,7 +3253,7 @@
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6629,7 +6647,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -12210,7 +12228,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -17875,7 +17893,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -18246,7 +18264,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="140" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>10</v>
@@ -18254,7 +18272,7 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="118" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>90</v>
@@ -18278,7 +18296,7 @@
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="140" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>10</v>
@@ -18286,7 +18304,7 @@
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="150" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>90</v>
@@ -23562,7 +23580,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -23804,7 +23822,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
@@ -23824,7 +23842,7 @@
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
@@ -23844,7 +23862,7 @@
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
@@ -23864,7 +23882,7 @@
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -23884,7 +23902,7 @@
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -23904,7 +23922,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -23924,7 +23942,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
@@ -23932,7 +23950,7 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="132" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -23946,7 +23964,7 @@
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -23966,7 +23984,7 @@
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -23986,7 +24004,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -24001,7 +24019,7 @@
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -28899,8 +28917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -28908,7 +28926,7 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
     <col min="3" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="101" customWidth="1"/>
+    <col min="6" max="6" width="119.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
@@ -28998,7 +29016,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="139" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -29030,7 +29048,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="138" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
@@ -29038,7 +29056,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="141" t="s">
         <v>18</v>
@@ -29047,21 +29065,21 @@
         <v>16</v>
       </c>
       <c r="I6" s="14">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
       </c>
       <c r="K6" s="144" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L6" s="146" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="138" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -29069,7 +29087,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G7" s="141" t="s">
         <v>18</v>
@@ -29078,21 +29096,21 @@
         <v>16</v>
       </c>
       <c r="I7" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
       <c r="K7" s="144" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L7" s="146" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="138" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -29100,7 +29118,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="141" t="s">
         <v>18</v>
@@ -29109,21 +29127,21 @@
         <v>16</v>
       </c>
       <c r="I8" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J8" s="134">
         <v>1</v>
       </c>
       <c r="K8" s="144" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L8" s="146" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="138" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
@@ -29131,7 +29149,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G9" s="141" t="s">
         <v>18</v>
@@ -29140,21 +29158,21 @@
         <v>16</v>
       </c>
       <c r="I9" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J9" s="134">
         <v>1</v>
       </c>
       <c r="K9" s="144" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L9" s="146" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="148" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -29162,7 +29180,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="149" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G10" s="141" t="s">
         <v>18</v>
@@ -29171,21 +29189,21 @@
         <v>16</v>
       </c>
       <c r="I10" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J10" s="134">
         <v>1</v>
       </c>
       <c r="K10" s="144" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L10" s="146" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="138" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
@@ -29193,7 +29211,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="149" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G11" s="141" t="s">
         <v>18</v>
@@ -29202,21 +29220,21 @@
         <v>16</v>
       </c>
       <c r="I11" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J11" s="134">
         <v>1</v>
       </c>
       <c r="K11" s="144" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="L11" s="146" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="138" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
@@ -29224,7 +29242,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="149" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G12" s="141" t="s">
         <v>18</v>
@@ -29233,21 +29251,21 @@
         <v>16</v>
       </c>
       <c r="I12" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J12" s="134">
         <v>1</v>
       </c>
       <c r="K12" s="144" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L12" s="146" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="138" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
@@ -29255,7 +29273,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="149" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G13" s="141" t="s">
         <v>18</v>
@@ -29264,28 +29282,30 @@
         <v>16</v>
       </c>
       <c r="I13" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J13" s="134">
         <v>1</v>
       </c>
       <c r="K13" s="144" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="L13" s="146" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="29" t="s">
-        <v>190</v>
+      <c r="B14" s="138" t="s">
+        <v>225</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="149"/>
+      <c r="F14" s="149" t="s">
+        <v>245</v>
+      </c>
       <c r="G14" s="141" t="s">
         <v>18</v>
       </c>
@@ -29293,29 +29313,31 @@
         <v>16</v>
       </c>
       <c r="I14" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J14" s="134">
         <v>1</v>
       </c>
       <c r="K14" s="144" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L14" s="146" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="138" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="C15" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="149"/>
+      <c r="F15" s="149" t="s">
+        <v>245</v>
+      </c>
       <c r="G15" s="141" t="s">
         <v>18</v>
       </c>
@@ -29323,7 +29345,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J15" s="134">
         <v>1</v>
@@ -29332,20 +29354,22 @@
         <v>226</v>
       </c>
       <c r="L15" s="146" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="138" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C16" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="147"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="149"/>
+      <c r="F16" s="149" t="s">
+        <v>245</v>
+      </c>
       <c r="G16" s="141" t="s">
         <v>18</v>
       </c>
@@ -29353,29 +29377,31 @@
         <v>16</v>
       </c>
       <c r="I16" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J16" s="134">
         <v>1</v>
       </c>
       <c r="K16" s="144" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L16" s="146" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="29" t="s">
-        <v>205</v>
+      <c r="B17" s="138" t="s">
+        <v>231</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="149"/>
+      <c r="F17" s="149" t="s">
+        <v>245</v>
+      </c>
       <c r="G17" s="141" t="s">
         <v>18</v>
       </c>
@@ -29383,29 +29409,31 @@
         <v>16</v>
       </c>
       <c r="I17" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J17" s="134">
         <v>1</v>
       </c>
       <c r="K17" s="144" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L17" s="146" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="138" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C18" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="149"/>
+      <c r="F18" s="149" t="s">
+        <v>248</v>
+      </c>
       <c r="G18" s="141" t="s">
         <v>18</v>
       </c>
@@ -29413,30 +29441,32 @@
         <v>16</v>
       </c>
       <c r="I18" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J18" s="134">
         <v>1</v>
       </c>
       <c r="K18" s="144" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L18" s="146" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M18" s="78"/>
       <c r="N18" s="149"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="138" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C19" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="149"/>
+      <c r="F19" s="149" t="s">
+        <v>248</v>
+      </c>
       <c r="G19" s="141" t="s">
         <v>18</v>
       </c>
@@ -29444,29 +29474,31 @@
         <v>16</v>
       </c>
       <c r="I19" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J19" s="134">
         <v>1</v>
       </c>
       <c r="K19" s="144" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L19" s="146" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="138" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C20" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="149"/>
+      <c r="F20" s="149" t="s">
+        <v>248</v>
+      </c>
       <c r="G20" s="141" t="s">
         <v>18</v>
       </c>
@@ -29474,29 +29506,31 @@
         <v>16</v>
       </c>
       <c r="I20" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J20" s="134">
         <v>1</v>
       </c>
       <c r="K20" s="144" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L20" s="146" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="138" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="149"/>
+      <c r="F21" s="149" t="s">
+        <v>248</v>
+      </c>
       <c r="G21" s="141" t="s">
         <v>18</v>
       </c>
@@ -29504,22 +29538,22 @@
         <v>16</v>
       </c>
       <c r="I21" s="134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J21" s="134">
         <v>1</v>
       </c>
       <c r="K21" s="144" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="L21" s="146" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B22" s="79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" s="137" t="s">
         <v>10</v>
@@ -29560,7 +29594,9 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28" spans="2:14" ht="13.5" customHeight="1"/>
+    <row r="28" spans="2:14" ht="13.5" customHeight="1">
+      <c r="F28" s="149"/>
+    </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1626,13 +1626,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -17793,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18303,7 +18301,7 @@
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="150" t="s">
+      <c r="F23" s="149" t="s">
         <v>222</v>
       </c>
       <c r="G23" s="25" t="s">
@@ -23468,8 +23466,8 @@
     <hyperlink ref="F31" r:id="rId13"/>
     <hyperlink ref="F32" r:id="rId14"/>
     <hyperlink ref="F33" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16" display="SFX/Murcielago Mordedura/mordisco murcielago 1"/>
-    <hyperlink ref="B23" r:id="rId17" display="SFX/Murcielago Mordedura/mordisco murcielago 2"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -28917,8 +28915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -29038,7 +29036,7 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -29047,7 +29045,7 @@
       <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="140" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -29055,7 +29053,7 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="148" t="s">
         <v>241</v>
       </c>
       <c r="G6" s="141" t="s">
@@ -29078,7 +29076,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="140" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -29086,7 +29084,7 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="149" t="s">
+      <c r="F7" s="148" t="s">
         <v>241</v>
       </c>
       <c r="G7" s="141" t="s">
@@ -29109,7 +29107,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="140" t="s">
         <v>211</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -29117,7 +29115,7 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="149" t="s">
+      <c r="F8" s="148" t="s">
         <v>241</v>
       </c>
       <c r="G8" s="141" t="s">
@@ -29140,7 +29138,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="140" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -29148,7 +29146,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="148" t="s">
         <v>241</v>
       </c>
       <c r="G9" s="141" t="s">
@@ -29171,7 +29169,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="140" t="s">
         <v>214</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -29179,7 +29177,7 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="148" t="s">
         <v>243</v>
       </c>
       <c r="G10" s="141" t="s">
@@ -29202,7 +29200,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="140" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -29210,7 +29208,7 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="149" t="s">
+      <c r="F11" s="148" t="s">
         <v>243</v>
       </c>
       <c r="G11" s="141" t="s">
@@ -29233,7 +29231,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -29241,7 +29239,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>243</v>
       </c>
       <c r="G12" s="141" t="s">
@@ -29264,7 +29262,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -29272,7 +29270,7 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="148" t="s">
         <v>244</v>
       </c>
       <c r="G13" s="141" t="s">
@@ -29295,7 +29293,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="140" t="s">
         <v>225</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -29303,7 +29301,7 @@
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="148" t="s">
         <v>245</v>
       </c>
       <c r="G14" s="141" t="s">
@@ -29327,7 +29325,7 @@
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="140" t="s">
         <v>227</v>
       </c>
       <c r="C15" s="134" t="s">
@@ -29335,7 +29333,7 @@
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="148" t="s">
         <v>245</v>
       </c>
       <c r="G15" s="141" t="s">
@@ -29359,7 +29357,7 @@
       <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="140" t="s">
         <v>229</v>
       </c>
       <c r="C16" s="134" t="s">
@@ -29367,7 +29365,7 @@
       </c>
       <c r="D16" s="147"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="148" t="s">
         <v>245</v>
       </c>
       <c r="G16" s="141" t="s">
@@ -29391,7 +29389,7 @@
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="140" t="s">
         <v>231</v>
       </c>
       <c r="C17" s="68" t="s">
@@ -29399,7 +29397,7 @@
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="148" t="s">
         <v>245</v>
       </c>
       <c r="G17" s="141" t="s">
@@ -29423,7 +29421,7 @@
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="140" t="s">
         <v>233</v>
       </c>
       <c r="C18" s="134" t="s">
@@ -29431,7 +29429,7 @@
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="149" t="s">
+      <c r="F18" s="148" t="s">
         <v>248</v>
       </c>
       <c r="G18" s="141" t="s">
@@ -29453,10 +29451,10 @@
         <v>247</v>
       </c>
       <c r="M18" s="78"/>
-      <c r="N18" s="149"/>
+      <c r="N18" s="148"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="140" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="134" t="s">
@@ -29464,7 +29462,7 @@
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="149" t="s">
+      <c r="F19" s="148" t="s">
         <v>248</v>
       </c>
       <c r="G19" s="141" t="s">
@@ -29488,7 +29486,7 @@
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="140" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="134" t="s">
@@ -29496,7 +29494,7 @@
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="149" t="s">
+      <c r="F20" s="148" t="s">
         <v>248</v>
       </c>
       <c r="G20" s="141" t="s">
@@ -29520,7 +29518,7 @@
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="140" t="s">
         <v>238</v>
       </c>
       <c r="C21" s="68" t="s">
@@ -29528,7 +29526,7 @@
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="148" t="s">
         <v>248</v>
       </c>
       <c r="G21" s="141" t="s">
@@ -29578,6 +29576,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
+      <c r="F24" s="150"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="38"/>
@@ -29595,7 +29594,7 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="F28" s="149"/>
+      <c r="F28" s="148"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>
@@ -34458,6 +34457,24 @@
       <c r="E1000" s="38"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -28915,7 +28915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="309">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -305,34 +305,16 @@
     <t>SFX/Personaje flamenca taconeo/sonido1</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1UnFbVGLqAOiS5xas9gw_-94HSp7m-Q0Q?usp=sharing</t>
-  </si>
-  <si>
     <t>22.5 kHz</t>
   </si>
   <si>
     <t>SFX/Arma flauta/sonido1</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/12HrWDrHcXC6v38MHVuomd5-b7fe3dz-C?usp=sharing</t>
-  </si>
-  <si>
     <t>SFX/vendedor/sonido 1</t>
   </si>
   <si>
-    <t>sonido flauta estaba en voces, sonido que tambien esta en ataque flauta (el de arriba pero este sera distinto)</t>
-  </si>
-  <si>
-    <t>SFX/Personaje utiliza castañuelas/sonido de castañuelas</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1EOg0Ej885RwWcIxBl_yaov9mmHb7b31a?usp=sharing</t>
-  </si>
-  <si>
     <t>SFX/Movimiento bloques/sonido 1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/105A8VLE-a_QD9Z63zjaMozKcWCt-vNeU?usp=sharing</t>
   </si>
   <si>
     <t>SFX/Personaje Cae al suelo/golpe caida</t>
@@ -342,9 +324,6 @@
   </si>
   <si>
     <t>SFX/Personaje Pasos sobre madera/madera sonido1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1f7G1jQis_DXGfJz3qFtkaJV98KX5w_Zy?usp=sharing</t>
   </si>
   <si>
     <t>SFX/Personaje Pasos sobre charcos/charcos sonido1</t>
@@ -772,6 +751,207 @@
   <si>
     <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado a -7,86 db de amplitud</t>
   </si>
+  <si>
+    <t>SFX/Personaje flamenca taconeo/sonido4</t>
+  </si>
+  <si>
+    <t>SFX/Personaje flamenca taconeo/sonido2</t>
+  </si>
+  <si>
+    <t>SFX/Personaje flamenca taconeo/sonido3</t>
+  </si>
+  <si>
+    <t>00:00:95</t>
+  </si>
+  <si>
+    <t>-8,416 db</t>
+  </si>
+  <si>
+    <t>-7,638 db</t>
+  </si>
+  <si>
+    <t>00:03:96</t>
+  </si>
+  <si>
+    <t>-20,022 db</t>
+  </si>
+  <si>
+    <t>00:10:47</t>
+  </si>
+  <si>
+    <t>-17,544db</t>
+  </si>
+  <si>
+    <t>SFX/Arma flauta/sonido2</t>
+  </si>
+  <si>
+    <t>00:01:65</t>
+  </si>
+  <si>
+    <t>-24,586db</t>
+  </si>
+  <si>
+    <t>00:00:93</t>
+  </si>
+  <si>
+    <t>-17,887db</t>
+  </si>
+  <si>
+    <t>SFX/vendedor/sonido 2</t>
+  </si>
+  <si>
+    <t>SFX/vendedor/sonido 3</t>
+  </si>
+  <si>
+    <t>SFX/vendedor/sonido 4</t>
+  </si>
+  <si>
+    <t>SFX/vendedor/sonido 5</t>
+  </si>
+  <si>
+    <t>00:07:12</t>
+  </si>
+  <si>
+    <t>-13,243db</t>
+  </si>
+  <si>
+    <t>00:03:38</t>
+  </si>
+  <si>
+    <t>-12,454db</t>
+  </si>
+  <si>
+    <t>00:11:11</t>
+  </si>
+  <si>
+    <t>-13,495db</t>
+  </si>
+  <si>
+    <t>-7,185db</t>
+  </si>
+  <si>
+    <t>00:05:80</t>
+  </si>
+  <si>
+    <t>-4,796db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje utiliza castañuelas/sonido de castañuelas 1</t>
+  </si>
+  <si>
+    <t>SFX/Personaje utiliza castañuelas/sonido de castañuelas 2</t>
+  </si>
+  <si>
+    <t>00:02:56</t>
+  </si>
+  <si>
+    <t>-11,232db</t>
+  </si>
+  <si>
+    <t>00:11:33</t>
+  </si>
+  <si>
+    <t>-11,173db</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 2</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 3</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 4</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 5</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 6</t>
+  </si>
+  <si>
+    <t>SFX/Movimiento bloques/sonido 7</t>
+  </si>
+  <si>
+    <t>00:00:73</t>
+  </si>
+  <si>
+    <t>-28,66db</t>
+  </si>
+  <si>
+    <t>00:00:77</t>
+  </si>
+  <si>
+    <t>-33,547db</t>
+  </si>
+  <si>
+    <t>00:00:41</t>
+  </si>
+  <si>
+    <t>-13,252db</t>
+  </si>
+  <si>
+    <t>00:00:70</t>
+  </si>
+  <si>
+    <t>-20,416db</t>
+  </si>
+  <si>
+    <t>00:00:37</t>
+  </si>
+  <si>
+    <t>-11,214db</t>
+  </si>
+  <si>
+    <t>00:00:39</t>
+  </si>
+  <si>
+    <t>-15,872db</t>
+  </si>
+  <si>
+    <t>00:00:63</t>
+  </si>
+  <si>
+    <t>-26,122db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre madera/madera sonido2</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre madera/madera sonido3</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre madera/madera sonido4</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre madera/madera sonido5</t>
+  </si>
+  <si>
+    <t>00:01:15</t>
+  </si>
+  <si>
+    <t>-18,307db</t>
+  </si>
+  <si>
+    <t>00:00:57</t>
+  </si>
+  <si>
+    <t>-13,97db</t>
+  </si>
+  <si>
+    <t>-15,658db</t>
+  </si>
+  <si>
+    <t>00:00:80</t>
+  </si>
+  <si>
+    <t>-21,534db</t>
+  </si>
+  <si>
+    <t>00:00:62</t>
+  </si>
+  <si>
+    <t>-23,622db</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +961,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -868,11 +1048,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -946,6 +1121,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1224,12 +1412,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1467,12 +1655,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,7 +1667,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="21" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1676,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1527,7 +1709,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1537,19 +1719,19 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1575,7 +1757,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1598,39 +1780,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3250,8 +3465,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6644,8 +6859,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -12225,8 +12440,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12266,19 +12481,19 @@
       <c r="J5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="97">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="L5" s="100" t="s">
-        <v>136</v>
+      <c r="L5" s="98" t="s">
+        <v>129</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12300,19 +12515,19 @@
       <c r="J6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="99">
+      <c r="K6" s="97">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L6" s="100" t="s">
-        <v>138</v>
+      <c r="L6" s="98" t="s">
+        <v>131</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12334,19 +12549,19 @@
       <c r="J7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="97">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L7" s="100" t="s">
-        <v>140</v>
+      <c r="L7" s="98" t="s">
+        <v>133</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12368,19 +12583,19 @@
       <c r="J8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="97">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="100" t="s">
-        <v>142</v>
+      <c r="L8" s="98" t="s">
+        <v>135</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12402,19 +12617,19 @@
       <c r="J9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="97">
         <v>3.9675925925925927E-2</v>
       </c>
-      <c r="L9" s="101" t="s">
-        <v>144</v>
+      <c r="L9" s="99" t="s">
+        <v>137</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12436,19 +12651,19 @@
       <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="99">
+      <c r="K10" s="97">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="L10" s="101" t="s">
-        <v>146</v>
+      <c r="L10" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12474,15 +12689,15 @@
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12507,16 +12722,16 @@
       <c r="K12" s="66">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="L12" s="101" t="s">
-        <v>150</v>
+      <c r="L12" s="99" t="s">
+        <v>143</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12538,19 +12753,19 @@
       <c r="J13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="97">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="L13" s="101" t="s">
-        <v>152</v>
+      <c r="L13" s="99" t="s">
+        <v>145</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12572,19 +12787,19 @@
       <c r="J14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="100">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="L14" s="100" t="s">
-        <v>154</v>
+      <c r="L14" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12606,19 +12821,19 @@
       <c r="J15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="100">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="L15" s="100" t="s">
-        <v>156</v>
+      <c r="L15" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12643,16 +12858,16 @@
       <c r="K16" s="66">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="L16" s="100" t="s">
-        <v>159</v>
+      <c r="L16" s="98" t="s">
+        <v>152</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12677,16 +12892,16 @@
       <c r="K17" s="66">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L17" s="101" t="s">
-        <v>161</v>
+      <c r="L17" s="99" t="s">
+        <v>154</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12711,16 +12926,16 @@
       <c r="K18" s="66">
         <v>7.5231481481481482E-4</v>
       </c>
-      <c r="L18" s="101" t="s">
-        <v>163</v>
+      <c r="L18" s="99" t="s">
+        <v>156</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12742,19 +12957,19 @@
       <c r="J19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="100">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="L19" s="101" t="s">
-        <v>165</v>
+      <c r="L19" s="99" t="s">
+        <v>158</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12776,19 +12991,19 @@
       <c r="J20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="103">
+      <c r="K20" s="101">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L20" s="101" t="s">
-        <v>167</v>
+      <c r="L20" s="99" t="s">
+        <v>160</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -12813,16 +13028,16 @@
       <c r="K21" s="66">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L21" s="101" t="s">
-        <v>167</v>
+      <c r="L21" s="99" t="s">
+        <v>160</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -12844,52 +13059,52 @@
       <c r="J22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="101">
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="104">
         <v>16</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="104">
         <v>32</v>
       </c>
-      <c r="J23" s="105" t="s">
+      <c r="J23" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="107">
+      <c r="K23" s="105">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="L23" s="108" t="s">
-        <v>172</v>
+      <c r="L23" s="106" t="s">
+        <v>165</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="109"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="38">
         <f t="shared" ref="C24:E24" si="0">COUNTA(C4:C23)</f>
         <v>0</v>
@@ -12904,19 +13119,19 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="109"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -17789,10 +18004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17805,8 +18020,7 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17890,8 +18104,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -17908,808 +18122,1379 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="88" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I5" s="70">
+        <v>24</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="152" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="18"/>
-      <c r="N5" s="27" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I6" s="70">
+        <v>24</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="89">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="L6" s="154" t="s">
+        <v>247</v>
+      </c>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="18"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I7" s="70">
+        <v>24</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="154" t="s">
+        <v>249</v>
+      </c>
       <c r="N7" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>99</v>
+      <c r="B8" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I8" s="70">
+        <v>24</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="154" t="s">
+        <v>251</v>
+      </c>
       <c r="N8" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B9" s="136" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I9" s="70">
+        <v>24</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="154" t="s">
+        <v>254</v>
+      </c>
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I10" s="70">
+        <v>24</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="154" t="s">
+        <v>256</v>
+      </c>
       <c r="N10" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="90"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I11" s="70">
+        <v>24</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="154" t="s">
+        <v>262</v>
+      </c>
       <c r="N11" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="90"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I12" s="70">
+        <v>24</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="150" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="154" t="s">
+        <v>264</v>
+      </c>
       <c r="N12" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I13" s="70">
+        <v>24</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="150" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="154" t="s">
+        <v>266</v>
+      </c>
       <c r="M13" s="78"/>
       <c r="N13" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I14" s="70">
+        <v>24</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="L14" s="154" t="s">
+        <v>267</v>
+      </c>
       <c r="M14" s="78"/>
       <c r="N14" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="92"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I15" s="70">
+        <v>24</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="154" t="s">
+        <v>269</v>
+      </c>
       <c r="N15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="92"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I16" s="70">
+        <v>24</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16" s="154" t="s">
+        <v>273</v>
+      </c>
       <c r="N16" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="136" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="92"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I17" s="70">
+        <v>24</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="154" t="s">
+        <v>275</v>
+      </c>
       <c r="N17" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="92"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I18" s="70">
+        <v>24</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="157" t="s">
+        <v>282</v>
+      </c>
+      <c r="L18" s="154" t="s">
+        <v>283</v>
+      </c>
       <c r="N18" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="92"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I19" s="70">
+        <v>24</v>
+      </c>
+      <c r="J19" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="154" t="s">
+        <v>285</v>
+      </c>
       <c r="N19" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="92"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I20" s="70">
+        <v>24</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="157" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" s="154" t="s">
+        <v>287</v>
+      </c>
       <c r="N20" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="92"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I21" s="70">
+        <v>24</v>
+      </c>
+      <c r="J21" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="157" t="s">
+        <v>288</v>
+      </c>
+      <c r="L21" s="154" t="s">
+        <v>289</v>
+      </c>
       <c r="N21" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="93">
-        <v>43607</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="H22" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I22" s="70">
         <v>24</v>
       </c>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="26">
-        <v>4.5138888888888887E-4</v>
-      </c>
-      <c r="L22" s="94" t="s">
-        <v>120</v>
+      <c r="J22" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="157" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="154" t="s">
+        <v>291</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="140" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="149" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="93">
-        <v>43607</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="H23" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I23" s="70">
         <v>24</v>
       </c>
-      <c r="J23" s="25">
-        <v>1</v>
-      </c>
-      <c r="K23" s="26">
-        <v>2.4305555555555555E-4</v>
-      </c>
-      <c r="L23" s="94" t="s">
-        <v>121</v>
+      <c r="J23" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="157" t="s">
+        <v>292</v>
+      </c>
+      <c r="L23" s="154" t="s">
+        <v>293</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="92"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I24" s="70">
+        <v>24</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="157" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" s="154" t="s">
+        <v>295</v>
+      </c>
       <c r="N24" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="92"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="153"/>
       <c r="N25" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="92"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="153"/>
       <c r="N26" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I27" s="70">
+        <v>24</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="157" t="s">
+        <v>300</v>
+      </c>
+      <c r="L27" s="154" t="s">
+        <v>301</v>
+      </c>
       <c r="M27" s="78"/>
       <c r="N27" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="92"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I28" s="70">
+        <v>24</v>
+      </c>
+      <c r="J28" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="157" t="s">
+        <v>302</v>
+      </c>
+      <c r="L28" s="154" t="s">
+        <v>303</v>
+      </c>
       <c r="M28" s="78"/>
       <c r="N28" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I29" s="70">
+        <v>24</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="L29" s="154" t="s">
+        <v>304</v>
+      </c>
       <c r="M29" s="78"/>
       <c r="N29" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="136" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I30" s="70">
+        <v>24</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="L30" s="154" t="s">
+        <v>306</v>
+      </c>
       <c r="M30" s="78"/>
       <c r="N30" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="136" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="155">
+        <v>22.05</v>
+      </c>
+      <c r="I31" s="70">
+        <v>24</v>
+      </c>
+      <c r="J31" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" s="154" t="s">
+        <v>308</v>
+      </c>
       <c r="M31" s="78"/>
       <c r="N31" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
       <c r="F32" s="88" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G32" s="68"/>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="159"/>
       <c r="M32" s="78"/>
       <c r="N32" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B33" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="83" t="s">
+      <c r="B33" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="151"/>
       <c r="M33" s="78"/>
       <c r="N33" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B34" s="98"/>
-      <c r="C34" s="78">
-        <f t="shared" ref="C34:E34" si="0">COUNTA(C4:C33)</f>
-        <v>29</v>
-      </c>
-      <c r="D34" s="78">
-        <f t="shared" si="0"/>
+      <c r="B34" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="78"/>
+    </row>
+    <row r="35" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B35" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="90"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B36" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="90"/>
+    </row>
+    <row r="37" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="90"/>
+    </row>
+    <row r="38" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="90"/>
+    </row>
+    <row r="39" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="90"/>
+    </row>
+    <row r="40" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="90"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B41" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="91">
+        <v>43607</v>
+      </c>
+      <c r="I41" s="25">
+        <v>24</v>
+      </c>
+      <c r="J41" s="25">
+        <v>1</v>
+      </c>
+      <c r="K41" s="26">
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="L41" s="92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B42" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="91">
+        <v>43607</v>
+      </c>
+      <c r="I42" s="25">
+        <v>24</v>
+      </c>
+      <c r="J42" s="25">
+        <v>1</v>
+      </c>
+      <c r="K42" s="26">
+        <v>2.4305555555555555E-4</v>
+      </c>
+      <c r="L42" s="92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="90"/>
+    </row>
+    <row r="44" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="90"/>
+    </row>
+    <row r="45" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B45" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="90"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B46" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
+    </row>
+    <row r="47" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90"/>
+    </row>
+    <row r="48" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B48" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90"/>
+    </row>
+    <row r="49" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="90"/>
+    </row>
+    <row r="50" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B50" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="90"/>
+    </row>
+    <row r="51" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B51" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90"/>
+    </row>
+    <row r="52" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B52" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="95"/>
+    </row>
+    <row r="53" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B53" s="96"/>
+      <c r="C53" s="78">
+        <f>COUNTA(C4:C52)</f>
+        <v>48</v>
+      </c>
+      <c r="D53" s="78">
+        <f>COUNTA(D4:D52)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="78">
-        <f t="shared" si="0"/>
+      <c r="E53" s="78">
+        <f>COUNTA(E4:E52)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-    </row>
-    <row r="35" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B35" s="98"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B36" s="98"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.5" customHeight="1"/>
-    <row r="38" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-    </row>
-    <row r="47" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="3:5" ht="13.5" customHeight="1">
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+    </row>
+    <row r="54" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B54" s="96"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
     </row>
-    <row r="55" spans="3:5" ht="13.5" customHeight="1">
+    <row r="55" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B55" s="96"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-    </row>
-    <row r="57" spans="3:5" ht="13.5" customHeight="1">
+    <row r="56" spans="2:12" ht="13.5" customHeight="1"/>
+    <row r="57" spans="2:12" ht="13.5" customHeight="1">
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
     </row>
-    <row r="58" spans="3:5" ht="13.5" customHeight="1">
+    <row r="58" spans="2:12" ht="13.5" customHeight="1">
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
     </row>
-    <row r="59" spans="3:5" ht="13.5" customHeight="1">
+    <row r="59" spans="2:12" ht="13.5" customHeight="1">
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
     </row>
-    <row r="60" spans="3:5" ht="13.5" customHeight="1">
+    <row r="60" spans="2:12" ht="13.5" customHeight="1">
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38"/>
     </row>
-    <row r="61" spans="3:5" ht="13.5" customHeight="1">
+    <row r="61" spans="2:12" ht="13.5" customHeight="1">
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
     </row>
-    <row r="62" spans="3:5" ht="13.5" customHeight="1">
+    <row r="62" spans="2:12" ht="13.5" customHeight="1">
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
     </row>
-    <row r="63" spans="3:5" ht="13.5" customHeight="1">
+    <row r="63" spans="2:12" ht="13.5" customHeight="1">
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
     </row>
-    <row r="64" spans="3:5" ht="13.5" customHeight="1">
+    <row r="64" spans="2:12" ht="13.5" customHeight="1">
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -23449,28 +24234,118 @@
       <c r="D1011" s="38"/>
       <c r="E1011" s="38"/>
     </row>
+    <row r="1012" spans="3:5" ht="15" customHeight="1">
+      <c r="C1012" s="38"/>
+      <c r="D1012" s="38"/>
+      <c r="E1012" s="38"/>
+    </row>
+    <row r="1013" spans="3:5" ht="15" customHeight="1">
+      <c r="C1013" s="38"/>
+      <c r="D1013" s="38"/>
+      <c r="E1013" s="38"/>
+    </row>
+    <row r="1014" spans="3:5" ht="15" customHeight="1">
+      <c r="C1014" s="38"/>
+      <c r="D1014" s="38"/>
+      <c r="E1014" s="38"/>
+    </row>
+    <row r="1015" spans="3:5" ht="15" customHeight="1">
+      <c r="C1015" s="38"/>
+      <c r="D1015" s="38"/>
+      <c r="E1015" s="38"/>
+    </row>
+    <row r="1016" spans="3:5" ht="15" customHeight="1">
+      <c r="C1016" s="38"/>
+      <c r="D1016" s="38"/>
+      <c r="E1016" s="38"/>
+    </row>
+    <row r="1017" spans="3:5" ht="15" customHeight="1">
+      <c r="C1017" s="38"/>
+      <c r="D1017" s="38"/>
+      <c r="E1017" s="38"/>
+    </row>
+    <row r="1018" spans="3:5" ht="15" customHeight="1">
+      <c r="C1018" s="38"/>
+      <c r="D1018" s="38"/>
+      <c r="E1018" s="38"/>
+    </row>
+    <row r="1019" spans="3:5" ht="15" customHeight="1">
+      <c r="C1019" s="38"/>
+      <c r="D1019" s="38"/>
+      <c r="E1019" s="38"/>
+    </row>
+    <row r="1020" spans="3:5" ht="15" customHeight="1">
+      <c r="C1020" s="38"/>
+      <c r="D1020" s="38"/>
+      <c r="E1020" s="38"/>
+    </row>
+    <row r="1021" spans="3:5" ht="15" customHeight="1">
+      <c r="C1021" s="38"/>
+      <c r="D1021" s="38"/>
+      <c r="E1021" s="38"/>
+    </row>
+    <row r="1022" spans="3:5" ht="15" customHeight="1">
+      <c r="C1022" s="38"/>
+      <c r="D1022" s="38"/>
+      <c r="E1022" s="38"/>
+    </row>
+    <row r="1023" spans="3:5" ht="15" customHeight="1">
+      <c r="C1023" s="38"/>
+      <c r="D1023" s="38"/>
+      <c r="E1023" s="38"/>
+    </row>
+    <row r="1024" spans="3:5" ht="15" customHeight="1">
+      <c r="C1024" s="38"/>
+      <c r="D1024" s="38"/>
+      <c r="E1024" s="38"/>
+    </row>
+    <row r="1025" spans="3:5" ht="15" customHeight="1">
+      <c r="C1025" s="38"/>
+      <c r="D1025" s="38"/>
+      <c r="E1025" s="38"/>
+    </row>
+    <row r="1026" spans="3:5" ht="15" customHeight="1">
+      <c r="C1026" s="38"/>
+      <c r="D1026" s="38"/>
+      <c r="E1026" s="38"/>
+    </row>
+    <row r="1027" spans="3:5" ht="15" customHeight="1">
+      <c r="C1027" s="38"/>
+      <c r="D1027" s="38"/>
+      <c r="E1027" s="38"/>
+    </row>
+    <row r="1028" spans="3:5" ht="15" customHeight="1">
+      <c r="C1028" s="38"/>
+      <c r="D1028" s="38"/>
+      <c r="E1028" s="38"/>
+    </row>
+    <row r="1029" spans="3:5" ht="15" customHeight="1">
+      <c r="C1029" s="38"/>
+      <c r="D1029" s="38"/>
+      <c r="E1029" s="38"/>
+    </row>
+    <row r="1030" spans="3:5" ht="15" customHeight="1">
+      <c r="C1030" s="38"/>
+      <c r="D1030" s="38"/>
+      <c r="E1030" s="38"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F13" r:id="rId6"/>
-    <hyperlink ref="F16" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F21" r:id="rId9"/>
-    <hyperlink ref="F24" r:id="rId10"/>
-    <hyperlink ref="F25" r:id="rId11"/>
-    <hyperlink ref="F30" r:id="rId12"/>
-    <hyperlink ref="F31" r:id="rId13"/>
-    <hyperlink ref="F32" r:id="rId14"/>
-    <hyperlink ref="F33" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="F32" r:id="rId1"/>
+    <hyperlink ref="F35" r:id="rId2"/>
+    <hyperlink ref="F36" r:id="rId3"/>
+    <hyperlink ref="F40" r:id="rId4"/>
+    <hyperlink ref="F43" r:id="rId5"/>
+    <hyperlink ref="F44" r:id="rId6"/>
+    <hyperlink ref="F49" r:id="rId7"/>
+    <hyperlink ref="F50" r:id="rId8"/>
+    <hyperlink ref="F51" r:id="rId9"/>
+    <hyperlink ref="F52" r:id="rId10"/>
+    <hyperlink ref="B41" r:id="rId11"/>
+    <hyperlink ref="B42" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -23499,7 +24374,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -23577,8 +24452,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -23588,15 +24463,15 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
       <c r="N4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -23604,14 +24479,14 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="L5" s="111"/>
+      <c r="L5" s="109"/>
       <c r="N5" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -23623,68 +24498,68 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="111"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="109"/>
       <c r="N6" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="109"/>
       <c r="N7" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
       <c r="N8" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="78"/>
       <c r="N9" s="27" t="s">
         <v>24</v>
@@ -23692,20 +24567,20 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="78"/>
       <c r="N10" s="27" t="s">
         <v>24</v>
@@ -23713,20 +24588,20 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="68"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="126"/>
       <c r="M11" s="78"/>
       <c r="N11" s="27" t="s">
         <v>24</v>
@@ -23734,27 +24609,27 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="126"/>
       <c r="N12" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -23762,21 +24637,21 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="128"/>
+        <v>178</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="126"/>
       <c r="N13" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -23784,21 +24659,21 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="128"/>
+        <v>180</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="126"/>
       <c r="N14" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -23806,81 +24681,81 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="128"/>
+        <v>182</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="126"/>
       <c r="N15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="125"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="123"/>
       <c r="N16" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="128"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="126"/>
       <c r="N17" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="128"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="126"/>
       <c r="N18" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -23893,14 +24768,14 @@
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="128"/>
+      <c r="L19" s="126"/>
       <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -23912,15 +24787,15 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="126"/>
       <c r="N20" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -23933,36 +24808,36 @@
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="128"/>
+      <c r="L21" s="126"/>
       <c r="N21" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="132" t="s">
-        <v>197</v>
+      <c r="F22" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="128"/>
+      <c r="L22" s="126"/>
       <c r="N22" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -23975,14 +24850,14 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="128"/>
+      <c r="L23" s="126"/>
       <c r="N23" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -23995,14 +24870,14 @@
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="125"/>
+      <c r="L24" s="123"/>
       <c r="N24" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -24010,14 +24885,14 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="24"/>
-      <c r="L25" s="128"/>
+      <c r="L25" s="126"/>
       <c r="N25" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -24025,19 +24900,19 @@
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="136"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="134"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="78">
         <f t="shared" ref="C27:E27" si="0">COUNTA(C4:C26)</f>
         <v>1</v>
@@ -24060,7 +24935,7 @@
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -28936,7 +29811,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -29013,50 +29888,50 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="139" t="s">
-        <v>203</v>
+      <c r="B4" s="137" t="s">
+        <v>196</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="145"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="148"/>
+      <c r="F5" s="146"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="145"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="143"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="140" t="s">
-        <v>207</v>
+      <c r="B6" s="138" t="s">
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="141" t="s">
+      <c r="F6" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="139" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="14">
@@ -29068,492 +29943,492 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="144" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6" s="146" t="s">
-        <v>240</v>
+      <c r="K6" s="142" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="144" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="140" t="s">
-        <v>210</v>
+      <c r="B7" s="138" t="s">
+        <v>203</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="141" t="s">
+      <c r="F7" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="134">
+      <c r="H7" s="132">
         <v>16</v>
       </c>
-      <c r="I7" s="134">
+      <c r="I7" s="132">
         <v>32</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="144" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="146" t="s">
-        <v>240</v>
+      <c r="K7" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="144" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="140" t="s">
-        <v>211</v>
+      <c r="B8" s="138" t="s">
+        <v>204</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="141" t="s">
+      <c r="F8" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="132">
         <v>16</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="132">
         <v>32</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="132">
         <v>1</v>
       </c>
-      <c r="K8" s="144" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="146" t="s">
-        <v>240</v>
+      <c r="K8" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="144" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="140" t="s">
-        <v>212</v>
+      <c r="B9" s="138" t="s">
+        <v>205</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="141" t="s">
+      <c r="F9" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="132">
         <v>16</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="132">
         <v>32</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="132">
         <v>1</v>
       </c>
-      <c r="K9" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="L9" s="146" t="s">
-        <v>240</v>
+      <c r="K9" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="144" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="140" t="s">
-        <v>214</v>
+      <c r="B10" s="138" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="141" t="s">
+      <c r="F10" s="146" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="132">
         <v>16</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="132">
         <v>32</v>
       </c>
-      <c r="J10" s="134">
+      <c r="J10" s="132">
         <v>1</v>
       </c>
-      <c r="K10" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="146" t="s">
-        <v>242</v>
+      <c r="K10" s="142" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="140" t="s">
-        <v>216</v>
+      <c r="B11" s="138" t="s">
+        <v>209</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="141" t="s">
+      <c r="F11" s="146" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="132">
         <v>16</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="132">
         <v>32</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="132">
         <v>1</v>
       </c>
-      <c r="K11" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="146" t="s">
-        <v>242</v>
+      <c r="K11" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="140" t="s">
-        <v>218</v>
+      <c r="B12" s="138" t="s">
+        <v>211</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="141" t="s">
+      <c r="F12" s="146" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="132">
         <v>16</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="132">
         <v>32</v>
       </c>
-      <c r="J12" s="134">
+      <c r="J12" s="132">
         <v>1</v>
       </c>
-      <c r="K12" s="144" t="s">
-        <v>217</v>
-      </c>
-      <c r="L12" s="146" t="s">
-        <v>242</v>
+      <c r="K12" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="140" t="s">
-        <v>220</v>
+      <c r="B13" s="138" t="s">
+        <v>213</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="148" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="141" t="s">
+      <c r="F13" s="146" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="132">
         <v>16</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="132">
         <v>32</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="132">
         <v>1</v>
       </c>
-      <c r="K13" s="144" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="146" t="s">
-        <v>242</v>
+      <c r="K13" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="140" t="s">
-        <v>225</v>
+      <c r="B14" s="138" t="s">
+        <v>218</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="141" t="s">
+      <c r="F14" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="134">
+      <c r="H14" s="132">
         <v>16</v>
       </c>
-      <c r="I14" s="134">
+      <c r="I14" s="132">
         <v>32</v>
       </c>
-      <c r="J14" s="134">
+      <c r="J14" s="132">
         <v>1</v>
       </c>
-      <c r="K14" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="146" t="s">
-        <v>246</v>
+      <c r="K14" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="144" t="s">
+        <v>239</v>
       </c>
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="140" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="134" t="s">
+      <c r="B15" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="132" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="141" t="s">
+      <c r="F15" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="134">
+      <c r="H15" s="132">
         <v>16</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="132">
         <v>32</v>
       </c>
-      <c r="J15" s="134">
+      <c r="J15" s="132">
         <v>1</v>
       </c>
-      <c r="K15" s="144" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="146" t="s">
-        <v>246</v>
+      <c r="K15" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="144" t="s">
+        <v>239</v>
       </c>
       <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="140" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="147"/>
+      <c r="D16" s="145"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="141" t="s">
+      <c r="F16" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="134">
+      <c r="H16" s="132">
         <v>16</v>
       </c>
-      <c r="I16" s="134">
+      <c r="I16" s="132">
         <v>32</v>
       </c>
-      <c r="J16" s="134">
+      <c r="J16" s="132">
         <v>1</v>
       </c>
-      <c r="K16" s="144" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" s="146" t="s">
-        <v>246</v>
+      <c r="K16" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="144" t="s">
+        <v>239</v>
       </c>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="140" t="s">
-        <v>231</v>
+      <c r="B17" s="138" t="s">
+        <v>224</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="141" t="s">
+      <c r="F17" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="132">
         <v>16</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="132">
         <v>32</v>
       </c>
-      <c r="J17" s="134">
+      <c r="J17" s="132">
         <v>1</v>
       </c>
-      <c r="K17" s="144" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="146" t="s">
-        <v>246</v>
+      <c r="K17" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="144" t="s">
+        <v>239</v>
       </c>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="134" t="s">
+      <c r="B18" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="132" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="141" t="s">
+      <c r="F18" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="132">
         <v>16</v>
       </c>
-      <c r="I18" s="134">
+      <c r="I18" s="132">
         <v>32</v>
       </c>
-      <c r="J18" s="134">
+      <c r="J18" s="132">
         <v>1</v>
       </c>
-      <c r="K18" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" s="146" t="s">
-        <v>247</v>
+      <c r="K18" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="144" t="s">
+        <v>240</v>
       </c>
       <c r="M18" s="78"/>
-      <c r="N18" s="148"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="140" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="134" t="s">
+      <c r="B19" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="132" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="141" t="s">
+      <c r="F19" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="132">
         <v>16</v>
       </c>
-      <c r="I19" s="134">
+      <c r="I19" s="132">
         <v>32</v>
       </c>
-      <c r="J19" s="134">
+      <c r="J19" s="132">
         <v>1</v>
       </c>
-      <c r="K19" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="146" t="s">
-        <v>247</v>
+      <c r="K19" s="142" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" s="144" t="s">
+        <v>240</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="134" t="s">
+      <c r="B20" s="138" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="132" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="141" t="s">
+      <c r="F20" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="134">
+      <c r="H20" s="132">
         <v>16</v>
       </c>
-      <c r="I20" s="134">
+      <c r="I20" s="132">
         <v>32</v>
       </c>
-      <c r="J20" s="134">
+      <c r="J20" s="132">
         <v>1</v>
       </c>
-      <c r="K20" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="L20" s="146" t="s">
-        <v>247</v>
+      <c r="K20" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="144" t="s">
+        <v>240</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="140" t="s">
-        <v>238</v>
+      <c r="B21" s="138" t="s">
+        <v>231</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="141" t="s">
+      <c r="F21" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="134">
+      <c r="H21" s="132">
         <v>16</v>
       </c>
-      <c r="I21" s="134">
+      <c r="I21" s="132">
         <v>32</v>
       </c>
-      <c r="J21" s="134">
+      <c r="J21" s="132">
         <v>1</v>
       </c>
-      <c r="K21" s="144" t="s">
-        <v>237</v>
-      </c>
-      <c r="L21" s="146" t="s">
-        <v>247</v>
+      <c r="K21" s="142" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="144" t="s">
+        <v>240</v>
       </c>
       <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B22" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="135" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="80"/>
@@ -29563,8 +30438,8 @@
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="136"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -29576,7 +30451,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="150"/>
+      <c r="F24" s="148"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="38"/>
@@ -29594,7 +30469,7 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="F28" s="148"/>
+      <c r="F28" s="146"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="354">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -326,30 +326,6 @@
     <t>SFX/Personaje Pasos sobre madera/madera sonido1</t>
   </si>
   <si>
-    <t>SFX/Personaje Pasos sobre charcos/charcos sonido1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1HncIO7u79yDWSEncZ6YQimhC5DmsTnLc?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Personaje salto sobre tierra/tierra sonido2</t>
-  </si>
-  <si>
-    <t>SFX/Personaje salto sobre madera/madera sonido2</t>
-  </si>
-  <si>
-    <t>SFX/Objetos movimiento cofre/Monedas cofre</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1UjrUQTxURXPzDzt6KQagDcESypTXWszP</t>
-  </si>
-  <si>
-    <t>SFX/Objetos puente de madera/Crujido madera</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1BJ9a9ZPXXNCn9loucpdtFuvKIHQO-9_s</t>
-  </si>
-  <si>
     <t>SFX/Araña caminando/pasos araña</t>
   </si>
   <si>
@@ -359,28 +335,10 @@
     <t>SFX/Pollo Picotazo/picotazo pollo</t>
   </si>
   <si>
-    <t>SFX/Murcielago volando/aleteo murcielago</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1AKrs5e22aiVu0zhDcjx2qnKqBmiyc0OB?usp=sharing</t>
-  </si>
-  <si>
     <t>-13,355 db</t>
   </si>
   <si>
     <t>-15,637 db</t>
-  </si>
-  <si>
-    <t>SFX/Unicornio caminando/pasos unicornio</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1KLmTivq3HlUrOQeWa212SNwoZVmlrYjr?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Guardian caminando/pasos guardian</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1nKDqVm9-HC3haTolKrknxWczrRY8PfHU?usp=sharing</t>
   </si>
   <si>
     <t>SFX/Muerte  caminando/pasos muerte</t>
@@ -395,22 +353,7 @@
     <t>SFX/Rey Pollo Golpe ala/ataque rey pollo</t>
   </si>
   <si>
-    <t>SFX/Muerte Conjuro paralizante/disparo muerte1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1S1WjULfjxu7UCbfp0Uf56czcdPqwo5Ew?usp=sharing</t>
-  </si>
-  <si>
     <t>SFX/Muerte Guitarrazo demoledor/golpe muerte1</t>
-  </si>
-  <si>
-    <t>SFX/Muerte Ondas de guitarra/disparo muerte2</t>
-  </si>
-  <si>
-    <t>SFX/Muerte movimiento esqueleto/Sonido de esqueleto</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1iVrd08dV5V0_VEOl4DCO0r8Q2s4qBL8J</t>
   </si>
   <si>
     <t>-0,777dB</t>
@@ -952,16 +895,207 @@
   <si>
     <t>-23,622db</t>
   </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos1.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado</t>
+  </si>
+  <si>
+    <t>22.05</t>
+  </si>
+  <si>
+    <t>00:01:01</t>
+  </si>
+  <si>
+    <t>-14,393 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos2.wav</t>
+  </si>
+  <si>
+    <t>00:01:18</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos3.wav</t>
+  </si>
+  <si>
+    <t>00:01:21</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos4.wav</t>
+  </si>
+  <si>
+    <t>00:00:51</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos5.wav</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos6.wav</t>
+  </si>
+  <si>
+    <t>00:00:58</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos7.wav</t>
+  </si>
+  <si>
+    <t>00:00:59</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre1.wav</t>
+  </si>
+  <si>
+    <t>00:01:80</t>
+  </si>
+  <si>
+    <t>-6,62 db</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre2.wav</t>
+  </si>
+  <si>
+    <t>00:01:29</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre3.wav</t>
+  </si>
+  <si>
+    <t>00:00:74</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera1.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado en casa, aplicado eliminacion de ruido de fondo, con la frecuencia de muestreo modificada, normalizado</t>
+  </si>
+  <si>
+    <t>00:01:54</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera2.wav</t>
+  </si>
+  <si>
+    <t>00:02:77</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera3.wav</t>
+  </si>
+  <si>
+    <t>00:04:70</t>
+  </si>
+  <si>
+    <t>SFX/Murcielago volando/aleteoMurcielago.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, estereo a partir de dos canales mono, con la frecuencia de muestreo modificada</t>
+  </si>
+  <si>
+    <t>00:09:04</t>
+  </si>
+  <si>
+    <t>-3,962 db</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio1.wav</t>
+  </si>
+  <si>
+    <t>-9,703 db</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio2.wav</t>
+  </si>
+  <si>
+    <t>-9,17 db</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio3.wav</t>
+  </si>
+  <si>
+    <t>00:00:64</t>
+  </si>
+  <si>
+    <t>-8,521 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian1.wav</t>
+  </si>
+  <si>
+    <t>00:00:34</t>
+  </si>
+  <si>
+    <t>-13,517 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian2.wav</t>
+  </si>
+  <si>
+    <t>00:00:44</t>
+  </si>
+  <si>
+    <t>-18,166 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian3.wav</t>
+  </si>
+  <si>
+    <t>-12,726 db</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, este se usara junto a golpe de arma en el evento</t>
+  </si>
+  <si>
+    <t>00:04:64</t>
+  </si>
+  <si>
+    <t>-5,293 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte Conjuro paralizante/disparoMuerte1.wav</t>
+  </si>
+  <si>
+    <t>00:05:32</t>
+  </si>
+  <si>
+    <t>-2,27 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte Ondas de guitarra/disparoMuerte2.wav</t>
+  </si>
+  <si>
+    <t>00:05:14</t>
+  </si>
+  <si>
+    <t>-2,521 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte movimiento esqueleto/MovimientEsqueleto.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, cambio de tono (mas grave) e inversion</t>
+  </si>
+  <si>
+    <t>00:26:88</t>
+  </si>
+  <si>
+    <t>-16,556 db</t>
+  </si>
+  <si>
+    <t>00:01:50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -972,36 +1106,43 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1013,71 +1154,70 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1124,17 +1264,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1412,12 +1545,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1652,31 +1785,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1709,7 +1818,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1719,19 +1828,19 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1757,7 +1866,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1780,70 +1889,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3465,8 +3581,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6859,8 +6975,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -12440,8 +12556,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12481,11 +12597,11 @@
       <c r="J5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="97">
+      <c r="K5" s="89">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="L5" s="98" t="s">
-        <v>129</v>
+      <c r="L5" s="90" t="s">
+        <v>110</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>93</v>
@@ -12493,7 +12609,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12515,11 +12631,11 @@
       <c r="J6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="97">
+      <c r="K6" s="89">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L6" s="98" t="s">
-        <v>131</v>
+      <c r="L6" s="90" t="s">
+        <v>112</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>93</v>
@@ -12527,7 +12643,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12549,11 +12665,11 @@
       <c r="J7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="89">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L7" s="98" t="s">
-        <v>133</v>
+      <c r="L7" s="90" t="s">
+        <v>114</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>93</v>
@@ -12561,7 +12677,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12583,11 +12699,11 @@
       <c r="J8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="89">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="98" t="s">
-        <v>135</v>
+      <c r="L8" s="90" t="s">
+        <v>116</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>93</v>
@@ -12595,7 +12711,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12617,11 +12733,11 @@
       <c r="J9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="89">
         <v>3.9675925925925927E-2</v>
       </c>
-      <c r="L9" s="99" t="s">
-        <v>137</v>
+      <c r="L9" s="91" t="s">
+        <v>118</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>93</v>
@@ -12629,7 +12745,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12651,11 +12767,11 @@
       <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="97">
+      <c r="K10" s="89">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="L10" s="99" t="s">
-        <v>139</v>
+      <c r="L10" s="91" t="s">
+        <v>120</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>93</v>
@@ -12663,7 +12779,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12689,7 +12805,7 @@
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>93</v>
@@ -12697,7 +12813,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12722,8 +12838,8 @@
       <c r="K12" s="66">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="L12" s="99" t="s">
-        <v>143</v>
+      <c r="L12" s="91" t="s">
+        <v>124</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>93</v>
@@ -12731,7 +12847,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12753,11 +12869,11 @@
       <c r="J13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="89">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="L13" s="99" t="s">
-        <v>145</v>
+      <c r="L13" s="91" t="s">
+        <v>126</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>93</v>
@@ -12765,7 +12881,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12787,11 +12903,11 @@
       <c r="J14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="92">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="L14" s="98" t="s">
-        <v>147</v>
+      <c r="L14" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>93</v>
@@ -12799,7 +12915,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12821,19 +12937,19 @@
       <c r="J15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="100">
+      <c r="K15" s="92">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="L15" s="98" t="s">
-        <v>149</v>
+      <c r="L15" s="90" t="s">
+        <v>130</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12858,16 +12974,16 @@
       <c r="K16" s="66">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="L16" s="98" t="s">
-        <v>152</v>
+      <c r="L16" s="90" t="s">
+        <v>133</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12892,16 +13008,16 @@
       <c r="K17" s="66">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L17" s="99" t="s">
-        <v>154</v>
+      <c r="L17" s="91" t="s">
+        <v>135</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12926,16 +13042,16 @@
       <c r="K18" s="66">
         <v>7.5231481481481482E-4</v>
       </c>
-      <c r="L18" s="99" t="s">
-        <v>156</v>
+      <c r="L18" s="91" t="s">
+        <v>137</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12957,19 +13073,19 @@
       <c r="J19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="100">
+      <c r="K19" s="92">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="L19" s="99" t="s">
-        <v>158</v>
+      <c r="L19" s="91" t="s">
+        <v>139</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12991,11 +13107,11 @@
       <c r="J20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="101">
+      <c r="K20" s="93">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L20" s="99" t="s">
-        <v>160</v>
+      <c r="L20" s="91" t="s">
+        <v>141</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>93</v>
@@ -13003,7 +13119,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -13028,8 +13144,8 @@
       <c r="K21" s="66">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L21" s="99" t="s">
-        <v>160</v>
+      <c r="L21" s="91" t="s">
+        <v>141</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>93</v>
@@ -13037,7 +13153,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -13059,52 +13175,52 @@
       <c r="J22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="101">
+      <c r="K22" s="93">
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="96">
         <v>16</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="96">
         <v>32</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="105">
+      <c r="K23" s="97">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="L23" s="106" t="s">
-        <v>165</v>
+      <c r="L23" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="107"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="38">
         <f t="shared" ref="C24:E24" si="0">COUNTA(C4:C23)</f>
         <v>0</v>
@@ -13119,19 +13235,19 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="107"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="107"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="107"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -18006,8 +18122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18104,8 +18220,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -18125,31 +18241,31 @@
       <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
-      <c r="F5" s="116" t="s">
-        <v>214</v>
+      <c r="F5" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="146">
         <v>22.05</v>
       </c>
       <c r="I5" s="70">
         <v>24</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="150" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="152" t="s">
-        <v>246</v>
+      <c r="J5" s="70">
+        <v>1</v>
+      </c>
+      <c r="K5" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" s="143" t="s">
+        <v>227</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>93</v>
@@ -18157,65 +18273,65 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
-      <c r="F6" s="116" t="s">
-        <v>214</v>
+      <c r="F6" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H6" s="146">
         <v>22.05</v>
       </c>
       <c r="I6" s="70">
         <v>24</v>
       </c>
-      <c r="J6" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="89">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="L6" s="154" t="s">
-        <v>247</v>
+      <c r="J6" s="70">
+        <v>1</v>
+      </c>
+      <c r="K6" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="145" t="s">
+        <v>228</v>
       </c>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
-      <c r="F7" s="116" t="s">
-        <v>214</v>
+      <c r="F7" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="155">
+      <c r="H7" s="146">
         <v>22.05</v>
       </c>
       <c r="I7" s="70">
         <v>24</v>
       </c>
-      <c r="J7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="154" t="s">
-        <v>249</v>
+      <c r="J7" s="70">
+        <v>1</v>
+      </c>
+      <c r="K7" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="145" t="s">
+        <v>230</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>93</v>
@@ -18223,99 +18339,99 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="116" t="s">
-        <v>214</v>
+      <c r="F8" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="146">
         <v>22.05</v>
       </c>
       <c r="I8" s="70">
         <v>24</v>
       </c>
-      <c r="J8" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="150" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="154" t="s">
-        <v>251</v>
+      <c r="J8" s="70">
+        <v>1</v>
+      </c>
+      <c r="K8" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="145" t="s">
+        <v>232</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="147" t="s">
-        <v>214</v>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="155">
+      <c r="H9" s="146">
         <v>22.05</v>
       </c>
       <c r="I9" s="70">
         <v>24</v>
       </c>
-      <c r="J9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="150" t="s">
-        <v>253</v>
-      </c>
-      <c r="L9" s="154" t="s">
-        <v>254</v>
+      <c r="J9" s="70">
+        <v>1</v>
+      </c>
+      <c r="K9" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="145" t="s">
+        <v>235</v>
       </c>
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="116" t="s">
-        <v>214</v>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="155">
+      <c r="H10" s="146">
         <v>22.05</v>
       </c>
       <c r="I10" s="70">
         <v>24</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="150" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="154" t="s">
-        <v>256</v>
+      <c r="J10" s="70">
+        <v>1</v>
+      </c>
+      <c r="K10" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" s="145" t="s">
+        <v>237</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>93</v>
@@ -18325,99 +18441,99 @@
       <c r="B11" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="116" t="s">
-        <v>214</v>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="155">
+      <c r="H11" s="146">
         <v>22.05</v>
       </c>
       <c r="I11" s="70">
         <v>24</v>
       </c>
-      <c r="J11" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="154" t="s">
-        <v>262</v>
+      <c r="J11" s="70">
+        <v>1</v>
+      </c>
+      <c r="K11" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="145" t="s">
+        <v>243</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="116" t="s">
-        <v>214</v>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="155">
+      <c r="H12" s="146">
         <v>22.05</v>
       </c>
       <c r="I12" s="70">
         <v>24</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="154" t="s">
-        <v>264</v>
+      <c r="J12" s="70">
+        <v>1</v>
+      </c>
+      <c r="K12" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="145" t="s">
+        <v>245</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="116" t="s">
-        <v>214</v>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="146">
         <v>22.05</v>
       </c>
       <c r="I13" s="70">
         <v>24</v>
       </c>
-      <c r="J13" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="150" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="154" t="s">
-        <v>266</v>
+      <c r="J13" s="70">
+        <v>1</v>
+      </c>
+      <c r="K13" s="141" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="145" t="s">
+        <v>247</v>
       </c>
       <c r="M13" s="78"/>
       <c r="N13" s="27" t="s">
@@ -18425,34 +18541,34 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="116" t="s">
-        <v>214</v>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="146">
         <v>22.05</v>
       </c>
       <c r="I14" s="70">
         <v>24</v>
       </c>
-      <c r="J14" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="17">
-        <v>7.4884259259259262E-3</v>
-      </c>
-      <c r="L14" s="154" t="s">
-        <v>267</v>
+      <c r="J14" s="70">
+        <v>1</v>
+      </c>
+      <c r="K14" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="145" t="s">
+        <v>248</v>
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="27" t="s">
@@ -18460,102 +18576,102 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="116" t="s">
-        <v>214</v>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="155">
+      <c r="H15" s="146">
         <v>22.05</v>
       </c>
       <c r="I15" s="70">
         <v>24</v>
       </c>
-      <c r="J15" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="157" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="154" t="s">
-        <v>269</v>
+      <c r="J15" s="70">
+        <v>1</v>
+      </c>
+      <c r="K15" s="148" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="145" t="s">
+        <v>250</v>
       </c>
       <c r="N15" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="136" t="s">
-        <v>270</v>
+      <c r="B16" s="128" t="s">
+        <v>251</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="116" t="s">
-        <v>214</v>
+      <c r="F16" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G16" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="155">
+      <c r="H16" s="146">
         <v>22.05</v>
       </c>
       <c r="I16" s="70">
         <v>24</v>
       </c>
-      <c r="J16" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="157" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="154" t="s">
-        <v>273</v>
+      <c r="J16" s="70">
+        <v>1</v>
+      </c>
+      <c r="K16" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="145" t="s">
+        <v>254</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="136" t="s">
-        <v>271</v>
+      <c r="B17" s="128" t="s">
+        <v>252</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="116" t="s">
-        <v>214</v>
+      <c r="F17" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G17" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="155">
+      <c r="H17" s="146">
         <v>22.05</v>
       </c>
       <c r="I17" s="70">
         <v>24</v>
       </c>
-      <c r="J17" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="157" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" s="154" t="s">
-        <v>275</v>
+      <c r="J17" s="70">
+        <v>1</v>
+      </c>
+      <c r="K17" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="145" t="s">
+        <v>256</v>
       </c>
       <c r="N17" s="27" t="s">
         <v>93</v>
@@ -18565,231 +18681,231 @@
       <c r="B18" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="116" t="s">
-        <v>214</v>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G18" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="146">
         <v>22.05</v>
       </c>
       <c r="I18" s="70">
         <v>24</v>
       </c>
-      <c r="J18" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="157" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="154" t="s">
-        <v>283</v>
+      <c r="J18" s="70">
+        <v>1</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="145" t="s">
+        <v>264</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="136" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="116" t="s">
-        <v>214</v>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="155">
+      <c r="H19" s="146">
         <v>22.05</v>
       </c>
       <c r="I19" s="70">
         <v>24</v>
       </c>
-      <c r="J19" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="154" t="s">
-        <v>285</v>
+      <c r="J19" s="70">
+        <v>1</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="145" t="s">
+        <v>266</v>
       </c>
       <c r="N19" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="116" t="s">
-        <v>214</v>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H20" s="146">
         <v>22.05</v>
       </c>
       <c r="I20" s="70">
         <v>24</v>
       </c>
-      <c r="J20" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="157" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="154" t="s">
-        <v>287</v>
+      <c r="J20" s="70">
+        <v>1</v>
+      </c>
+      <c r="K20" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="145" t="s">
+        <v>268</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="136" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="132" t="s">
+      <c r="B21" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="116" t="s">
-        <v>214</v>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G21" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="155">
+      <c r="H21" s="146">
         <v>22.05</v>
       </c>
       <c r="I21" s="70">
         <v>24</v>
       </c>
-      <c r="J21" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="157" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="154" t="s">
-        <v>289</v>
+      <c r="J21" s="70">
+        <v>1</v>
+      </c>
+      <c r="K21" s="148" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="145" t="s">
+        <v>270</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="136" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="132" t="s">
+      <c r="B22" s="128" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="116" t="s">
-        <v>214</v>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="155">
+      <c r="H22" s="146">
         <v>22.05</v>
       </c>
       <c r="I22" s="70">
         <v>24</v>
       </c>
-      <c r="J22" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="157" t="s">
-        <v>290</v>
-      </c>
-      <c r="L22" s="154" t="s">
-        <v>291</v>
+      <c r="J22" s="70">
+        <v>1</v>
+      </c>
+      <c r="K22" s="148" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="145" t="s">
+        <v>272</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="116" t="s">
-        <v>214</v>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="155">
+      <c r="H23" s="146">
         <v>22.05</v>
       </c>
       <c r="I23" s="70">
         <v>24</v>
       </c>
-      <c r="J23" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="157" t="s">
-        <v>292</v>
-      </c>
-      <c r="L23" s="154" t="s">
-        <v>293</v>
+      <c r="J23" s="70">
+        <v>1</v>
+      </c>
+      <c r="K23" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="145" t="s">
+        <v>274</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="136" t="s">
-        <v>281</v>
+      <c r="B24" s="128" t="s">
+        <v>262</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="116" t="s">
-        <v>214</v>
+      <c r="F24" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="155">
+      <c r="H24" s="146">
         <v>22.05</v>
       </c>
       <c r="I24" s="70">
         <v>24</v>
       </c>
-      <c r="J24" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="157" t="s">
-        <v>294</v>
-      </c>
-      <c r="L24" s="154" t="s">
-        <v>295</v>
+      <c r="J24" s="70">
+        <v>1</v>
+      </c>
+      <c r="K24" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="L24" s="145" t="s">
+        <v>276</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>93</v>
@@ -18804,13 +18920,13 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="64"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="153"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="144"/>
       <c r="N25" s="27" t="s">
         <v>93</v>
       </c>
@@ -18824,13 +18940,13 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="64"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="153"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="144"/>
       <c r="N26" s="27" t="s">
         <v>93</v>
       </c>
@@ -18839,31 +18955,31 @@
       <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="116" t="s">
-        <v>214</v>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G27" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="155">
+      <c r="H27" s="146">
         <v>22.05</v>
       </c>
       <c r="I27" s="70">
         <v>24</v>
       </c>
-      <c r="J27" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="157" t="s">
-        <v>300</v>
-      </c>
-      <c r="L27" s="154" t="s">
-        <v>301</v>
+      <c r="J27" s="70">
+        <v>1</v>
+      </c>
+      <c r="K27" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27" s="145" t="s">
+        <v>282</v>
       </c>
       <c r="M27" s="78"/>
       <c r="N27" s="27" t="s">
@@ -18871,34 +18987,34 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="136" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="132" t="s">
+      <c r="B28" s="128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="116" t="s">
-        <v>214</v>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="155">
+      <c r="H28" s="146">
         <v>22.05</v>
       </c>
       <c r="I28" s="70">
         <v>24</v>
       </c>
-      <c r="J28" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="157" t="s">
-        <v>302</v>
-      </c>
-      <c r="L28" s="154" t="s">
-        <v>303</v>
+      <c r="J28" s="70">
+        <v>1</v>
+      </c>
+      <c r="K28" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="145" t="s">
+        <v>284</v>
       </c>
       <c r="M28" s="78"/>
       <c r="N28" s="27" t="s">
@@ -18906,34 +19022,34 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="136" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="132" t="s">
+      <c r="B29" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="116" t="s">
-        <v>214</v>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="155">
+      <c r="H29" s="146">
         <v>22.05</v>
       </c>
       <c r="I29" s="70">
         <v>24</v>
       </c>
-      <c r="J29" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="L29" s="154" t="s">
-        <v>304</v>
+      <c r="J29" s="70">
+        <v>1</v>
+      </c>
+      <c r="K29" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" s="145" t="s">
+        <v>285</v>
       </c>
       <c r="M29" s="78"/>
       <c r="N29" s="27" t="s">
@@ -18941,34 +19057,34 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="136" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" s="132" t="s">
+      <c r="B30" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="116" t="s">
-        <v>214</v>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G30" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="155">
+      <c r="H30" s="146">
         <v>22.05</v>
       </c>
       <c r="I30" s="70">
         <v>24</v>
       </c>
-      <c r="J30" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="157" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" s="154" t="s">
-        <v>306</v>
+      <c r="J30" s="70">
+        <v>1</v>
+      </c>
+      <c r="K30" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" s="145" t="s">
+        <v>287</v>
       </c>
       <c r="M30" s="78"/>
       <c r="N30" s="27" t="s">
@@ -18976,34 +19092,34 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="136" t="s">
-        <v>299</v>
+      <c r="B31" s="128" t="s">
+        <v>280</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="116" t="s">
-        <v>214</v>
+      <c r="F31" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G31" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="155">
+      <c r="H31" s="146">
         <v>22.05</v>
       </c>
       <c r="I31" s="70">
         <v>24</v>
       </c>
-      <c r="J31" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="157" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="154" t="s">
-        <v>308</v>
+      <c r="J31" s="70">
+        <v>1</v>
+      </c>
+      <c r="K31" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="145" t="s">
+        <v>289</v>
       </c>
       <c r="M31" s="78"/>
       <c r="N31" s="27" t="s">
@@ -19011,570 +19127,1127 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="78"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="70">
+        <v>24</v>
+      </c>
+      <c r="J32" s="70">
+        <v>1</v>
+      </c>
+      <c r="K32" s="140" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" s="19"/>
       <c r="N32" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B33" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="59" t="s">
+    <row r="33" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B33" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="78"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I33" s="70">
+        <v>24</v>
+      </c>
+      <c r="J33" s="70">
+        <v>1</v>
+      </c>
+      <c r="K33" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" s="19"/>
       <c r="N33" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B34" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" s="70">
+        <v>24</v>
+      </c>
+      <c r="J34" s="70">
+        <v>1</v>
+      </c>
+      <c r="K34" s="140" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B35" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" s="70">
+        <v>24</v>
+      </c>
+      <c r="J35" s="70">
+        <v>1</v>
+      </c>
+      <c r="K35" s="140" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B36" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="70">
+        <v>24</v>
+      </c>
+      <c r="J36" s="70">
+        <v>1</v>
+      </c>
+      <c r="K36" s="140" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B37" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I37" s="70">
+        <v>24</v>
+      </c>
+      <c r="J37" s="70">
+        <v>1</v>
+      </c>
+      <c r="K37" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B38" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I38" s="70">
+        <v>24</v>
+      </c>
+      <c r="J38" s="70">
+        <v>1</v>
+      </c>
+      <c r="K38" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B39" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I39" s="70">
+        <v>24</v>
+      </c>
+      <c r="J39" s="70">
+        <v>1</v>
+      </c>
+      <c r="K39" s="140" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B40" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I40" s="70">
+        <v>24</v>
+      </c>
+      <c r="J40" s="70">
+        <v>1</v>
+      </c>
+      <c r="K40" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B41" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="70">
+        <v>24</v>
+      </c>
+      <c r="J41" s="70">
+        <v>1</v>
+      </c>
+      <c r="K41" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="138"/>
+    </row>
+    <row r="42" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B42" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="149" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" s="70">
+        <v>24</v>
+      </c>
+      <c r="J42" s="70">
+        <v>1</v>
+      </c>
+      <c r="K42" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B43" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="149" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I43" s="70">
+        <v>24</v>
+      </c>
+      <c r="J43" s="70">
+        <v>1</v>
+      </c>
+      <c r="K43" s="140" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B44" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" s="70">
+        <v>24</v>
+      </c>
+      <c r="J44" s="70">
+        <v>1</v>
+      </c>
+      <c r="K44" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B45" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="88"/>
+      <c r="N45" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B46" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="88"/>
+      <c r="N46" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B47" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="142"/>
+      <c r="N47" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B48" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I48" s="70">
+        <v>24</v>
+      </c>
+      <c r="J48" s="70">
+        <v>2</v>
+      </c>
+      <c r="K48" s="140" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" s="142" t="s">
+        <v>323</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B49" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" s="70">
+        <v>24</v>
+      </c>
+      <c r="J49" s="70">
+        <v>1</v>
+      </c>
+      <c r="K49" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B50" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="78"/>
-    </row>
-    <row r="35" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B35" s="13" t="s">
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" s="70">
+        <v>24</v>
+      </c>
+      <c r="J50" s="70">
+        <v>1</v>
+      </c>
+      <c r="K50" s="140" t="s">
+        <v>324</v>
+      </c>
+      <c r="L50" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B51" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="88" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="70">
+        <v>24</v>
+      </c>
+      <c r="J51" s="70">
+        <v>1</v>
+      </c>
+      <c r="K51" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B52" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="70">
+        <v>24</v>
+      </c>
+      <c r="J52" s="70">
+        <v>1</v>
+      </c>
+      <c r="K52" s="140" t="s">
+        <v>263</v>
+      </c>
+      <c r="L52" s="142" t="s">
+        <v>328</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B53" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I53" s="70">
+        <v>24</v>
+      </c>
+      <c r="J53" s="70">
+        <v>1</v>
+      </c>
+      <c r="K53" s="140" t="s">
+        <v>330</v>
+      </c>
+      <c r="L53" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B54" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="70">
+        <v>24</v>
+      </c>
+      <c r="J54" s="70">
+        <v>1</v>
+      </c>
+      <c r="K54" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="L54" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B55" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="70">
+        <v>24</v>
+      </c>
+      <c r="J55" s="70">
+        <v>1</v>
+      </c>
+      <c r="K55" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="L55" s="142" t="s">
+        <v>337</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B56" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" s="70">
+        <v>24</v>
+      </c>
+      <c r="J56" s="70">
+        <v>1</v>
+      </c>
+      <c r="K56" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="142" t="s">
+        <v>339</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B57" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="90"/>
-    </row>
-    <row r="36" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B36" s="13" t="s">
+      <c r="C57" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="142"/>
+      <c r="N57" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B58" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C58" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="88" t="s">
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B59" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="90"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B37" s="13" t="s">
+      <c r="C59" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B60" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C60" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="90"/>
-    </row>
-    <row r="38" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B38" s="13" t="s">
+      <c r="D60" s="124"/>
+      <c r="E60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B61" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C61" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="90"/>
-    </row>
-    <row r="39" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="70">
+        <v>24</v>
+      </c>
+      <c r="J61" s="70">
+        <v>1</v>
+      </c>
+      <c r="K61" s="140" t="s">
+        <v>341</v>
+      </c>
+      <c r="L61" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B62" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="90"/>
-    </row>
-    <row r="40" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B40" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I62" s="70">
+        <v>24</v>
+      </c>
+      <c r="J62" s="70">
+        <v>1</v>
+      </c>
+      <c r="K62" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="L62" s="142" t="s">
+        <v>345</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B63" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="90"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B41" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63" s="70">
+        <v>24</v>
+      </c>
+      <c r="J63" s="70">
+        <v>1</v>
+      </c>
+      <c r="K63" s="140" t="s">
+        <v>347</v>
+      </c>
+      <c r="L63" s="142" t="s">
+        <v>348</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B64" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="151" t="s">
+        <v>350</v>
+      </c>
+      <c r="G64" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="91">
-        <v>43607</v>
-      </c>
-      <c r="I41" s="25">
+      <c r="H64" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="83">
         <v>24</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J64" s="83">
         <v>1</v>
       </c>
-      <c r="K41" s="26">
-        <v>4.5138888888888887E-4</v>
-      </c>
-      <c r="L41" s="92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B42" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="147" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="91">
-        <v>43607</v>
-      </c>
-      <c r="I42" s="25">
-        <v>24</v>
-      </c>
-      <c r="J42" s="25">
-        <v>1</v>
-      </c>
-      <c r="K42" s="26">
-        <v>2.4305555555555555E-4</v>
-      </c>
-      <c r="L42" s="92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="90"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="90"/>
-    </row>
-    <row r="45" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="90"/>
-    </row>
-    <row r="46" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B46" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="90"/>
-    </row>
-    <row r="47" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="90"/>
-    </row>
-    <row r="48" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B48" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="90"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="90"/>
-    </row>
-    <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="90"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B52" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="95"/>
-    </row>
-    <row r="53" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B53" s="96"/>
-      <c r="C53" s="78">
-        <f>COUNTA(C4:C52)</f>
-        <v>48</v>
-      </c>
-      <c r="D53" s="78">
-        <f>COUNTA(D4:D52)</f>
+      <c r="K64" s="152" t="s">
+        <v>351</v>
+      </c>
+      <c r="L64" s="153" t="s">
+        <v>352</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B65" s="154"/>
+      <c r="C65" s="19">
+        <f>COUNTA(C37:C64)</f>
+        <v>28</v>
+      </c>
+      <c r="D65" s="19">
+        <f>COUNTA(D37:D64)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="78">
-        <f>COUNTA(E4:E52)</f>
+      <c r="E65" s="19">
+        <f>COUNTA(E37:E64)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B54" s="96"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B55" s="96"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5" customHeight="1"/>
-    <row r="57" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-    </row>
-    <row r="59" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-    </row>
-    <row r="61" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-    </row>
-    <row r="63" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-    </row>
-    <row r="65" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="3:5" ht="13.5" customHeight="1">
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="2:13" ht="13.5" customHeight="1">
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
     </row>
-    <row r="67" spans="3:5" ht="13.5" customHeight="1">
+    <row r="67" spans="2:13" ht="13.5" customHeight="1">
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
     </row>
-    <row r="68" spans="3:5" ht="13.5" customHeight="1">
+    <row r="68" spans="2:13" ht="13.5" customHeight="1">
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
     </row>
-    <row r="69" spans="3:5" ht="13.5" customHeight="1">
+    <row r="69" spans="2:13" ht="13.5" customHeight="1">
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="3:5" ht="13.5" customHeight="1">
+    <row r="70" spans="2:13" ht="13.5" customHeight="1">
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38"/>
     </row>
-    <row r="71" spans="3:5" ht="13.5" customHeight="1">
+    <row r="71" spans="2:13" ht="13.5" customHeight="1">
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="3:5" ht="13.5" customHeight="1">
+    <row r="72" spans="2:13" ht="13.5" customHeight="1">
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="3:5" ht="13.5" customHeight="1">
+    <row r="73" spans="2:13" ht="13.5" customHeight="1">
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="3:5" ht="13.5" customHeight="1">
+    <row r="74" spans="2:13" ht="13.5" customHeight="1">
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="3:5" ht="13.5" customHeight="1">
+    <row r="75" spans="2:13" ht="13.5" customHeight="1">
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38"/>
     </row>
-    <row r="76" spans="3:5" ht="13.5" customHeight="1">
+    <row r="76" spans="2:13" ht="13.5" customHeight="1">
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
     </row>
-    <row r="77" spans="3:5" ht="13.5" customHeight="1">
+    <row r="77" spans="2:13" ht="13.5" customHeight="1">
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
     </row>
-    <row r="78" spans="3:5" ht="13.5" customHeight="1">
+    <row r="78" spans="2:13" ht="13.5" customHeight="1">
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38"/>
     </row>
-    <row r="79" spans="3:5" ht="13.5" customHeight="1">
+    <row r="79" spans="2:13" ht="13.5" customHeight="1">
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
     </row>
-    <row r="80" spans="3:5" ht="13.5" customHeight="1">
+    <row r="80" spans="2:13" ht="13.5" customHeight="1">
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -24330,22 +25003,8 @@
       <c r="E1030" s="38"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1"/>
-    <hyperlink ref="F35" r:id="rId2"/>
-    <hyperlink ref="F36" r:id="rId3"/>
-    <hyperlink ref="F40" r:id="rId4"/>
-    <hyperlink ref="F43" r:id="rId5"/>
-    <hyperlink ref="F44" r:id="rId6"/>
-    <hyperlink ref="F49" r:id="rId7"/>
-    <hyperlink ref="F50" r:id="rId8"/>
-    <hyperlink ref="F51" r:id="rId9"/>
-    <hyperlink ref="F52" r:id="rId10"/>
-    <hyperlink ref="B41" r:id="rId11"/>
-    <hyperlink ref="B42" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24374,7 +25033,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -24452,8 +25111,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -24463,15 +25122,15 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
       <c r="N4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -24479,14 +25138,14 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="L5" s="109"/>
+      <c r="L5" s="101"/>
       <c r="N5" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -24498,68 +25157,68 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="109"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="101"/>
       <c r="N6" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="109"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="101"/>
       <c r="N7" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
       <c r="N8" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="78"/>
       <c r="N9" s="27" t="s">
         <v>24</v>
@@ -24567,20 +25226,20 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="78"/>
       <c r="N10" s="27" t="s">
         <v>24</v>
@@ -24588,20 +25247,20 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="68"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="78"/>
       <c r="N11" s="27" t="s">
         <v>24</v>
@@ -24609,27 +25268,27 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
       <c r="N12" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -24637,21 +25296,21 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="126"/>
+        <v>159</v>
+      </c>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
       <c r="N13" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -24659,21 +25318,21 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="126"/>
+        <v>161</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="118"/>
       <c r="N14" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -24681,81 +25340,81 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="126"/>
+        <v>163</v>
+      </c>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="118"/>
       <c r="N15" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="123"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="126"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="118"/>
       <c r="N17" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="126"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="118"/>
       <c r="N18" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -24768,14 +25427,14 @@
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="126"/>
+      <c r="L19" s="118"/>
       <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -24787,15 +25446,15 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="126"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="118"/>
       <c r="N20" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -24808,36 +25467,36 @@
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="126"/>
+      <c r="L21" s="118"/>
       <c r="N21" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="130" t="s">
-        <v>190</v>
+      <c r="F22" s="122" t="s">
+        <v>171</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="126"/>
+      <c r="L22" s="118"/>
       <c r="N22" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -24850,14 +25509,14 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="126"/>
+      <c r="L23" s="118"/>
       <c r="N23" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -24870,14 +25529,14 @@
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="123"/>
+      <c r="L24" s="115"/>
       <c r="N24" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -24885,14 +25544,14 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="24"/>
-      <c r="L25" s="126"/>
+      <c r="L25" s="118"/>
       <c r="N25" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -24900,19 +25559,19 @@
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="107"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="78">
         <f t="shared" ref="C27:E27" si="0">COUNTA(C4:C26)</f>
         <v>1</v>
@@ -24935,7 +25594,7 @@
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="107"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -29811,7 +30470,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -29888,50 +30547,50 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="143"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="146"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="143"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="138" t="s">
-        <v>200</v>
+      <c r="B6" s="130" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="139" t="s">
+      <c r="F6" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="131" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="14">
@@ -29943,492 +30602,492 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="144" t="s">
-        <v>233</v>
+      <c r="K6" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="138" t="s">
-        <v>203</v>
+      <c r="B7" s="130" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="139" t="s">
+      <c r="F7" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="124">
         <v>16</v>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="124">
         <v>32</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="142" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" s="144" t="s">
-        <v>233</v>
+      <c r="K7" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="138" t="s">
-        <v>204</v>
+      <c r="B8" s="130" t="s">
+        <v>185</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="139" t="s">
+      <c r="F8" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="132">
+      <c r="H8" s="124">
         <v>16</v>
       </c>
-      <c r="I8" s="132">
+      <c r="I8" s="124">
         <v>32</v>
       </c>
-      <c r="J8" s="132">
+      <c r="J8" s="124">
         <v>1</v>
       </c>
-      <c r="K8" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="144" t="s">
-        <v>233</v>
+      <c r="K8" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
-        <v>205</v>
+      <c r="B9" s="130" t="s">
+        <v>186</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="139" t="s">
+      <c r="F9" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="124">
         <v>16</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="124">
         <v>32</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="124">
         <v>1</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="144" t="s">
-        <v>233</v>
+      <c r="K9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="138" t="s">
-        <v>207</v>
+      <c r="B10" s="130" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="139" t="s">
+      <c r="F10" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="124">
         <v>16</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="124">
         <v>32</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="124">
         <v>1</v>
       </c>
-      <c r="K10" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="144" t="s">
-        <v>235</v>
+      <c r="K10" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="138" t="s">
-        <v>209</v>
+      <c r="B11" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="139" t="s">
+      <c r="F11" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="124">
         <v>16</v>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="124">
         <v>32</v>
       </c>
-      <c r="J11" s="132">
+      <c r="J11" s="124">
         <v>1</v>
       </c>
-      <c r="K11" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="144" t="s">
-        <v>235</v>
+      <c r="K11" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="138" t="s">
-        <v>211</v>
+      <c r="B12" s="130" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="139" t="s">
+      <c r="F12" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="124">
         <v>16</v>
       </c>
-      <c r="I12" s="132">
+      <c r="I12" s="124">
         <v>32</v>
       </c>
-      <c r="J12" s="132">
+      <c r="J12" s="124">
         <v>1</v>
       </c>
-      <c r="K12" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" s="144" t="s">
-        <v>235</v>
+      <c r="K12" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
-        <v>213</v>
+      <c r="B13" s="130" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="139" t="s">
+      <c r="F13" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="124">
         <v>16</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="124">
         <v>32</v>
       </c>
-      <c r="J13" s="132">
+      <c r="J13" s="124">
         <v>1</v>
       </c>
-      <c r="K13" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="144" t="s">
-        <v>235</v>
+      <c r="K13" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="138" t="s">
-        <v>218</v>
+      <c r="B14" s="130" t="s">
+        <v>199</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="132">
+      <c r="H14" s="124">
         <v>16</v>
       </c>
-      <c r="I14" s="132">
+      <c r="I14" s="124">
         <v>32</v>
       </c>
-      <c r="J14" s="132">
+      <c r="J14" s="124">
         <v>1</v>
       </c>
-      <c r="K14" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="144" t="s">
-        <v>239</v>
+      <c r="K14" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="139" t="s">
+      <c r="F15" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="124">
         <v>16</v>
       </c>
-      <c r="I15" s="132">
+      <c r="I15" s="124">
         <v>32</v>
       </c>
-      <c r="J15" s="132">
+      <c r="J15" s="124">
         <v>1</v>
       </c>
-      <c r="K15" s="142" t="s">
+      <c r="K15" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="78"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B16" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="137"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="144" t="s">
-        <v>239</v>
-      </c>
-      <c r="M15" s="78"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="132">
+      <c r="H16" s="124">
         <v>16</v>
       </c>
-      <c r="I16" s="132">
+      <c r="I16" s="124">
         <v>32</v>
       </c>
-      <c r="J16" s="132">
+      <c r="J16" s="124">
         <v>1</v>
       </c>
-      <c r="K16" s="142" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="144" t="s">
-        <v>239</v>
+      <c r="K16" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="138" t="s">
-        <v>224</v>
+      <c r="B17" s="130" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="139" t="s">
+      <c r="F17" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="124">
         <v>16</v>
       </c>
-      <c r="I17" s="132">
+      <c r="I17" s="124">
         <v>32</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="124">
         <v>1</v>
       </c>
-      <c r="K17" s="142" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="144" t="s">
-        <v>239</v>
+      <c r="K17" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="138" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="132" t="s">
+      <c r="B18" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="139" t="s">
+      <c r="F18" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="132">
+      <c r="H18" s="124">
         <v>16</v>
       </c>
-      <c r="I18" s="132">
+      <c r="I18" s="124">
         <v>32</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="124">
         <v>1</v>
       </c>
-      <c r="K18" s="142" t="s">
-        <v>225</v>
-      </c>
-      <c r="L18" s="144" t="s">
-        <v>240</v>
+      <c r="K18" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M18" s="78"/>
-      <c r="N18" s="146"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="139" t="s">
+      <c r="F19" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="132">
+      <c r="H19" s="124">
         <v>16</v>
       </c>
-      <c r="I19" s="132">
+      <c r="I19" s="124">
         <v>32</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="124">
         <v>1</v>
       </c>
-      <c r="K19" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="144" t="s">
-        <v>240</v>
+      <c r="K19" s="134" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="138" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G20" s="139" t="s">
+      <c r="F20" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="132">
+      <c r="H20" s="124">
         <v>16</v>
       </c>
-      <c r="I20" s="132">
+      <c r="I20" s="124">
         <v>32</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="124">
         <v>1</v>
       </c>
-      <c r="K20" s="142" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="144" t="s">
-        <v>240</v>
+      <c r="K20" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
-        <v>231</v>
+      <c r="B21" s="130" t="s">
+        <v>212</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="139" t="s">
+      <c r="F21" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="124">
         <v>16</v>
       </c>
-      <c r="I21" s="132">
+      <c r="I21" s="124">
         <v>32</v>
       </c>
-      <c r="J21" s="132">
+      <c r="J21" s="124">
         <v>1</v>
       </c>
-      <c r="K21" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="144" t="s">
-        <v>240</v>
+      <c r="K21" s="134" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B22" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="127" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="80"/>
@@ -30438,8 +31097,8 @@
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="134"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -30451,7 +31110,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="148"/>
+      <c r="F24" s="139"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="38"/>
@@ -30469,7 +31128,7 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="F28" s="146"/>
+      <c r="F28" s="138"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Metadatos V" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2337,19 +2338,19 @@
     <row r="12" spans="2:8" ht="13.5" customHeight="1">
       <c r="B12" s="39"/>
       <c r="C12" s="50">
-        <f t="shared" ref="C12:F12" si="1">SUM(C6:C11)</f>
+        <f>SUM(C6:C11)</f>
         <v>45</v>
       </c>
       <c r="D12" s="50">
-        <f t="shared" si="1"/>
+        <f>SUM(D6:D11)</f>
         <v>25</v>
       </c>
       <c r="E12" s="50">
-        <f t="shared" si="1"/>
+        <f>SUM(E6:E11)</f>
         <v>35</v>
       </c>
       <c r="F12" s="50">
-        <f t="shared" si="1"/>
+        <f>SUM(F6:F11)</f>
         <v>105</v>
       </c>
       <c r="G12" s="39"/>
@@ -7362,15 +7363,15 @@
     <row r="21" spans="2:15" ht="13.5" customHeight="1">
       <c r="B21" s="78"/>
       <c r="C21" s="78">
-        <f t="shared" ref="C21:E21" si="0">COUNTA(C4:C20)</f>
+        <f>COUNTA(C4:C20)</f>
         <v>6</v>
       </c>
       <c r="D21" s="78">
-        <f t="shared" si="0"/>
+        <f>COUNTA(D4:D20)</f>
         <v>3</v>
       </c>
       <c r="E21" s="78">
-        <f t="shared" si="0"/>
+        <f>COUNTA(E4:E20)</f>
         <v>6</v>
       </c>
       <c r="F21" s="78"/>
@@ -13106,15 +13107,15 @@
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="107"/>
       <c r="C24" s="38">
-        <f t="shared" ref="C24:E24" si="0">COUNTA(C4:C23)</f>
+        <f>COUNTA(C4:C23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="38">
-        <f t="shared" si="0"/>
+        <f>COUNTA(D4:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="38">
-        <f t="shared" si="0"/>
+        <f>COUNTA(E4:E23)</f>
         <v>19</v>
       </c>
     </row>
@@ -24914,15 +24915,15 @@
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="107"/>
       <c r="C27" s="78">
-        <f t="shared" ref="C27:E27" si="0">COUNTA(C4:C26)</f>
+        <f>COUNTA(C4:C26)</f>
         <v>1</v>
       </c>
       <c r="D27" s="78">
-        <f t="shared" si="0"/>
+        <f>COUNTA(D4:D26)</f>
         <v>18</v>
       </c>
       <c r="E27" s="78">
-        <f t="shared" si="0"/>
+        <f>COUNTA(E4:E26)</f>
         <v>3</v>
       </c>
       <c r="F27" s="78"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -16,12 +16,11 @@
     <sheet name="Metadatos V" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="354">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -327,30 +326,6 @@
     <t>SFX/Personaje Pasos sobre madera/madera sonido1</t>
   </si>
   <si>
-    <t>SFX/Personaje Pasos sobre charcos/charcos sonido1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1HncIO7u79yDWSEncZ6YQimhC5DmsTnLc?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Personaje salto sobre tierra/tierra sonido2</t>
-  </si>
-  <si>
-    <t>SFX/Personaje salto sobre madera/madera sonido2</t>
-  </si>
-  <si>
-    <t>SFX/Objetos movimiento cofre/Monedas cofre</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1UjrUQTxURXPzDzt6KQagDcESypTXWszP</t>
-  </si>
-  <si>
-    <t>SFX/Objetos puente de madera/Crujido madera</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1BJ9a9ZPXXNCn9loucpdtFuvKIHQO-9_s</t>
-  </si>
-  <si>
     <t>SFX/Araña caminando/pasos araña</t>
   </si>
   <si>
@@ -360,28 +335,10 @@
     <t>SFX/Pollo Picotazo/picotazo pollo</t>
   </si>
   <si>
-    <t>SFX/Murcielago volando/aleteo murcielago</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1AKrs5e22aiVu0zhDcjx2qnKqBmiyc0OB?usp=sharing</t>
-  </si>
-  <si>
     <t>-13,355 db</t>
   </si>
   <si>
     <t>-15,637 db</t>
-  </si>
-  <si>
-    <t>SFX/Unicornio caminando/pasos unicornio</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1KLmTivq3HlUrOQeWa212SNwoZVmlrYjr?usp=sharing</t>
-  </si>
-  <si>
-    <t>SFX/Guardian caminando/pasos guardian</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1nKDqVm9-HC3haTolKrknxWczrRY8PfHU?usp=sharing</t>
   </si>
   <si>
     <t>SFX/Muerte  caminando/pasos muerte</t>
@@ -396,22 +353,7 @@
     <t>SFX/Rey Pollo Golpe ala/ataque rey pollo</t>
   </si>
   <si>
-    <t>SFX/Muerte Conjuro paralizante/disparo muerte1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1S1WjULfjxu7UCbfp0Uf56czcdPqwo5Ew?usp=sharing</t>
-  </si>
-  <si>
     <t>SFX/Muerte Guitarrazo demoledor/golpe muerte1</t>
-  </si>
-  <si>
-    <t>SFX/Muerte Ondas de guitarra/disparo muerte2</t>
-  </si>
-  <si>
-    <t>SFX/Muerte movimiento esqueleto/Sonido de esqueleto</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1iVrd08dV5V0_VEOl4DCO0r8Q2s4qBL8J</t>
   </si>
   <si>
     <t>-0,777dB</t>
@@ -953,16 +895,207 @@
   <si>
     <t>-23,622db</t>
   </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos1.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, normalizado</t>
+  </si>
+  <si>
+    <t>22.05</t>
+  </si>
+  <si>
+    <t>00:01:01</t>
+  </si>
+  <si>
+    <t>-14,393 db</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos2.wav</t>
+  </si>
+  <si>
+    <t>00:01:18</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos3.wav</t>
+  </si>
+  <si>
+    <t>00:01:21</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos4.wav</t>
+  </si>
+  <si>
+    <t>00:00:51</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos5.wav</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos6.wav</t>
+  </si>
+  <si>
+    <t>00:00:58</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Pasos sobre charcos/pasosCharcos7.wav</t>
+  </si>
+  <si>
+    <t>00:00:59</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre1.wav</t>
+  </si>
+  <si>
+    <t>00:01:80</t>
+  </si>
+  <si>
+    <t>-6,62 db</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre2.wav</t>
+  </si>
+  <si>
+    <t>00:01:29</t>
+  </si>
+  <si>
+    <t>SFX/Objetos movimiento cofre/MonedasCofre3.wav</t>
+  </si>
+  <si>
+    <t>00:00:74</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera1.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado en casa, aplicado eliminacion de ruido de fondo, con la frecuencia de muestreo modificada, normalizado</t>
+  </si>
+  <si>
+    <t>00:01:54</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera2.wav</t>
+  </si>
+  <si>
+    <t>00:02:77</t>
+  </si>
+  <si>
+    <t>SFX/Objetos puente de madera/CrujidoMadera3.wav</t>
+  </si>
+  <si>
+    <t>00:04:70</t>
+  </si>
+  <si>
+    <t>SFX/Murcielago volando/aleteoMurcielago.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, estereo a partir de dos canales mono, con la frecuencia de muestreo modificada</t>
+  </si>
+  <si>
+    <t>00:09:04</t>
+  </si>
+  <si>
+    <t>-3,962 db</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio1.wav</t>
+  </si>
+  <si>
+    <t>-9,703 db</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio2.wav</t>
+  </si>
+  <si>
+    <t>-9,17 db</t>
+  </si>
+  <si>
+    <t>SFX/Unicornio caminando/pasosUnicornio3.wav</t>
+  </si>
+  <si>
+    <t>00:00:64</t>
+  </si>
+  <si>
+    <t>-8,521 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian1.wav</t>
+  </si>
+  <si>
+    <t>00:00:34</t>
+  </si>
+  <si>
+    <t>-13,517 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian2.wav</t>
+  </si>
+  <si>
+    <t>00:00:44</t>
+  </si>
+  <si>
+    <t>-18,166 db</t>
+  </si>
+  <si>
+    <t>SFX/Guardian caminando/pasosGuardian3.wav</t>
+  </si>
+  <si>
+    <t>-12,726 db</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, este se usara junto a golpe de arma en el evento</t>
+  </si>
+  <si>
+    <t>00:04:64</t>
+  </si>
+  <si>
+    <t>-5,293 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte Conjuro paralizante/disparoMuerte1.wav</t>
+  </si>
+  <si>
+    <t>00:05:32</t>
+  </si>
+  <si>
+    <t>-2,27 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte Ondas de guitarra/disparoMuerte2.wav</t>
+  </si>
+  <si>
+    <t>00:05:14</t>
+  </si>
+  <si>
+    <t>-2,521 db</t>
+  </si>
+  <si>
+    <t>SFX/Muerte movimiento esqueleto/MovimientEsqueleto.wav</t>
+  </si>
+  <si>
+    <t>Audacity, Sonido grabado, con la frecuencia de muestreo modificada, cambio de tono (mas grave) e inversion</t>
+  </si>
+  <si>
+    <t>00:26:88</t>
+  </si>
+  <si>
+    <t>-16,556 db</t>
+  </si>
+  <si>
+    <t>00:01:50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -973,36 +1106,43 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1014,71 +1154,70 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1125,17 +1264,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1413,12 +1545,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1653,31 +1785,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1710,7 +1818,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,19 +1828,19 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1758,7 +1866,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1781,70 +1889,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2338,19 +2453,19 @@
     <row r="12" spans="2:8" ht="13.5" customHeight="1">
       <c r="B12" s="39"/>
       <c r="C12" s="50">
-        <f>SUM(C6:C11)</f>
+        <f t="shared" ref="C12:F12" si="1">SUM(C6:C11)</f>
         <v>45</v>
       </c>
       <c r="D12" s="50">
-        <f>SUM(D6:D11)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E12" s="50">
-        <f>SUM(E6:E11)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="F12" s="50">
-        <f>SUM(F6:F11)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="G12" s="39"/>
@@ -3466,8 +3581,8 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -6860,8 +6975,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -7363,15 +7478,15 @@
     <row r="21" spans="2:15" ht="13.5" customHeight="1">
       <c r="B21" s="78"/>
       <c r="C21" s="78">
-        <f>COUNTA(C4:C20)</f>
+        <f t="shared" ref="C21:E21" si="0">COUNTA(C4:C20)</f>
         <v>6</v>
       </c>
       <c r="D21" s="78">
-        <f>COUNTA(D4:D20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E21" s="78">
-        <f>COUNTA(E4:E20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F21" s="78"/>
@@ -12441,8 +12556,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -12482,11 +12597,11 @@
       <c r="J5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="97">
+      <c r="K5" s="89">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="L5" s="98" t="s">
-        <v>129</v>
+      <c r="L5" s="90" t="s">
+        <v>110</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>93</v>
@@ -12494,7 +12609,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -12516,11 +12631,11 @@
       <c r="J6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="97">
+      <c r="K6" s="89">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L6" s="98" t="s">
-        <v>131</v>
+      <c r="L6" s="90" t="s">
+        <v>112</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>93</v>
@@ -12528,7 +12643,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -12550,11 +12665,11 @@
       <c r="J7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="89">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L7" s="98" t="s">
-        <v>133</v>
+      <c r="L7" s="90" t="s">
+        <v>114</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>93</v>
@@ -12562,7 +12677,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12584,11 +12699,11 @@
       <c r="J8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="89">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="98" t="s">
-        <v>135</v>
+      <c r="L8" s="90" t="s">
+        <v>116</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>93</v>
@@ -12596,7 +12711,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12618,11 +12733,11 @@
       <c r="J9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="89">
         <v>3.9675925925925927E-2</v>
       </c>
-      <c r="L9" s="99" t="s">
-        <v>137</v>
+      <c r="L9" s="91" t="s">
+        <v>118</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>93</v>
@@ -12630,7 +12745,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -12652,11 +12767,11 @@
       <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="97">
+      <c r="K10" s="89">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="L10" s="99" t="s">
-        <v>139</v>
+      <c r="L10" s="91" t="s">
+        <v>120</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>93</v>
@@ -12664,7 +12779,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -12690,7 +12805,7 @@
         <v>8.0439814814814818E-3</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>93</v>
@@ -12698,7 +12813,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12723,8 +12838,8 @@
       <c r="K12" s="66">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="L12" s="99" t="s">
-        <v>143</v>
+      <c r="L12" s="91" t="s">
+        <v>124</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>93</v>
@@ -12732,7 +12847,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12754,11 +12869,11 @@
       <c r="J13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="89">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="L13" s="99" t="s">
-        <v>145</v>
+      <c r="L13" s="91" t="s">
+        <v>126</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>93</v>
@@ -12766,7 +12881,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12788,11 +12903,11 @@
       <c r="J14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="92">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="L14" s="98" t="s">
-        <v>147</v>
+      <c r="L14" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>93</v>
@@ -12800,7 +12915,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -12822,19 +12937,19 @@
       <c r="J15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="100">
+      <c r="K15" s="92">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="L15" s="98" t="s">
-        <v>149</v>
+      <c r="L15" s="90" t="s">
+        <v>130</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -12859,16 +12974,16 @@
       <c r="K16" s="66">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="L16" s="98" t="s">
-        <v>152</v>
+      <c r="L16" s="90" t="s">
+        <v>133</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -12893,16 +13008,16 @@
       <c r="K17" s="66">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L17" s="99" t="s">
-        <v>154</v>
+      <c r="L17" s="91" t="s">
+        <v>135</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -12927,16 +13042,16 @@
       <c r="K18" s="66">
         <v>7.5231481481481482E-4</v>
       </c>
-      <c r="L18" s="99" t="s">
-        <v>156</v>
+      <c r="L18" s="91" t="s">
+        <v>137</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -12958,19 +13073,19 @@
       <c r="J19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="100">
+      <c r="K19" s="92">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="L19" s="99" t="s">
-        <v>158</v>
+      <c r="L19" s="91" t="s">
+        <v>139</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12992,11 +13107,11 @@
       <c r="J20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="101">
+      <c r="K20" s="93">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L20" s="99" t="s">
-        <v>160</v>
+      <c r="L20" s="91" t="s">
+        <v>141</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>93</v>
@@ -13004,7 +13119,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -13029,8 +13144,8 @@
       <c r="K21" s="66">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L21" s="99" t="s">
-        <v>160</v>
+      <c r="L21" s="91" t="s">
+        <v>141</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>93</v>
@@ -13038,7 +13153,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -13060,79 +13175,79 @@
       <c r="J22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="101">
+      <c r="K22" s="93">
         <v>5.5439814814814813E-3</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="30" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="96">
         <v>16</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="96">
         <v>32</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="105">
+      <c r="K23" s="97">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="L23" s="106" t="s">
-        <v>165</v>
+      <c r="L23" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="107"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="38">
-        <f>COUNTA(C4:C23)</f>
+        <f t="shared" ref="C24:E24" si="0">COUNTA(C4:C23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="38">
-        <f>COUNTA(D4:D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="38">
-        <f>COUNTA(E4:E23)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="107"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="107"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="107"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -18007,8 +18122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18105,8 +18220,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -18126,31 +18241,31 @@
       <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
-      <c r="F5" s="116" t="s">
-        <v>214</v>
+      <c r="F5" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="146">
         <v>22.05</v>
       </c>
       <c r="I5" s="70">
         <v>24</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="150" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="152" t="s">
-        <v>246</v>
+      <c r="J5" s="70">
+        <v>1</v>
+      </c>
+      <c r="K5" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" s="143" t="s">
+        <v>227</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>93</v>
@@ -18158,65 +18273,65 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
-      <c r="F6" s="116" t="s">
-        <v>214</v>
+      <c r="F6" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H6" s="146">
         <v>22.05</v>
       </c>
       <c r="I6" s="70">
         <v>24</v>
       </c>
-      <c r="J6" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="89">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="L6" s="154" t="s">
-        <v>247</v>
+      <c r="J6" s="70">
+        <v>1</v>
+      </c>
+      <c r="K6" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="145" t="s">
+        <v>228</v>
       </c>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
-      <c r="F7" s="116" t="s">
-        <v>214</v>
+      <c r="F7" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="155">
+      <c r="H7" s="146">
         <v>22.05</v>
       </c>
       <c r="I7" s="70">
         <v>24</v>
       </c>
-      <c r="J7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="154" t="s">
-        <v>249</v>
+      <c r="J7" s="70">
+        <v>1</v>
+      </c>
+      <c r="K7" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="145" t="s">
+        <v>230</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>93</v>
@@ -18224,99 +18339,99 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="116" t="s">
-        <v>214</v>
+      <c r="F8" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="146">
         <v>22.05</v>
       </c>
       <c r="I8" s="70">
         <v>24</v>
       </c>
-      <c r="J8" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="150" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="154" t="s">
-        <v>251</v>
+      <c r="J8" s="70">
+        <v>1</v>
+      </c>
+      <c r="K8" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="145" t="s">
+        <v>232</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="147" t="s">
-        <v>214</v>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="155">
+      <c r="H9" s="146">
         <v>22.05</v>
       </c>
       <c r="I9" s="70">
         <v>24</v>
       </c>
-      <c r="J9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="150" t="s">
-        <v>253</v>
-      </c>
-      <c r="L9" s="154" t="s">
-        <v>254</v>
+      <c r="J9" s="70">
+        <v>1</v>
+      </c>
+      <c r="K9" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="145" t="s">
+        <v>235</v>
       </c>
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="116" t="s">
-        <v>214</v>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="155">
+      <c r="H10" s="146">
         <v>22.05</v>
       </c>
       <c r="I10" s="70">
         <v>24</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="150" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="154" t="s">
-        <v>256</v>
+      <c r="J10" s="70">
+        <v>1</v>
+      </c>
+      <c r="K10" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" s="145" t="s">
+        <v>237</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>93</v>
@@ -18326,99 +18441,99 @@
       <c r="B11" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="116" t="s">
-        <v>214</v>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="155">
+      <c r="H11" s="146">
         <v>22.05</v>
       </c>
       <c r="I11" s="70">
         <v>24</v>
       </c>
-      <c r="J11" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="154" t="s">
-        <v>262</v>
+      <c r="J11" s="70">
+        <v>1</v>
+      </c>
+      <c r="K11" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="145" t="s">
+        <v>243</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="116" t="s">
-        <v>214</v>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="155">
+      <c r="H12" s="146">
         <v>22.05</v>
       </c>
       <c r="I12" s="70">
         <v>24</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="154" t="s">
-        <v>264</v>
+      <c r="J12" s="70">
+        <v>1</v>
+      </c>
+      <c r="K12" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="145" t="s">
+        <v>245</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="116" t="s">
-        <v>214</v>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="146">
         <v>22.05</v>
       </c>
       <c r="I13" s="70">
         <v>24</v>
       </c>
-      <c r="J13" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="150" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="154" t="s">
-        <v>266</v>
+      <c r="J13" s="70">
+        <v>1</v>
+      </c>
+      <c r="K13" s="141" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="145" t="s">
+        <v>247</v>
       </c>
       <c r="M13" s="78"/>
       <c r="N13" s="27" t="s">
@@ -18426,34 +18541,34 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="116" t="s">
-        <v>214</v>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="146">
         <v>22.05</v>
       </c>
       <c r="I14" s="70">
         <v>24</v>
       </c>
-      <c r="J14" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="17">
-        <v>7.4884259259259262E-3</v>
-      </c>
-      <c r="L14" s="154" t="s">
-        <v>267</v>
+      <c r="J14" s="70">
+        <v>1</v>
+      </c>
+      <c r="K14" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="145" t="s">
+        <v>248</v>
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="27" t="s">
@@ -18461,102 +18576,102 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="116" t="s">
-        <v>214</v>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="155">
+      <c r="H15" s="146">
         <v>22.05</v>
       </c>
       <c r="I15" s="70">
         <v>24</v>
       </c>
-      <c r="J15" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="157" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="154" t="s">
-        <v>269</v>
+      <c r="J15" s="70">
+        <v>1</v>
+      </c>
+      <c r="K15" s="148" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="145" t="s">
+        <v>250</v>
       </c>
       <c r="N15" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="136" t="s">
-        <v>270</v>
+      <c r="B16" s="128" t="s">
+        <v>251</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="116" t="s">
-        <v>214</v>
+      <c r="F16" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G16" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="155">
+      <c r="H16" s="146">
         <v>22.05</v>
       </c>
       <c r="I16" s="70">
         <v>24</v>
       </c>
-      <c r="J16" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="157" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="154" t="s">
-        <v>273</v>
+      <c r="J16" s="70">
+        <v>1</v>
+      </c>
+      <c r="K16" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="145" t="s">
+        <v>254</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="136" t="s">
-        <v>271</v>
+      <c r="B17" s="128" t="s">
+        <v>252</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="116" t="s">
-        <v>214</v>
+      <c r="F17" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G17" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="155">
+      <c r="H17" s="146">
         <v>22.05</v>
       </c>
       <c r="I17" s="70">
         <v>24</v>
       </c>
-      <c r="J17" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="157" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" s="154" t="s">
-        <v>275</v>
+      <c r="J17" s="70">
+        <v>1</v>
+      </c>
+      <c r="K17" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="145" t="s">
+        <v>256</v>
       </c>
       <c r="N17" s="27" t="s">
         <v>93</v>
@@ -18566,231 +18681,231 @@
       <c r="B18" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="116" t="s">
-        <v>214</v>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G18" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="146">
         <v>22.05</v>
       </c>
       <c r="I18" s="70">
         <v>24</v>
       </c>
-      <c r="J18" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="157" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="154" t="s">
-        <v>283</v>
+      <c r="J18" s="70">
+        <v>1</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="145" t="s">
+        <v>264</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="136" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="116" t="s">
-        <v>214</v>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="155">
+      <c r="H19" s="146">
         <v>22.05</v>
       </c>
       <c r="I19" s="70">
         <v>24</v>
       </c>
-      <c r="J19" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="154" t="s">
-        <v>285</v>
+      <c r="J19" s="70">
+        <v>1</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="145" t="s">
+        <v>266</v>
       </c>
       <c r="N19" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="116" t="s">
-        <v>214</v>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H20" s="146">
         <v>22.05</v>
       </c>
       <c r="I20" s="70">
         <v>24</v>
       </c>
-      <c r="J20" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="157" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="154" t="s">
-        <v>287</v>
+      <c r="J20" s="70">
+        <v>1</v>
+      </c>
+      <c r="K20" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="145" t="s">
+        <v>268</v>
       </c>
       <c r="N20" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="136" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="132" t="s">
+      <c r="B21" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="116" t="s">
-        <v>214</v>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G21" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="155">
+      <c r="H21" s="146">
         <v>22.05</v>
       </c>
       <c r="I21" s="70">
         <v>24</v>
       </c>
-      <c r="J21" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="157" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="154" t="s">
-        <v>289</v>
+      <c r="J21" s="70">
+        <v>1</v>
+      </c>
+      <c r="K21" s="148" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="145" t="s">
+        <v>270</v>
       </c>
       <c r="N21" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="136" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" s="132" t="s">
+      <c r="B22" s="128" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="116" t="s">
-        <v>214</v>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="155">
+      <c r="H22" s="146">
         <v>22.05</v>
       </c>
       <c r="I22" s="70">
         <v>24</v>
       </c>
-      <c r="J22" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="157" t="s">
-        <v>290</v>
-      </c>
-      <c r="L22" s="154" t="s">
-        <v>291</v>
+      <c r="J22" s="70">
+        <v>1</v>
+      </c>
+      <c r="K22" s="148" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="145" t="s">
+        <v>272</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="116" t="s">
-        <v>214</v>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="155">
+      <c r="H23" s="146">
         <v>22.05</v>
       </c>
       <c r="I23" s="70">
         <v>24</v>
       </c>
-      <c r="J23" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="157" t="s">
-        <v>292</v>
-      </c>
-      <c r="L23" s="154" t="s">
-        <v>293</v>
+      <c r="J23" s="70">
+        <v>1</v>
+      </c>
+      <c r="K23" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="145" t="s">
+        <v>274</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="136" t="s">
-        <v>281</v>
+      <c r="B24" s="128" t="s">
+        <v>262</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="116" t="s">
-        <v>214</v>
+      <c r="F24" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="155">
+      <c r="H24" s="146">
         <v>22.05</v>
       </c>
       <c r="I24" s="70">
         <v>24</v>
       </c>
-      <c r="J24" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="157" t="s">
-        <v>294</v>
-      </c>
-      <c r="L24" s="154" t="s">
-        <v>295</v>
+      <c r="J24" s="70">
+        <v>1</v>
+      </c>
+      <c r="K24" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="L24" s="145" t="s">
+        <v>276</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>93</v>
@@ -18805,13 +18920,13 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="64"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="153"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="144"/>
       <c r="N25" s="27" t="s">
         <v>93</v>
       </c>
@@ -18825,13 +18940,13 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="64"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="153"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="144"/>
       <c r="N26" s="27" t="s">
         <v>93</v>
       </c>
@@ -18840,31 +18955,31 @@
       <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="116" t="s">
-        <v>214</v>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G27" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="155">
+      <c r="H27" s="146">
         <v>22.05</v>
       </c>
       <c r="I27" s="70">
         <v>24</v>
       </c>
-      <c r="J27" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="157" t="s">
-        <v>300</v>
-      </c>
-      <c r="L27" s="154" t="s">
-        <v>301</v>
+      <c r="J27" s="70">
+        <v>1</v>
+      </c>
+      <c r="K27" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27" s="145" t="s">
+        <v>282</v>
       </c>
       <c r="M27" s="78"/>
       <c r="N27" s="27" t="s">
@@ -18872,34 +18987,34 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="136" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="132" t="s">
+      <c r="B28" s="128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="116" t="s">
-        <v>214</v>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="155">
+      <c r="H28" s="146">
         <v>22.05</v>
       </c>
       <c r="I28" s="70">
         <v>24</v>
       </c>
-      <c r="J28" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="157" t="s">
-        <v>302</v>
-      </c>
-      <c r="L28" s="154" t="s">
-        <v>303</v>
+      <c r="J28" s="70">
+        <v>1</v>
+      </c>
+      <c r="K28" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="145" t="s">
+        <v>284</v>
       </c>
       <c r="M28" s="78"/>
       <c r="N28" s="27" t="s">
@@ -18907,34 +19022,34 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="136" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="132" t="s">
+      <c r="B29" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="116" t="s">
-        <v>214</v>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="155">
+      <c r="H29" s="146">
         <v>22.05</v>
       </c>
       <c r="I29" s="70">
         <v>24</v>
       </c>
-      <c r="J29" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="L29" s="154" t="s">
-        <v>304</v>
+      <c r="J29" s="70">
+        <v>1</v>
+      </c>
+      <c r="K29" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" s="145" t="s">
+        <v>285</v>
       </c>
       <c r="M29" s="78"/>
       <c r="N29" s="27" t="s">
@@ -18942,34 +19057,34 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="136" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" s="132" t="s">
+      <c r="B30" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="116" t="s">
-        <v>214</v>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G30" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="155">
+      <c r="H30" s="146">
         <v>22.05</v>
       </c>
       <c r="I30" s="70">
         <v>24</v>
       </c>
-      <c r="J30" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="157" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" s="154" t="s">
-        <v>306</v>
+      <c r="J30" s="70">
+        <v>1</v>
+      </c>
+      <c r="K30" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" s="145" t="s">
+        <v>287</v>
       </c>
       <c r="M30" s="78"/>
       <c r="N30" s="27" t="s">
@@ -18977,34 +19092,34 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="136" t="s">
-        <v>299</v>
+      <c r="B31" s="128" t="s">
+        <v>280</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="116" t="s">
-        <v>214</v>
+      <c r="F31" s="138" t="s">
+        <v>195</v>
       </c>
       <c r="G31" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="155">
+      <c r="H31" s="146">
         <v>22.05</v>
       </c>
       <c r="I31" s="70">
         <v>24</v>
       </c>
-      <c r="J31" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="157" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="154" t="s">
-        <v>308</v>
+      <c r="J31" s="70">
+        <v>1</v>
+      </c>
+      <c r="K31" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="145" t="s">
+        <v>289</v>
       </c>
       <c r="M31" s="78"/>
       <c r="N31" s="27" t="s">
@@ -19012,570 +19127,1127 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="78"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="70">
+        <v>24</v>
+      </c>
+      <c r="J32" s="70">
+        <v>1</v>
+      </c>
+      <c r="K32" s="140" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" s="19"/>
       <c r="N32" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B33" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="59" t="s">
+    <row r="33" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B33" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="78"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I33" s="70">
+        <v>24</v>
+      </c>
+      <c r="J33" s="70">
+        <v>1</v>
+      </c>
+      <c r="K33" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" s="19"/>
       <c r="N33" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B34" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" s="70">
+        <v>24</v>
+      </c>
+      <c r="J34" s="70">
+        <v>1</v>
+      </c>
+      <c r="K34" s="140" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B35" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" s="70">
+        <v>24</v>
+      </c>
+      <c r="J35" s="70">
+        <v>1</v>
+      </c>
+      <c r="K35" s="140" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B36" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="70">
+        <v>24</v>
+      </c>
+      <c r="J36" s="70">
+        <v>1</v>
+      </c>
+      <c r="K36" s="140" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B37" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I37" s="70">
+        <v>24</v>
+      </c>
+      <c r="J37" s="70">
+        <v>1</v>
+      </c>
+      <c r="K37" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B38" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I38" s="70">
+        <v>24</v>
+      </c>
+      <c r="J38" s="70">
+        <v>1</v>
+      </c>
+      <c r="K38" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B39" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I39" s="70">
+        <v>24</v>
+      </c>
+      <c r="J39" s="70">
+        <v>1</v>
+      </c>
+      <c r="K39" s="140" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B40" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I40" s="70">
+        <v>24</v>
+      </c>
+      <c r="J40" s="70">
+        <v>1</v>
+      </c>
+      <c r="K40" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B41" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="70">
+        <v>24</v>
+      </c>
+      <c r="J41" s="70">
+        <v>1</v>
+      </c>
+      <c r="K41" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="138"/>
+    </row>
+    <row r="42" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B42" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="149" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" s="70">
+        <v>24</v>
+      </c>
+      <c r="J42" s="70">
+        <v>1</v>
+      </c>
+      <c r="K42" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B43" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="149" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I43" s="70">
+        <v>24</v>
+      </c>
+      <c r="J43" s="70">
+        <v>1</v>
+      </c>
+      <c r="K43" s="140" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B44" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" s="70">
+        <v>24</v>
+      </c>
+      <c r="J44" s="70">
+        <v>1</v>
+      </c>
+      <c r="K44" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B45" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="88"/>
+      <c r="N45" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B46" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="88"/>
+      <c r="N46" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B47" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="142"/>
+      <c r="N47" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B48" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I48" s="70">
+        <v>24</v>
+      </c>
+      <c r="J48" s="70">
+        <v>2</v>
+      </c>
+      <c r="K48" s="140" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" s="142" t="s">
+        <v>323</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B49" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" s="70">
+        <v>24</v>
+      </c>
+      <c r="J49" s="70">
+        <v>1</v>
+      </c>
+      <c r="K49" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B50" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="78"/>
-    </row>
-    <row r="35" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B35" s="13" t="s">
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" s="70">
+        <v>24</v>
+      </c>
+      <c r="J50" s="70">
+        <v>1</v>
+      </c>
+      <c r="K50" s="140" t="s">
+        <v>324</v>
+      </c>
+      <c r="L50" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B51" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="88" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="70">
+        <v>24</v>
+      </c>
+      <c r="J51" s="70">
+        <v>1</v>
+      </c>
+      <c r="K51" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B52" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="70">
+        <v>24</v>
+      </c>
+      <c r="J52" s="70">
+        <v>1</v>
+      </c>
+      <c r="K52" s="140" t="s">
+        <v>263</v>
+      </c>
+      <c r="L52" s="142" t="s">
+        <v>328</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B53" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I53" s="70">
+        <v>24</v>
+      </c>
+      <c r="J53" s="70">
+        <v>1</v>
+      </c>
+      <c r="K53" s="140" t="s">
+        <v>330</v>
+      </c>
+      <c r="L53" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B54" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="70">
+        <v>24</v>
+      </c>
+      <c r="J54" s="70">
+        <v>1</v>
+      </c>
+      <c r="K54" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="L54" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B55" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="70">
+        <v>24</v>
+      </c>
+      <c r="J55" s="70">
+        <v>1</v>
+      </c>
+      <c r="K55" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="L55" s="142" t="s">
+        <v>337</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B56" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" s="70">
+        <v>24</v>
+      </c>
+      <c r="J56" s="70">
+        <v>1</v>
+      </c>
+      <c r="K56" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="142" t="s">
+        <v>339</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B57" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="90"/>
-    </row>
-    <row r="36" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B36" s="13" t="s">
+      <c r="C57" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="142"/>
+      <c r="N57" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B58" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C58" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="88" t="s">
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B59" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="90"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B37" s="13" t="s">
+      <c r="C59" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B60" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C60" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="90"/>
-    </row>
-    <row r="38" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B38" s="13" t="s">
+      <c r="D60" s="124"/>
+      <c r="E60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B61" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C61" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="90"/>
-    </row>
-    <row r="39" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="70">
+        <v>24</v>
+      </c>
+      <c r="J61" s="70">
+        <v>1</v>
+      </c>
+      <c r="K61" s="140" t="s">
+        <v>341</v>
+      </c>
+      <c r="L61" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B62" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="90"/>
-    </row>
-    <row r="40" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B40" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I62" s="70">
+        <v>24</v>
+      </c>
+      <c r="J62" s="70">
+        <v>1</v>
+      </c>
+      <c r="K62" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="L62" s="142" t="s">
+        <v>345</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B63" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="90"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B41" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63" s="70">
+        <v>24</v>
+      </c>
+      <c r="J63" s="70">
+        <v>1</v>
+      </c>
+      <c r="K63" s="140" t="s">
+        <v>347</v>
+      </c>
+      <c r="L63" s="142" t="s">
+        <v>348</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B64" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="151" t="s">
+        <v>350</v>
+      </c>
+      <c r="G64" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="91">
-        <v>43607</v>
-      </c>
-      <c r="I41" s="25">
+      <c r="H64" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="83">
         <v>24</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J64" s="83">
         <v>1</v>
       </c>
-      <c r="K41" s="26">
-        <v>4.5138888888888887E-4</v>
-      </c>
-      <c r="L41" s="92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B42" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="147" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="91">
-        <v>43607</v>
-      </c>
-      <c r="I42" s="25">
-        <v>24</v>
-      </c>
-      <c r="J42" s="25">
-        <v>1</v>
-      </c>
-      <c r="K42" s="26">
-        <v>2.4305555555555555E-4</v>
-      </c>
-      <c r="L42" s="92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="90"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="90"/>
-    </row>
-    <row r="45" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="90"/>
-    </row>
-    <row r="46" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B46" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="90"/>
-    </row>
-    <row r="47" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="90"/>
-    </row>
-    <row r="48" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B48" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="90"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="90"/>
-    </row>
-    <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="90"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B52" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="95"/>
-    </row>
-    <row r="53" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B53" s="96"/>
-      <c r="C53" s="78">
-        <f>COUNTA(C4:C52)</f>
-        <v>48</v>
-      </c>
-      <c r="D53" s="78">
-        <f>COUNTA(D4:D52)</f>
+      <c r="K64" s="152" t="s">
+        <v>351</v>
+      </c>
+      <c r="L64" s="153" t="s">
+        <v>352</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B65" s="154"/>
+      <c r="C65" s="19">
+        <f>COUNTA(C37:C64)</f>
+        <v>28</v>
+      </c>
+      <c r="D65" s="19">
+        <f>COUNTA(D37:D64)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="78">
-        <f>COUNTA(E4:E52)</f>
+      <c r="E65" s="19">
+        <f>COUNTA(E37:E64)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B54" s="96"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B55" s="96"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5" customHeight="1"/>
-    <row r="57" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-    </row>
-    <row r="59" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-    </row>
-    <row r="61" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-    </row>
-    <row r="63" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.5" customHeight="1">
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-    </row>
-    <row r="65" spans="3:5" ht="13.5" customHeight="1">
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="3:5" ht="13.5" customHeight="1">
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="2:13" ht="13.5" customHeight="1">
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
     </row>
-    <row r="67" spans="3:5" ht="13.5" customHeight="1">
+    <row r="67" spans="2:13" ht="13.5" customHeight="1">
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
     </row>
-    <row r="68" spans="3:5" ht="13.5" customHeight="1">
+    <row r="68" spans="2:13" ht="13.5" customHeight="1">
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
     </row>
-    <row r="69" spans="3:5" ht="13.5" customHeight="1">
+    <row r="69" spans="2:13" ht="13.5" customHeight="1">
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="3:5" ht="13.5" customHeight="1">
+    <row r="70" spans="2:13" ht="13.5" customHeight="1">
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38"/>
     </row>
-    <row r="71" spans="3:5" ht="13.5" customHeight="1">
+    <row r="71" spans="2:13" ht="13.5" customHeight="1">
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="3:5" ht="13.5" customHeight="1">
+    <row r="72" spans="2:13" ht="13.5" customHeight="1">
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="3:5" ht="13.5" customHeight="1">
+    <row r="73" spans="2:13" ht="13.5" customHeight="1">
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="3:5" ht="13.5" customHeight="1">
+    <row r="74" spans="2:13" ht="13.5" customHeight="1">
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="3:5" ht="13.5" customHeight="1">
+    <row r="75" spans="2:13" ht="13.5" customHeight="1">
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38"/>
     </row>
-    <row r="76" spans="3:5" ht="13.5" customHeight="1">
+    <row r="76" spans="2:13" ht="13.5" customHeight="1">
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
     </row>
-    <row r="77" spans="3:5" ht="13.5" customHeight="1">
+    <row r="77" spans="2:13" ht="13.5" customHeight="1">
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
     </row>
-    <row r="78" spans="3:5" ht="13.5" customHeight="1">
+    <row r="78" spans="2:13" ht="13.5" customHeight="1">
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38"/>
     </row>
-    <row r="79" spans="3:5" ht="13.5" customHeight="1">
+    <row r="79" spans="2:13" ht="13.5" customHeight="1">
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
     </row>
-    <row r="80" spans="3:5" ht="13.5" customHeight="1">
+    <row r="80" spans="2:13" ht="13.5" customHeight="1">
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -24331,22 +25003,8 @@
       <c r="E1030" s="38"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1"/>
-    <hyperlink ref="F35" r:id="rId2"/>
-    <hyperlink ref="F36" r:id="rId3"/>
-    <hyperlink ref="F40" r:id="rId4"/>
-    <hyperlink ref="F43" r:id="rId5"/>
-    <hyperlink ref="F44" r:id="rId6"/>
-    <hyperlink ref="F49" r:id="rId7"/>
-    <hyperlink ref="F50" r:id="rId8"/>
-    <hyperlink ref="F51" r:id="rId9"/>
-    <hyperlink ref="F52" r:id="rId10"/>
-    <hyperlink ref="B41" r:id="rId11"/>
-    <hyperlink ref="B42" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24375,7 +25033,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -24453,8 +25111,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -24464,15 +25122,15 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
       <c r="N4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
@@ -24480,14 +25138,14 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="L5" s="109"/>
+      <c r="L5" s="101"/>
       <c r="N5" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
@@ -24499,68 +25157,68 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="109"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="101"/>
       <c r="N6" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="109"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="101"/>
       <c r="N7" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
       <c r="N8" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="78"/>
       <c r="N9" s="27" t="s">
         <v>24</v>
@@ -24568,20 +25226,20 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="78"/>
       <c r="N10" s="27" t="s">
         <v>24</v>
@@ -24589,20 +25247,20 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="68"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="78"/>
       <c r="N11" s="27" t="s">
         <v>24</v>
@@ -24610,27 +25268,27 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
       <c r="N12" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="59"/>
@@ -24638,21 +25296,21 @@
         <v>12</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="126"/>
+        <v>159</v>
+      </c>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
       <c r="N13" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="59"/>
@@ -24660,21 +25318,21 @@
         <v>12</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="126"/>
+        <v>161</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="118"/>
       <c r="N14" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="59"/>
@@ -24682,81 +25340,81 @@
         <v>12</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="126"/>
+        <v>163</v>
+      </c>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="118"/>
       <c r="N15" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="29" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="123"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="126"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="118"/>
       <c r="N17" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="29" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="126"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="118"/>
       <c r="N18" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
@@ -24769,14 +25427,14 @@
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="126"/>
+      <c r="L19" s="118"/>
       <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -24788,15 +25446,15 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="126"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="118"/>
       <c r="N20" s="27" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
@@ -24809,36 +25467,36 @@
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="126"/>
+      <c r="L21" s="118"/>
       <c r="N21" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="130" t="s">
-        <v>190</v>
+      <c r="F22" s="122" t="s">
+        <v>171</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="126"/>
+      <c r="L22" s="118"/>
       <c r="N22" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
@@ -24851,14 +25509,14 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="126"/>
+      <c r="L23" s="118"/>
       <c r="N23" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
@@ -24871,14 +25529,14 @@
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="123"/>
+      <c r="L24" s="115"/>
       <c r="N24" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
@@ -24886,14 +25544,14 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="24"/>
-      <c r="L25" s="126"/>
+      <c r="L25" s="118"/>
       <c r="N25" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="83" t="s">
@@ -24901,29 +25559,29 @@
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="107"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="78">
-        <f>COUNTA(C4:C26)</f>
+        <f t="shared" ref="C27:E27" si="0">COUNTA(C4:C26)</f>
         <v>1</v>
       </c>
       <c r="D27" s="78">
-        <f>COUNTA(D4:D26)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E27" s="78">
-        <f>COUNTA(E4:E26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F27" s="78"/>
@@ -24936,7 +25594,7 @@
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="107"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -29812,7 +30470,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -29889,50 +30547,50 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="137" t="s">
-        <v>196</v>
+      <c r="B4" s="129" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="143"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="146"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="143"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="138" t="s">
-        <v>200</v>
+      <c r="B6" s="130" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="139" t="s">
+      <c r="F6" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="131" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="14">
@@ -29944,492 +30602,492 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="144" t="s">
-        <v>233</v>
+      <c r="K6" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="138" t="s">
-        <v>203</v>
+      <c r="B7" s="130" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="139" t="s">
+      <c r="F7" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="124">
         <v>16</v>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="124">
         <v>32</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="142" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" s="144" t="s">
-        <v>233</v>
+      <c r="K7" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="138" t="s">
-        <v>204</v>
+      <c r="B8" s="130" t="s">
+        <v>185</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="139" t="s">
+      <c r="F8" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="132">
+      <c r="H8" s="124">
         <v>16</v>
       </c>
-      <c r="I8" s="132">
+      <c r="I8" s="124">
         <v>32</v>
       </c>
-      <c r="J8" s="132">
+      <c r="J8" s="124">
         <v>1</v>
       </c>
-      <c r="K8" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="144" t="s">
-        <v>233</v>
+      <c r="K8" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
-        <v>205</v>
+      <c r="B9" s="130" t="s">
+        <v>186</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="139" t="s">
+      <c r="F9" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="124">
         <v>16</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="124">
         <v>32</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="124">
         <v>1</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="144" t="s">
-        <v>233</v>
+      <c r="K9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="136" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="138" t="s">
-        <v>207</v>
+      <c r="B10" s="130" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="139" t="s">
+      <c r="F10" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="124">
         <v>16</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="124">
         <v>32</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="124">
         <v>1</v>
       </c>
-      <c r="K10" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="144" t="s">
-        <v>235</v>
+      <c r="K10" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="138" t="s">
-        <v>209</v>
+      <c r="B11" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="139" t="s">
+      <c r="F11" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="124">
         <v>16</v>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="124">
         <v>32</v>
       </c>
-      <c r="J11" s="132">
+      <c r="J11" s="124">
         <v>1</v>
       </c>
-      <c r="K11" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="144" t="s">
-        <v>235</v>
+      <c r="K11" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="138" t="s">
-        <v>211</v>
+      <c r="B12" s="130" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="139" t="s">
+      <c r="F12" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="124">
         <v>16</v>
       </c>
-      <c r="I12" s="132">
+      <c r="I12" s="124">
         <v>32</v>
       </c>
-      <c r="J12" s="132">
+      <c r="J12" s="124">
         <v>1</v>
       </c>
-      <c r="K12" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" s="144" t="s">
-        <v>235</v>
+      <c r="K12" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
-        <v>213</v>
+      <c r="B13" s="130" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="139" t="s">
+      <c r="F13" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="124">
         <v>16</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="124">
         <v>32</v>
       </c>
-      <c r="J13" s="132">
+      <c r="J13" s="124">
         <v>1</v>
       </c>
-      <c r="K13" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="144" t="s">
-        <v>235</v>
+      <c r="K13" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="138" t="s">
-        <v>218</v>
+      <c r="B14" s="130" t="s">
+        <v>199</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="132">
+      <c r="H14" s="124">
         <v>16</v>
       </c>
-      <c r="I14" s="132">
+      <c r="I14" s="124">
         <v>32</v>
       </c>
-      <c r="J14" s="132">
+      <c r="J14" s="124">
         <v>1</v>
       </c>
-      <c r="K14" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="144" t="s">
-        <v>239</v>
+      <c r="K14" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="139" t="s">
+      <c r="F15" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="124">
         <v>16</v>
       </c>
-      <c r="I15" s="132">
+      <c r="I15" s="124">
         <v>32</v>
       </c>
-      <c r="J15" s="132">
+      <c r="J15" s="124">
         <v>1</v>
       </c>
-      <c r="K15" s="142" t="s">
+      <c r="K15" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="78"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B16" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="137"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="144" t="s">
-        <v>239</v>
-      </c>
-      <c r="M15" s="78"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="132">
+      <c r="H16" s="124">
         <v>16</v>
       </c>
-      <c r="I16" s="132">
+      <c r="I16" s="124">
         <v>32</v>
       </c>
-      <c r="J16" s="132">
+      <c r="J16" s="124">
         <v>1</v>
       </c>
-      <c r="K16" s="142" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="144" t="s">
-        <v>239</v>
+      <c r="K16" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="138" t="s">
-        <v>224</v>
+      <c r="B17" s="130" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="139" t="s">
+      <c r="F17" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="124">
         <v>16</v>
       </c>
-      <c r="I17" s="132">
+      <c r="I17" s="124">
         <v>32</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="124">
         <v>1</v>
       </c>
-      <c r="K17" s="142" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="144" t="s">
-        <v>239</v>
+      <c r="K17" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="136" t="s">
+        <v>220</v>
       </c>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="138" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="132" t="s">
+      <c r="B18" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="139" t="s">
+      <c r="F18" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="132">
+      <c r="H18" s="124">
         <v>16</v>
       </c>
-      <c r="I18" s="132">
+      <c r="I18" s="124">
         <v>32</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="124">
         <v>1</v>
       </c>
-      <c r="K18" s="142" t="s">
-        <v>225</v>
-      </c>
-      <c r="L18" s="144" t="s">
-        <v>240</v>
+      <c r="K18" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M18" s="78"/>
-      <c r="N18" s="146"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="139" t="s">
+      <c r="F19" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="132">
+      <c r="H19" s="124">
         <v>16</v>
       </c>
-      <c r="I19" s="132">
+      <c r="I19" s="124">
         <v>32</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="124">
         <v>1</v>
       </c>
-      <c r="K19" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="144" t="s">
-        <v>240</v>
+      <c r="K19" s="134" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="138" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G20" s="139" t="s">
+      <c r="F20" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="132">
+      <c r="H20" s="124">
         <v>16</v>
       </c>
-      <c r="I20" s="132">
+      <c r="I20" s="124">
         <v>32</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="124">
         <v>1</v>
       </c>
-      <c r="K20" s="142" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="144" t="s">
-        <v>240</v>
+      <c r="K20" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
-        <v>231</v>
+      <c r="B21" s="130" t="s">
+        <v>212</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="139" t="s">
+      <c r="F21" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="124">
         <v>16</v>
       </c>
-      <c r="I21" s="132">
+      <c r="I21" s="124">
         <v>32</v>
       </c>
-      <c r="J21" s="132">
+      <c r="J21" s="124">
         <v>1</v>
       </c>
-      <c r="K21" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="144" t="s">
-        <v>240</v>
+      <c r="K21" s="134" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="136" t="s">
+        <v>221</v>
       </c>
       <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B22" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="127" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="80"/>
@@ -30439,8 +31097,8 @@
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="134"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -30452,7 +31110,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="148"/>
+      <c r="F24" s="139"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="38"/>
@@ -30470,7 +31128,7 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="F28" s="146"/>
+      <c r="F28" s="138"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="356">
   <si>
     <t>Tabla de metadatos - Música</t>
   </si>
@@ -1087,6 +1087,12 @@
   <si>
     <t>00:01:50</t>
   </si>
+  <si>
+    <t>SFX/Personaje Arpa golpea/golpe1</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Guitarra golpea/golpe1</t>
+  </si>
 </sst>
 </file>
 
@@ -1550,7 +1556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1800,14 +1806,8 @@
     <xf numFmtId="21" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="14"/>
@@ -6975,7 +6975,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="14"/>
@@ -12451,8 +12451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12556,7 +12556,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="76"/>
@@ -12676,7 +12676,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="29" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="14"/>
@@ -12710,86 +12710,58 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>117</v>
+      <c r="B9" s="29" t="s">
+        <v>354</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="65">
-        <v>22.05</v>
-      </c>
-      <c r="I9" s="56">
-        <v>24</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="89">
-        <v>3.9675925925925927E-2</v>
-      </c>
-      <c r="L9" s="91" t="s">
-        <v>118</v>
-      </c>
+      <c r="F9" s="117"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="91"/>
       <c r="N9" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="65">
-        <v>22.05</v>
-      </c>
-      <c r="I10" s="56">
-        <v>24</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="89">
-        <v>4.7453703703703704E-4</v>
-      </c>
-      <c r="L10" s="91" t="s">
-        <v>120</v>
-      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="91"/>
       <c r="N10" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="B11" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="65">
@@ -12798,32 +12770,32 @@
       <c r="I11" s="56">
         <v>24</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="66">
-        <v>8.0439814814814818E-3</v>
-      </c>
-      <c r="L11" s="72" t="s">
-        <v>122</v>
+      <c r="J11" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="89">
+        <v>3.9675925925925927E-2</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>118</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="56" t="s">
         <v>90</v>
       </c>
       <c r="H12" s="65">
@@ -12832,32 +12804,32 @@
       <c r="I12" s="56">
         <v>24</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="66">
-        <v>3.7615740740740739E-3</v>
+      <c r="J12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="89">
+        <v>4.7453703703703704E-4</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="65" t="s">
         <v>90</v>
       </c>
       <c r="H13" s="65">
@@ -12866,32 +12838,32 @@
       <c r="I13" s="56">
         <v>24</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="89">
-        <v>6.8287037037037036E-4</v>
-      </c>
-      <c r="L13" s="91" t="s">
-        <v>126</v>
+      <c r="K13" s="92">
+        <v>8.0439814814814818E-3</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="65" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="65">
@@ -12900,359 +12872,416 @@
       <c r="I14" s="56">
         <v>24</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="65" t="s">
         <v>62</v>
       </c>
       <c r="K14" s="92">
-        <v>5.3819444444444444E-3</v>
-      </c>
-      <c r="L14" s="90" t="s">
-        <v>128</v>
+        <v>3.7615740740740739E-3</v>
+      </c>
+      <c r="L14" s="91" t="s">
+        <v>124</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="65">
+        <v>22.05</v>
+      </c>
+      <c r="I15" s="56">
+        <v>24</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="89">
+        <v>6.8287037037037036E-4</v>
+      </c>
+      <c r="L15" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="65">
+        <v>22.05</v>
+      </c>
+      <c r="I16" s="56">
+        <v>24</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="92">
+        <v>5.3819444444444444E-3</v>
+      </c>
+      <c r="L16" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B17" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F17" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G17" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="21">
-        <v>16</v>
-      </c>
-      <c r="I15" s="21">
-        <v>32</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="92">
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="L15" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="21">
-        <v>16</v>
-      </c>
-      <c r="I16" s="65">
-        <v>32</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="66">
-        <v>1.5277777777777779E-3</v>
-      </c>
-      <c r="L16" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="H17" s="65">
         <v>16</v>
       </c>
       <c r="I17" s="65">
         <v>32</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="66">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="L17" s="91" t="s">
-        <v>135</v>
+      <c r="K17" s="92">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>130</v>
       </c>
       <c r="N17" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="65">
         <v>16</v>
       </c>
       <c r="I18" s="65">
         <v>32</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="66">
-        <v>7.5231481481481482E-4</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>137</v>
+      <c r="K18" s="92">
+        <v>1.5277777777777779E-3</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>133</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="65">
         <v>16</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="65">
         <v>32</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>62</v>
+      <c r="J19" s="65" t="s">
+        <v>20</v>
       </c>
       <c r="K19" s="92">
-        <v>1.2037037037037038E-3</v>
+        <v>1.8865740740740742E-3</v>
       </c>
       <c r="L19" s="91" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N19" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="65">
+        <v>16</v>
+      </c>
+      <c r="I20" s="65">
+        <v>32</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="92">
+        <v>7.5231481481481482E-4</v>
+      </c>
+      <c r="L20" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B21" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="65">
+        <v>16</v>
+      </c>
+      <c r="I21" s="65">
+        <v>32</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="92">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="L21" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B22" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F22" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G22" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H22" s="65">
         <v>22.05</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I22" s="65">
         <v>24</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K22" s="92">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L20" s="91" t="s">
+      <c r="L22" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="13" t="s">
+    <row r="23" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B23" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F23" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G23" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H23" s="65">
         <v>22.05</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I23" s="65">
         <v>24</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K23" s="92">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L21" s="91" t="s">
+      <c r="L23" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N23" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="13" t="s">
+    <row r="24" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B24" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F24" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G24" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H24" s="65">
         <v>16</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I24" s="65">
         <v>32</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K24" s="92">
         <v>5.5439814814814813E-3</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L24" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="N24" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="30" t="s">
+    <row r="25" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B25" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32" t="s">
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G25" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H25" s="94">
         <v>16</v>
       </c>
-      <c r="I23" s="96">
+      <c r="I25" s="94">
         <v>32</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J25" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="97">
+      <c r="K25" s="95">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="L23" s="98" t="s">
+      <c r="L25" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N25" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="38">
-        <f t="shared" ref="C24:E24" si="0">COUNTA(C4:C23)</f>
+    <row r="26" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B26" s="97"/>
+      <c r="C26" s="38">
+        <f t="shared" ref="C26:I26" si="0">COUNTA(C6:C25)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D26" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E26" s="38">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="99"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="99"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="99"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B28" s="97"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -18114,7 +18143,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18122,7 +18151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -18220,7 +18249,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="15"/>
@@ -18241,18 +18270,18 @@
       <c r="B5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="146">
+      <c r="H5" s="144">
         <v>22.05</v>
       </c>
       <c r="I5" s="70">
@@ -18261,10 +18290,10 @@
       <c r="J5" s="70">
         <v>1</v>
       </c>
-      <c r="K5" s="141" t="s">
+      <c r="K5" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="L5" s="141" t="s">
         <v>227</v>
       </c>
       <c r="N5" s="27" t="s">
@@ -18275,18 +18304,18 @@
       <c r="B6" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="146">
+      <c r="H6" s="144">
         <v>22.05</v>
       </c>
       <c r="I6" s="70">
@@ -18295,10 +18324,10 @@
       <c r="J6" s="70">
         <v>1</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="L6" s="145" t="s">
+      <c r="L6" s="143" t="s">
         <v>228</v>
       </c>
       <c r="N6" s="27"/>
@@ -18307,18 +18336,18 @@
       <c r="B7" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="146">
+      <c r="H7" s="144">
         <v>22.05</v>
       </c>
       <c r="I7" s="70">
@@ -18327,10 +18356,10 @@
       <c r="J7" s="70">
         <v>1</v>
       </c>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="145" t="s">
+      <c r="L7" s="143" t="s">
         <v>230</v>
       </c>
       <c r="N7" s="27" t="s">
@@ -18346,13 +18375,13 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="146">
+      <c r="H8" s="144">
         <v>22.05</v>
       </c>
       <c r="I8" s="70">
@@ -18361,10 +18390,10 @@
       <c r="J8" s="70">
         <v>1</v>
       </c>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="145" t="s">
+      <c r="L8" s="143" t="s">
         <v>232</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -18372,21 +18401,21 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="138" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="146">
+      <c r="H9" s="144">
         <v>22.05</v>
       </c>
       <c r="I9" s="70">
@@ -18395,30 +18424,30 @@
       <c r="J9" s="70">
         <v>1</v>
       </c>
-      <c r="K9" s="141" t="s">
+      <c r="K9" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="L9" s="145" t="s">
+      <c r="L9" s="143" t="s">
         <v>235</v>
       </c>
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="138" t="s">
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="146">
+      <c r="H10" s="144">
         <v>22.05</v>
       </c>
       <c r="I10" s="70">
@@ -18427,10 +18456,10 @@
       <c r="J10" s="70">
         <v>1</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="145" t="s">
+      <c r="L10" s="143" t="s">
         <v>237</v>
       </c>
       <c r="N10" s="27" t="s">
@@ -18441,18 +18470,18 @@
       <c r="B11" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="138" t="s">
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="146">
+      <c r="H11" s="144">
         <v>22.05</v>
       </c>
       <c r="I11" s="70">
@@ -18461,10 +18490,10 @@
       <c r="J11" s="70">
         <v>1</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="139" t="s">
         <v>242</v>
       </c>
-      <c r="L11" s="145" t="s">
+      <c r="L11" s="143" t="s">
         <v>243</v>
       </c>
       <c r="N11" s="27" t="s">
@@ -18472,21 +18501,21 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="138" t="s">
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="144">
         <v>22.05</v>
       </c>
       <c r="I12" s="70">
@@ -18495,10 +18524,10 @@
       <c r="J12" s="70">
         <v>1</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="L12" s="145" t="s">
+      <c r="L12" s="143" t="s">
         <v>245</v>
       </c>
       <c r="N12" s="27" t="s">
@@ -18506,21 +18535,21 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="138" t="s">
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="146">
+      <c r="H13" s="144">
         <v>22.05</v>
       </c>
       <c r="I13" s="70">
@@ -18529,10 +18558,10 @@
       <c r="J13" s="70">
         <v>1</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="145" t="s">
+      <c r="L13" s="143" t="s">
         <v>247</v>
       </c>
       <c r="M13" s="78"/>
@@ -18541,21 +18570,21 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="138" t="s">
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="146">
+      <c r="H14" s="144">
         <v>22.05</v>
       </c>
       <c r="I14" s="70">
@@ -18564,10 +18593,10 @@
       <c r="J14" s="70">
         <v>1</v>
       </c>
-      <c r="K14" s="147" t="s">
+      <c r="K14" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="145" t="s">
+      <c r="L14" s="143" t="s">
         <v>248</v>
       </c>
       <c r="M14" s="78"/>
@@ -18576,21 +18605,21 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="138" t="s">
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="146">
+      <c r="H15" s="144">
         <v>22.05</v>
       </c>
       <c r="I15" s="70">
@@ -18599,10 +18628,10 @@
       <c r="J15" s="70">
         <v>1</v>
       </c>
-      <c r="K15" s="148" t="s">
+      <c r="K15" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="L15" s="145" t="s">
+      <c r="L15" s="143" t="s">
         <v>250</v>
       </c>
       <c r="N15" s="27" t="s">
@@ -18610,7 +18639,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="126" t="s">
         <v>251</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -18618,13 +18647,13 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="138" t="s">
+      <c r="F16" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G16" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="146">
+      <c r="H16" s="144">
         <v>22.05</v>
       </c>
       <c r="I16" s="70">
@@ -18633,10 +18662,10 @@
       <c r="J16" s="70">
         <v>1</v>
       </c>
-      <c r="K16" s="148" t="s">
+      <c r="K16" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="L16" s="145" t="s">
+      <c r="L16" s="143" t="s">
         <v>254</v>
       </c>
       <c r="N16" s="27" t="s">
@@ -18644,7 +18673,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="126" t="s">
         <v>252</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -18652,13 +18681,13 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="138" t="s">
+      <c r="F17" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G17" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="146">
+      <c r="H17" s="144">
         <v>22.05</v>
       </c>
       <c r="I17" s="70">
@@ -18667,10 +18696,10 @@
       <c r="J17" s="70">
         <v>1</v>
       </c>
-      <c r="K17" s="148" t="s">
+      <c r="K17" s="146" t="s">
         <v>255</v>
       </c>
-      <c r="L17" s="145" t="s">
+      <c r="L17" s="143" t="s">
         <v>256</v>
       </c>
       <c r="N17" s="27" t="s">
@@ -18681,18 +18710,18 @@
       <c r="B18" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="138" t="s">
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G18" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="144">
         <v>22.05</v>
       </c>
       <c r="I18" s="70">
@@ -18701,10 +18730,10 @@
       <c r="J18" s="70">
         <v>1</v>
       </c>
-      <c r="K18" s="148" t="s">
+      <c r="K18" s="146" t="s">
         <v>263</v>
       </c>
-      <c r="L18" s="145" t="s">
+      <c r="L18" s="143" t="s">
         <v>264</v>
       </c>
       <c r="N18" s="27" t="s">
@@ -18712,21 +18741,21 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="126" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="138" t="s">
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="146">
+      <c r="H19" s="144">
         <v>22.05</v>
       </c>
       <c r="I19" s="70">
@@ -18735,10 +18764,10 @@
       <c r="J19" s="70">
         <v>1</v>
       </c>
-      <c r="K19" s="148" t="s">
+      <c r="K19" s="146" t="s">
         <v>265</v>
       </c>
-      <c r="L19" s="145" t="s">
+      <c r="L19" s="143" t="s">
         <v>266</v>
       </c>
       <c r="N19" s="27" t="s">
@@ -18746,21 +18775,21 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="138" t="s">
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="146">
+      <c r="H20" s="144">
         <v>22.05</v>
       </c>
       <c r="I20" s="70">
@@ -18769,10 +18798,10 @@
       <c r="J20" s="70">
         <v>1</v>
       </c>
-      <c r="K20" s="148" t="s">
+      <c r="K20" s="146" t="s">
         <v>267</v>
       </c>
-      <c r="L20" s="145" t="s">
+      <c r="L20" s="143" t="s">
         <v>268</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -18780,21 +18809,21 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="138" t="s">
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="146">
+      <c r="H21" s="144">
         <v>22.05</v>
       </c>
       <c r="I21" s="70">
@@ -18803,10 +18832,10 @@
       <c r="J21" s="70">
         <v>1</v>
       </c>
-      <c r="K21" s="148" t="s">
+      <c r="K21" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="L21" s="145" t="s">
+      <c r="L21" s="143" t="s">
         <v>270</v>
       </c>
       <c r="N21" s="27" t="s">
@@ -18814,21 +18843,21 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="138" t="s">
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="146">
+      <c r="H22" s="144">
         <v>22.05</v>
       </c>
       <c r="I22" s="70">
@@ -18837,30 +18866,30 @@
       <c r="J22" s="70">
         <v>1</v>
       </c>
-      <c r="K22" s="148" t="s">
+      <c r="K22" s="146" t="s">
         <v>271</v>
       </c>
-      <c r="L22" s="145" t="s">
+      <c r="L22" s="143" t="s">
         <v>272</v>
       </c>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="138" t="s">
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="146">
+      <c r="H23" s="144">
         <v>22.05</v>
       </c>
       <c r="I23" s="70">
@@ -18869,16 +18898,16 @@
       <c r="J23" s="70">
         <v>1</v>
       </c>
-      <c r="K23" s="148" t="s">
+      <c r="K23" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="L23" s="145" t="s">
+      <c r="L23" s="143" t="s">
         <v>274</v>
       </c>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="126" t="s">
         <v>262</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -18886,13 +18915,13 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="138" t="s">
+      <c r="F24" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="146">
+      <c r="H24" s="144">
         <v>22.05</v>
       </c>
       <c r="I24" s="70">
@@ -18901,10 +18930,10 @@
       <c r="J24" s="70">
         <v>1</v>
       </c>
-      <c r="K24" s="148" t="s">
+      <c r="K24" s="146" t="s">
         <v>275</v>
       </c>
-      <c r="L24" s="145" t="s">
+      <c r="L24" s="143" t="s">
         <v>276</v>
       </c>
       <c r="N24" s="27" t="s">
@@ -18920,13 +18949,13 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="136"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="142"/>
       <c r="N25" s="27" t="s">
         <v>93</v>
       </c>
@@ -18940,13 +18969,13 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="142"/>
       <c r="N26" s="27" t="s">
         <v>93</v>
       </c>
@@ -18955,18 +18984,18 @@
       <c r="B27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C27" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="138" t="s">
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G27" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="146">
+      <c r="H27" s="144">
         <v>22.05</v>
       </c>
       <c r="I27" s="70">
@@ -18975,10 +19004,10 @@
       <c r="J27" s="70">
         <v>1</v>
       </c>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="L27" s="145" t="s">
+      <c r="L27" s="143" t="s">
         <v>282</v>
       </c>
       <c r="M27" s="78"/>
@@ -18987,21 +19016,21 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="138" t="s">
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="146">
+      <c r="H28" s="144">
         <v>22.05</v>
       </c>
       <c r="I28" s="70">
@@ -19010,10 +19039,10 @@
       <c r="J28" s="70">
         <v>1</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="L28" s="145" t="s">
+      <c r="L28" s="143" t="s">
         <v>284</v>
       </c>
       <c r="M28" s="78"/>
@@ -19022,21 +19051,21 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="138" t="s">
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G29" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="146">
+      <c r="H29" s="144">
         <v>22.05</v>
       </c>
       <c r="I29" s="70">
@@ -19045,10 +19074,10 @@
       <c r="J29" s="70">
         <v>1</v>
       </c>
-      <c r="K29" s="148" t="s">
+      <c r="K29" s="146" t="s">
         <v>265</v>
       </c>
-      <c r="L29" s="145" t="s">
+      <c r="L29" s="143" t="s">
         <v>285</v>
       </c>
       <c r="M29" s="78"/>
@@ -19057,21 +19086,21 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="138" t="s">
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G30" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="146">
+      <c r="H30" s="144">
         <v>22.05</v>
       </c>
       <c r="I30" s="70">
@@ -19080,10 +19109,10 @@
       <c r="J30" s="70">
         <v>1</v>
       </c>
-      <c r="K30" s="148" t="s">
+      <c r="K30" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="L30" s="145" t="s">
+      <c r="L30" s="143" t="s">
         <v>287</v>
       </c>
       <c r="M30" s="78"/>
@@ -19092,7 +19121,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="126" t="s">
         <v>280</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -19100,13 +19129,13 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G31" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="146">
+      <c r="H31" s="144">
         <v>22.05</v>
       </c>
       <c r="I31" s="70">
@@ -19115,10 +19144,10 @@
       <c r="J31" s="70">
         <v>1</v>
       </c>
-      <c r="K31" s="148" t="s">
+      <c r="K31" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="L31" s="145" t="s">
+      <c r="L31" s="143" t="s">
         <v>289</v>
       </c>
       <c r="M31" s="78"/>
@@ -19135,7 +19164,7 @@
       </c>
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G32" s="70" t="s">
@@ -19150,10 +19179,10 @@
       <c r="J32" s="70">
         <v>1</v>
       </c>
-      <c r="K32" s="140" t="s">
+      <c r="K32" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="L32" s="142" t="s">
+      <c r="L32" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M32" s="19"/>
@@ -19170,7 +19199,7 @@
       </c>
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
-      <c r="F33" s="138" t="s">
+      <c r="F33" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G33" s="70" t="s">
@@ -19185,10 +19214,10 @@
       <c r="J33" s="70">
         <v>1</v>
       </c>
-      <c r="K33" s="140" t="s">
+      <c r="K33" s="138" t="s">
         <v>296</v>
       </c>
-      <c r="L33" s="142" t="s">
+      <c r="L33" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M33" s="19"/>
@@ -19205,7 +19234,7 @@
       </c>
       <c r="D34" s="70"/>
       <c r="E34" s="70"/>
-      <c r="F34" s="138" t="s">
+      <c r="F34" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G34" s="70" t="s">
@@ -19220,10 +19249,10 @@
       <c r="J34" s="70">
         <v>1</v>
       </c>
-      <c r="K34" s="140" t="s">
+      <c r="K34" s="138" t="s">
         <v>298</v>
       </c>
-      <c r="L34" s="142" t="s">
+      <c r="L34" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M34" s="19"/>
@@ -19240,7 +19269,7 @@
       </c>
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
-      <c r="F35" s="138" t="s">
+      <c r="F35" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G35" s="70" t="s">
@@ -19255,10 +19284,10 @@
       <c r="J35" s="70">
         <v>1</v>
       </c>
-      <c r="K35" s="140" t="s">
+      <c r="K35" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="142" t="s">
+      <c r="L35" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M35" s="19"/>
@@ -19275,7 +19304,7 @@
       </c>
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
-      <c r="F36" s="138" t="s">
+      <c r="F36" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G36" s="70" t="s">
@@ -19290,10 +19319,10 @@
       <c r="J36" s="70">
         <v>1</v>
       </c>
-      <c r="K36" s="140" t="s">
+      <c r="K36" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="L36" s="142" t="s">
+      <c r="L36" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M36" s="19"/>
@@ -19310,7 +19339,7 @@
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
-      <c r="F37" s="138" t="s">
+      <c r="F37" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G37" s="70" t="s">
@@ -19325,10 +19354,10 @@
       <c r="J37" s="70">
         <v>1</v>
       </c>
-      <c r="K37" s="140" t="s">
+      <c r="K37" s="138" t="s">
         <v>303</v>
       </c>
-      <c r="L37" s="142" t="s">
+      <c r="L37" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M37" s="19"/>
@@ -19345,7 +19374,7 @@
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="138" t="s">
+      <c r="F38" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G38" s="70" t="s">
@@ -19360,10 +19389,10 @@
       <c r="J38" s="70">
         <v>1</v>
       </c>
-      <c r="K38" s="140" t="s">
+      <c r="K38" s="138" t="s">
         <v>305</v>
       </c>
-      <c r="L38" s="142" t="s">
+      <c r="L38" s="140" t="s">
         <v>294</v>
       </c>
       <c r="M38" s="19"/>
@@ -19380,7 +19409,7 @@
       </c>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="138" t="s">
+      <c r="F39" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G39" s="70" t="s">
@@ -19395,10 +19424,10 @@
       <c r="J39" s="70">
         <v>1</v>
       </c>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="138" t="s">
         <v>307</v>
       </c>
-      <c r="L39" s="142" t="s">
+      <c r="L39" s="140" t="s">
         <v>308</v>
       </c>
       <c r="N39" s="27" t="s">
@@ -19414,7 +19443,7 @@
       </c>
       <c r="D40" s="70"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="138" t="s">
+      <c r="F40" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G40" s="70" t="s">
@@ -19429,10 +19458,10 @@
       <c r="J40" s="70">
         <v>1</v>
       </c>
-      <c r="K40" s="140" t="s">
+      <c r="K40" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="L40" s="142" t="s">
+      <c r="L40" s="140" t="s">
         <v>308</v>
       </c>
       <c r="N40" s="27" t="s">
@@ -19448,7 +19477,7 @@
       </c>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="136" t="s">
         <v>291</v>
       </c>
       <c r="G41" s="70" t="s">
@@ -19463,16 +19492,16 @@
       <c r="J41" s="70">
         <v>1</v>
       </c>
-      <c r="K41" s="140" t="s">
+      <c r="K41" s="138" t="s">
         <v>312</v>
       </c>
-      <c r="L41" s="142" t="s">
+      <c r="L41" s="140" t="s">
         <v>308</v>
       </c>
       <c r="N41" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="138"/>
+      <c r="Q41" s="136"/>
     </row>
     <row r="42" spans="2:17" ht="13.5" customHeight="1">
       <c r="B42" s="29" t="s">
@@ -19483,7 +19512,7 @@
       </c>
       <c r="D42" s="70"/>
       <c r="E42" s="70"/>
-      <c r="F42" s="149" t="s">
+      <c r="F42" s="147" t="s">
         <v>314</v>
       </c>
       <c r="G42" s="70" t="s">
@@ -19498,10 +19527,10 @@
       <c r="J42" s="70">
         <v>1</v>
       </c>
-      <c r="K42" s="140" t="s">
+      <c r="K42" s="138" t="s">
         <v>315</v>
       </c>
-      <c r="L42" s="142" t="s">
+      <c r="L42" s="140" t="s">
         <v>221</v>
       </c>
       <c r="N42" s="27" t="s">
@@ -19517,7 +19546,7 @@
       </c>
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
-      <c r="F43" s="149" t="s">
+      <c r="F43" s="147" t="s">
         <v>314</v>
       </c>
       <c r="G43" s="70" t="s">
@@ -19532,10 +19561,10 @@
       <c r="J43" s="70">
         <v>1</v>
       </c>
-      <c r="K43" s="140" t="s">
+      <c r="K43" s="138" t="s">
         <v>317</v>
       </c>
-      <c r="L43" s="142" t="s">
+      <c r="L43" s="140" t="s">
         <v>221</v>
       </c>
       <c r="N43" s="27" t="s">
@@ -19551,7 +19580,7 @@
       </c>
       <c r="D44" s="70"/>
       <c r="E44" s="70"/>
-      <c r="F44" s="138" t="s">
+      <c r="F44" s="136" t="s">
         <v>314</v>
       </c>
       <c r="G44" s="70" t="s">
@@ -19566,10 +19595,10 @@
       <c r="J44" s="70">
         <v>1</v>
       </c>
-      <c r="K44" s="140" t="s">
+      <c r="K44" s="138" t="s">
         <v>319</v>
       </c>
-      <c r="L44" s="142" t="s">
+      <c r="L44" s="140" t="s">
         <v>221</v>
       </c>
       <c r="N44" s="27" t="s">
@@ -19589,7 +19618,7 @@
       <c r="H45" s="70"/>
       <c r="I45" s="70"/>
       <c r="J45" s="70"/>
-      <c r="K45" s="140"/>
+      <c r="K45" s="138"/>
       <c r="L45" s="88"/>
       <c r="N45" s="27" t="s">
         <v>93</v>
@@ -19608,7 +19637,7 @@
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
       <c r="J46" s="70"/>
-      <c r="K46" s="140"/>
+      <c r="K46" s="138"/>
       <c r="L46" s="88"/>
       <c r="N46" s="27" t="s">
         <v>93</v>
@@ -19628,7 +19657,7 @@
       <c r="I47" s="70"/>
       <c r="J47" s="70"/>
       <c r="K47" s="70"/>
-      <c r="L47" s="142"/>
+      <c r="L47" s="140"/>
       <c r="N47" s="27" t="s">
         <v>93</v>
       </c>
@@ -19657,10 +19686,10 @@
       <c r="J48" s="70">
         <v>2</v>
       </c>
-      <c r="K48" s="140" t="s">
+      <c r="K48" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="L48" s="142" t="s">
+      <c r="L48" s="140" t="s">
         <v>323</v>
       </c>
       <c r="N48" s="27" t="s">
@@ -19668,7 +19697,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B49" s="150" t="s">
+      <c r="B49" s="148" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="70" t="s">
@@ -19676,7 +19705,7 @@
       </c>
       <c r="D49" s="70"/>
       <c r="E49" s="70"/>
-      <c r="F49" s="138" t="s">
+      <c r="F49" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G49" s="70" t="s">
@@ -19691,7 +19720,7 @@
       <c r="J49" s="70">
         <v>1</v>
       </c>
-      <c r="K49" s="140" t="s">
+      <c r="K49" s="138" t="s">
         <v>273</v>
       </c>
       <c r="L49" s="88" t="s">
@@ -19700,7 +19729,7 @@
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="148" t="s">
         <v>179</v>
       </c>
       <c r="C50" s="70" t="s">
@@ -19723,7 +19752,7 @@
       <c r="J50" s="70">
         <v>1</v>
       </c>
-      <c r="K50" s="140" t="s">
+      <c r="K50" s="138" t="s">
         <v>324</v>
       </c>
       <c r="L50" s="88" t="s">
@@ -19755,10 +19784,10 @@
       <c r="J51" s="70">
         <v>1</v>
       </c>
-      <c r="K51" s="140" t="s">
+      <c r="K51" s="138" t="s">
         <v>265</v>
       </c>
-      <c r="L51" s="142" t="s">
+      <c r="L51" s="140" t="s">
         <v>326</v>
       </c>
       <c r="N51" s="27" t="s">
@@ -19774,7 +19803,7 @@
       </c>
       <c r="D52" s="70"/>
       <c r="E52" s="70"/>
-      <c r="F52" s="138" t="s">
+      <c r="F52" s="136" t="s">
         <v>195</v>
       </c>
       <c r="G52" s="70" t="s">
@@ -19789,10 +19818,10 @@
       <c r="J52" s="70">
         <v>1</v>
       </c>
-      <c r="K52" s="140" t="s">
+      <c r="K52" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="L52" s="142" t="s">
+      <c r="L52" s="140" t="s">
         <v>328</v>
       </c>
       <c r="N52" s="27" t="s">
@@ -19823,10 +19852,10 @@
       <c r="J53" s="70">
         <v>1</v>
       </c>
-      <c r="K53" s="140" t="s">
+      <c r="K53" s="138" t="s">
         <v>330</v>
       </c>
-      <c r="L53" s="142" t="s">
+      <c r="L53" s="140" t="s">
         <v>331</v>
       </c>
       <c r="N53" s="27" t="s">
@@ -19857,10 +19886,10 @@
       <c r="J54" s="70">
         <v>1</v>
       </c>
-      <c r="K54" s="140" t="s">
+      <c r="K54" s="138" t="s">
         <v>333</v>
       </c>
-      <c r="L54" s="142" t="s">
+      <c r="L54" s="140" t="s">
         <v>334</v>
       </c>
       <c r="N54" s="27" t="s">
@@ -19891,10 +19920,10 @@
       <c r="J55" s="70">
         <v>1</v>
       </c>
-      <c r="K55" s="140" t="s">
+      <c r="K55" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="L55" s="142" t="s">
+      <c r="L55" s="140" t="s">
         <v>337</v>
       </c>
       <c r="N55" s="27" t="s">
@@ -19925,10 +19954,10 @@
       <c r="J56" s="70">
         <v>1</v>
       </c>
-      <c r="K56" s="140" t="s">
+      <c r="K56" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="L56" s="142" t="s">
+      <c r="L56" s="140" t="s">
         <v>339</v>
       </c>
       <c r="N56" s="27" t="s">
@@ -19942,14 +19971,14 @@
       <c r="C57" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
       <c r="G57" s="70"/>
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
       <c r="J57" s="70"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="142"/>
+      <c r="K57" s="138"/>
+      <c r="L57" s="140"/>
       <c r="N57" s="27" t="s">
         <v>93</v>
       </c>
@@ -19967,8 +19996,8 @@
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
       <c r="J58" s="70"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="142"/>
+      <c r="K58" s="138"/>
+      <c r="L58" s="140"/>
       <c r="M58" s="19"/>
       <c r="N58" s="27" t="s">
         <v>93</v>
@@ -19981,14 +20010,14 @@
       <c r="C59" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
       <c r="G59" s="70"/>
       <c r="H59" s="70"/>
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="142"/>
+      <c r="K59" s="138"/>
+      <c r="L59" s="140"/>
       <c r="M59" s="19"/>
       <c r="N59" s="27" t="s">
         <v>93</v>
@@ -20001,14 +20030,14 @@
       <c r="C60" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="124"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="70"/>
       <c r="G60" s="70"/>
       <c r="H60" s="70"/>
       <c r="I60" s="70"/>
       <c r="J60" s="70"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="142"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="140"/>
       <c r="M60" s="19"/>
       <c r="N60" s="27" t="s">
         <v>93</v>
@@ -20038,10 +20067,10 @@
       <c r="J61" s="70">
         <v>1</v>
       </c>
-      <c r="K61" s="140" t="s">
+      <c r="K61" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="L61" s="142" t="s">
+      <c r="L61" s="140" t="s">
         <v>342</v>
       </c>
       <c r="M61" s="19"/>
@@ -20073,10 +20102,10 @@
       <c r="J62" s="70">
         <v>1</v>
       </c>
-      <c r="K62" s="140" t="s">
+      <c r="K62" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="L62" s="142" t="s">
+      <c r="L62" s="140" t="s">
         <v>345</v>
       </c>
       <c r="M62" s="19"/>
@@ -20108,10 +20137,10 @@
       <c r="J63" s="70">
         <v>1</v>
       </c>
-      <c r="K63" s="140" t="s">
+      <c r="K63" s="138" t="s">
         <v>347</v>
       </c>
-      <c r="L63" s="142" t="s">
+      <c r="L63" s="140" t="s">
         <v>348</v>
       </c>
       <c r="M63" s="19"/>
@@ -20128,7 +20157,7 @@
       </c>
       <c r="D64" s="83"/>
       <c r="E64" s="83"/>
-      <c r="F64" s="151" t="s">
+      <c r="F64" s="149" t="s">
         <v>350</v>
       </c>
       <c r="G64" s="83" t="s">
@@ -20143,10 +20172,10 @@
       <c r="J64" s="83">
         <v>1</v>
       </c>
-      <c r="K64" s="152" t="s">
+      <c r="K64" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="L64" s="153" t="s">
+      <c r="L64" s="151" t="s">
         <v>352</v>
       </c>
       <c r="M64" s="19"/>
@@ -20155,7 +20184,7 @@
       </c>
     </row>
     <row r="65" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B65" s="154"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="19">
         <f>COUNTA(C37:C64)</f>
         <v>28</v>
@@ -25111,7 +25140,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="14"/>
@@ -25122,8 +25151,8 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
       <c r="N4" s="19" t="s">
         <v>21</v>
       </c>
@@ -25138,7 +25167,7 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="L5" s="101"/>
+      <c r="L5" s="99"/>
       <c r="N5" s="27" t="s">
         <v>24</v>
       </c>
@@ -25157,8 +25186,8 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="101"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="99"/>
       <c r="N6" s="27" t="s">
         <v>24</v>
       </c>
@@ -25172,13 +25201,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="99"/>
       <c r="N7" s="27" t="s">
         <v>24</v>
       </c>
@@ -25192,13 +25221,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
       <c r="N8" s="27" t="s">
         <v>93</v>
       </c>
@@ -25212,13 +25241,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="78"/>
       <c r="N9" s="27" t="s">
         <v>24</v>
@@ -25233,13 +25262,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
       <c r="M10" s="78"/>
       <c r="N10" s="27" t="s">
         <v>24</v>
@@ -25254,13 +25283,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="68"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
       <c r="M11" s="78"/>
       <c r="N11" s="27" t="s">
         <v>24</v>
@@ -25275,13 +25304,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
       <c r="N12" s="27" t="s">
         <v>24</v>
       </c>
@@ -25298,12 +25327,12 @@
       <c r="F13" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="116"/>
       <c r="N13" s="27" t="s">
         <v>93</v>
       </c>
@@ -25320,12 +25349,12 @@
       <c r="F14" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="118"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="116"/>
       <c r="N14" s="27" t="s">
         <v>93</v>
       </c>
@@ -25342,12 +25371,12 @@
       <c r="F15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="116"/>
       <c r="N15" s="27" t="s">
         <v>93</v>
       </c>
@@ -25361,13 +25390,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="115"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="113"/>
       <c r="N16" s="27" t="s">
         <v>93</v>
       </c>
@@ -25381,13 +25410,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="118"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="116"/>
       <c r="N17" s="27" t="s">
         <v>93</v>
       </c>
@@ -25401,13 +25430,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="118"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="116"/>
       <c r="N18" s="27" t="s">
         <v>24</v>
       </c>
@@ -25427,7 +25456,7 @@
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="118"/>
+      <c r="L19" s="116"/>
       <c r="N19" s="27" t="s">
         <v>24</v>
       </c>
@@ -25446,8 +25475,8 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="118"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="116"/>
       <c r="N20" s="27" t="s">
         <v>131</v>
       </c>
@@ -25467,7 +25496,7 @@
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="118"/>
+      <c r="L21" s="116"/>
       <c r="N21" s="27" t="s">
         <v>93</v>
       </c>
@@ -25481,7 +25510,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="120" t="s">
         <v>171</v>
       </c>
       <c r="G22" s="71"/>
@@ -25489,7 +25518,7 @@
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="118"/>
+      <c r="L22" s="116"/>
       <c r="N22" s="27" t="s">
         <v>93</v>
       </c>
@@ -25509,7 +25538,7 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="118"/>
+      <c r="L23" s="116"/>
       <c r="N23" s="27" t="s">
         <v>24</v>
       </c>
@@ -25529,7 +25558,7 @@
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="115"/>
+      <c r="L24" s="113"/>
       <c r="N24" s="27" t="s">
         <v>93</v>
       </c>
@@ -25544,7 +25573,7 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="24"/>
-      <c r="L25" s="118"/>
+      <c r="L25" s="116"/>
       <c r="N25" s="27" t="s">
         <v>24</v>
       </c>
@@ -25559,19 +25588,19 @@
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="124"/>
       <c r="M26" s="78"/>
       <c r="N26" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="99"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="78">
         <f t="shared" ref="C27:E27" si="0">COUNTA(C4:C26)</f>
         <v>1</v>
@@ -25594,7 +25623,7 @@
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="99"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -30547,19 +30576,19 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="135"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="13" t="s">
@@ -30570,16 +30599,16 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="135"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="128" t="s">
         <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -30587,10 +30616,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="129" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="14">
@@ -30602,15 +30631,15 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="134" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="128" t="s">
         <v>184</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -30618,30 +30647,30 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="122">
         <v>16</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="122">
         <v>32</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="L7" s="134" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="128" t="s">
         <v>185</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -30649,30 +30678,30 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="122">
         <v>16</v>
       </c>
-      <c r="I8" s="124">
+      <c r="I8" s="122">
         <v>32</v>
       </c>
-      <c r="J8" s="124">
+      <c r="J8" s="122">
         <v>1</v>
       </c>
-      <c r="K8" s="134" t="s">
+      <c r="K8" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="136" t="s">
+      <c r="L8" s="134" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="128" t="s">
         <v>186</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -30680,30 +30709,30 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="138" t="s">
+      <c r="F9" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="122">
         <v>16</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="122">
         <v>32</v>
       </c>
-      <c r="J9" s="124">
+      <c r="J9" s="122">
         <v>1</v>
       </c>
-      <c r="K9" s="134" t="s">
+      <c r="K9" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="L9" s="136" t="s">
+      <c r="L9" s="134" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="128" t="s">
         <v>188</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -30711,30 +30740,30 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="138" t="s">
+      <c r="F10" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="124">
+      <c r="H10" s="122">
         <v>16</v>
       </c>
-      <c r="I10" s="124">
+      <c r="I10" s="122">
         <v>32</v>
       </c>
-      <c r="J10" s="124">
+      <c r="J10" s="122">
         <v>1</v>
       </c>
-      <c r="K10" s="134" t="s">
+      <c r="K10" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="136" t="s">
+      <c r="L10" s="134" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="128" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -30742,30 +30771,30 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="122">
         <v>16</v>
       </c>
-      <c r="I11" s="124">
+      <c r="I11" s="122">
         <v>32</v>
       </c>
-      <c r="J11" s="124">
+      <c r="J11" s="122">
         <v>1</v>
       </c>
-      <c r="K11" s="134" t="s">
+      <c r="K11" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="136" t="s">
+      <c r="L11" s="134" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="128" t="s">
         <v>192</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -30773,30 +30802,30 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="124">
+      <c r="H12" s="122">
         <v>16</v>
       </c>
-      <c r="I12" s="124">
+      <c r="I12" s="122">
         <v>32</v>
       </c>
-      <c r="J12" s="124">
+      <c r="J12" s="122">
         <v>1</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="L12" s="136" t="s">
+      <c r="L12" s="134" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="128" t="s">
         <v>194</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -30804,30 +30833,30 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="124">
+      <c r="H13" s="122">
         <v>16</v>
       </c>
-      <c r="I13" s="124">
+      <c r="I13" s="122">
         <v>32</v>
       </c>
-      <c r="J13" s="124">
+      <c r="J13" s="122">
         <v>1</v>
       </c>
-      <c r="K13" s="134" t="s">
+      <c r="K13" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="136" t="s">
+      <c r="L13" s="134" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="128" t="s">
         <v>199</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -30835,95 +30864,95 @@
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="124">
+      <c r="H14" s="122">
         <v>16</v>
       </c>
-      <c r="I14" s="124">
+      <c r="I14" s="122">
         <v>32</v>
       </c>
-      <c r="J14" s="124">
+      <c r="J14" s="122">
         <v>1</v>
       </c>
-      <c r="K14" s="134" t="s">
+      <c r="K14" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="L14" s="136" t="s">
+      <c r="L14" s="134" t="s">
         <v>220</v>
       </c>
       <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="124">
+      <c r="H15" s="122">
         <v>16</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="122">
         <v>32</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="122">
         <v>1</v>
       </c>
-      <c r="K15" s="134" t="s">
+      <c r="K15" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="L15" s="136" t="s">
+      <c r="L15" s="134" t="s">
         <v>220</v>
       </c>
       <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="137"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="138" t="s">
+      <c r="F16" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="124">
+      <c r="H16" s="122">
         <v>16</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="122">
         <v>32</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="122">
         <v>1</v>
       </c>
-      <c r="K16" s="134" t="s">
+      <c r="K16" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="136" t="s">
+      <c r="L16" s="134" t="s">
         <v>220</v>
       </c>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="128" t="s">
         <v>205</v>
       </c>
       <c r="C17" s="68" t="s">
@@ -30931,128 +30960,128 @@
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="138" t="s">
+      <c r="F17" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="124">
+      <c r="H17" s="122">
         <v>16</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="122">
         <v>32</v>
       </c>
-      <c r="J17" s="124">
+      <c r="J17" s="122">
         <v>1</v>
       </c>
-      <c r="K17" s="134" t="s">
+      <c r="K17" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="136" t="s">
+      <c r="L17" s="134" t="s">
         <v>220</v>
       </c>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="138" t="s">
+      <c r="F18" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="124">
+      <c r="H18" s="122">
         <v>16</v>
       </c>
-      <c r="I18" s="124">
+      <c r="I18" s="122">
         <v>32</v>
       </c>
-      <c r="J18" s="124">
+      <c r="J18" s="122">
         <v>1</v>
       </c>
-      <c r="K18" s="134" t="s">
+      <c r="K18" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="L18" s="136" t="s">
+      <c r="L18" s="134" t="s">
         <v>221</v>
       </c>
       <c r="M18" s="78"/>
-      <c r="N18" s="138"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="122">
         <v>16</v>
       </c>
-      <c r="I19" s="124">
+      <c r="I19" s="122">
         <v>32</v>
       </c>
-      <c r="J19" s="124">
+      <c r="J19" s="122">
         <v>1</v>
       </c>
-      <c r="K19" s="134" t="s">
+      <c r="K19" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="L19" s="136" t="s">
+      <c r="L19" s="134" t="s">
         <v>221</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="138" t="s">
+      <c r="F20" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="124">
+      <c r="H20" s="122">
         <v>16</v>
       </c>
-      <c r="I20" s="124">
+      <c r="I20" s="122">
         <v>32</v>
       </c>
-      <c r="J20" s="124">
+      <c r="J20" s="122">
         <v>1</v>
       </c>
-      <c r="K20" s="134" t="s">
+      <c r="K20" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="136" t="s">
+      <c r="L20" s="134" t="s">
         <v>221</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="128" t="s">
         <v>212</v>
       </c>
       <c r="C21" s="68" t="s">
@@ -31060,25 +31089,25 @@
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="G21" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="124">
+      <c r="H21" s="122">
         <v>16</v>
       </c>
-      <c r="I21" s="124">
+      <c r="I21" s="122">
         <v>32</v>
       </c>
-      <c r="J21" s="124">
+      <c r="J21" s="122">
         <v>1</v>
       </c>
-      <c r="K21" s="134" t="s">
+      <c r="K21" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="136" t="s">
+      <c r="L21" s="134" t="s">
         <v>221</v>
       </c>
       <c r="M21" s="78"/>
@@ -31087,7 +31116,7 @@
       <c r="B22" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="80"/>
@@ -31097,8 +31126,8 @@
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="126"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -31110,7 +31139,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="139"/>
+      <c r="F24" s="137"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="38"/>
@@ -31128,7 +31157,7 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="F28" s="138"/>
+      <c r="F28" s="136"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="C29" s="38"/>

--- a/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -1556,7 +1556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1961,6 +1961,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3484,7 +3487,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3852,7 +3855,7 @@
       <c r="E13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="153" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -13262,7 +13265,7 @@
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="97"/>
       <c r="C26" s="38">
-        <f t="shared" ref="C26:I26" si="0">COUNTA(C6:C25)</f>
+        <f t="shared" ref="C26:E26" si="0">COUNTA(C6:C25)</f>
         <v>0</v>
       </c>
       <c r="D26" s="38">
